--- a/Code/Results/Cases/Case_0_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9018098547936038</v>
+        <v>0.9018098547936053</v>
       </c>
       <c r="D2">
-        <v>0.9133103648797224</v>
+        <v>0.9133103648797237</v>
       </c>
       <c r="E2">
-        <v>0.9191150324286402</v>
+        <v>0.9191150324286415</v>
       </c>
       <c r="F2">
-        <v>0.924733754724734</v>
+        <v>0.9247337547247352</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.028227388195433</v>
       </c>
       <c r="J2">
-        <v>0.9273842214379062</v>
+        <v>0.9273842214379074</v>
       </c>
       <c r="K2">
-        <v>0.926125882444308</v>
+        <v>0.9261258824443095</v>
       </c>
       <c r="L2">
-        <v>0.9318294062699105</v>
+        <v>0.9318294062699115</v>
       </c>
       <c r="M2">
-        <v>0.9373517865294361</v>
+        <v>0.9373517865294373</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9254917604755885</v>
+        <v>0.92549176047559</v>
       </c>
       <c r="D3">
-        <v>0.9359073669659853</v>
+        <v>0.9359073669659869</v>
       </c>
       <c r="E3">
-        <v>0.9395462996029401</v>
+        <v>0.9395462996029416</v>
       </c>
       <c r="F3">
-        <v>0.9466428337864519</v>
+        <v>0.9466428337864533</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033430376006298</v>
+        <v>1.033430376006299</v>
       </c>
       <c r="J3">
-        <v>0.9482424552972196</v>
+        <v>0.9482424552972214</v>
       </c>
       <c r="K3">
-        <v>0.9474317860292585</v>
+        <v>0.9474317860292601</v>
       </c>
       <c r="L3">
-        <v>0.951015958215385</v>
+        <v>0.9510159582153868</v>
       </c>
       <c r="M3">
-        <v>0.9580072381002002</v>
+        <v>0.9580072381002016</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9393583223971202</v>
+        <v>0.93935832239712</v>
       </c>
       <c r="D4">
-        <v>0.9491546121056008</v>
+        <v>0.9491546121056004</v>
       </c>
       <c r="E4">
-        <v>0.95152436915039</v>
+        <v>0.9515243691503894</v>
       </c>
       <c r="F4">
-        <v>0.9594933563562292</v>
+        <v>0.9594933563562282</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.036452571364426</v>
       </c>
       <c r="J4">
-        <v>0.9604516230173581</v>
+        <v>0.9604516230173576</v>
       </c>
       <c r="K4">
         <v>0.959908071371806</v>
       </c>
       <c r="L4">
-        <v>0.9622453417078551</v>
+        <v>0.9622453417078548</v>
       </c>
       <c r="M4">
-        <v>0.9701065620081916</v>
+        <v>0.9701065620081909</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9449014541741355</v>
+        <v>0.944901454174134</v>
       </c>
       <c r="D5">
-        <v>0.9544531937864257</v>
+        <v>0.9544531937864239</v>
       </c>
       <c r="E5">
-        <v>0.9563152424471431</v>
+        <v>0.9563152424471414</v>
       </c>
       <c r="F5">
-        <v>0.96463406844335</v>
+        <v>0.9646340684433485</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037653939843524</v>
+        <v>1.037653939843523</v>
       </c>
       <c r="J5">
-        <v>0.9653306293783712</v>
+        <v>0.9653306293783694</v>
       </c>
       <c r="K5">
-        <v>0.9648949710573139</v>
+        <v>0.9648949710573121</v>
       </c>
       <c r="L5">
-        <v>0.9667324715791713</v>
+        <v>0.9667324715791696</v>
       </c>
       <c r="M5">
-        <v>0.9749430749514612</v>
+        <v>0.9749430749514597</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9458168318327739</v>
+        <v>0.945816831832773</v>
       </c>
       <c r="D6">
-        <v>0.9553283461610131</v>
+        <v>0.955328346161012</v>
       </c>
       <c r="E6">
-        <v>0.9571065298686117</v>
+        <v>0.9571065298686108</v>
       </c>
       <c r="F6">
-        <v>0.9654831754926446</v>
+        <v>0.9654831754926441</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.037851910418284</v>
       </c>
       <c r="J6">
-        <v>0.9661362272856788</v>
+        <v>0.9661362272856777</v>
       </c>
       <c r="K6">
-        <v>0.9657184497803577</v>
+        <v>0.9657184497803569</v>
       </c>
       <c r="L6">
-        <v>0.9674733443258617</v>
+        <v>0.967473344325861</v>
       </c>
       <c r="M6">
-        <v>0.9757417219500186</v>
+        <v>0.9757417219500183</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9394334472977135</v>
+        <v>0.9394334472977063</v>
       </c>
       <c r="D7">
-        <v>0.949226411468039</v>
+        <v>0.9492264114680312</v>
       </c>
       <c r="E7">
-        <v>0.9515892891898801</v>
+        <v>0.9515892891898736</v>
       </c>
       <c r="F7">
-        <v>0.9595630140926819</v>
+        <v>0.9595630140926753</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036468881338755</v>
+        <v>1.036468881338753</v>
       </c>
       <c r="J7">
-        <v>0.9605177541982558</v>
+        <v>0.9605177541982486</v>
       </c>
       <c r="K7">
-        <v>0.9599756604436621</v>
+        <v>0.9599756604436546</v>
       </c>
       <c r="L7">
-        <v>0.9623061626807751</v>
+        <v>0.9623061626807687</v>
       </c>
       <c r="M7">
-        <v>0.970172112419784</v>
+        <v>0.9701721124197773</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9101600519016495</v>
+        <v>0.9101600519016505</v>
       </c>
       <c r="D8">
-        <v>0.9212738874470184</v>
+        <v>0.9212738874470193</v>
       </c>
       <c r="E8">
-        <v>0.9263150740266517</v>
+        <v>0.9263150740266526</v>
       </c>
       <c r="F8">
-        <v>0.9324528055906738</v>
+        <v>0.9324528055906747</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.030066651750923</v>
       </c>
       <c r="J8">
-        <v>0.9347392127553247</v>
+        <v>0.9347392127553258</v>
       </c>
       <c r="K8">
-        <v>0.9336375536035504</v>
+        <v>0.9336375536035513</v>
       </c>
       <c r="L8">
-        <v>0.9385951898726046</v>
+        <v>0.9385951898726055</v>
       </c>
       <c r="M8">
-        <v>0.9446327632488734</v>
+        <v>0.944632763248874</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8425983939935022</v>
+        <v>0.8425983939935026</v>
       </c>
       <c r="D9">
-        <v>0.8569913066575914</v>
+        <v>0.8569913066575919</v>
       </c>
       <c r="E9">
-        <v>0.8682142431811548</v>
+        <v>0.868214243181155</v>
       </c>
       <c r="F9">
-        <v>0.8702425217626355</v>
+        <v>0.8702425217626358</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.015132667124544</v>
+        <v>1.015132667124545</v>
       </c>
       <c r="J9">
-        <v>0.8752634281129799</v>
+        <v>0.8752634281129801</v>
       </c>
       <c r="K9">
-        <v>0.8729265273412357</v>
+        <v>0.8729265273412358</v>
       </c>
       <c r="L9">
         <v>0.8838810185160416</v>
       </c>
       <c r="M9">
-        <v>0.8858617706822204</v>
+        <v>0.8858617706822206</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.769384726876013</v>
+        <v>0.7693847268760117</v>
       </c>
       <c r="D10">
-        <v>0.7878209999159124</v>
+        <v>0.7878209999159108</v>
       </c>
       <c r="E10">
-        <v>0.8057915363794429</v>
+        <v>0.805791536379442</v>
       </c>
       <c r="F10">
-        <v>0.8037000791543873</v>
+        <v>0.8037000791543863</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.9991178191459421</v>
+        <v>0.9991178191459416</v>
       </c>
       <c r="J10">
-        <v>0.8110787202738821</v>
+        <v>0.8110787202738811</v>
       </c>
       <c r="K10">
-        <v>0.8074765213312465</v>
+        <v>0.8074765213312453</v>
       </c>
       <c r="L10">
-        <v>0.82484909292923</v>
+        <v>0.824849092929229</v>
       </c>
       <c r="M10">
-        <v>0.8228253217787095</v>
+        <v>0.8228253217787082</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7031341963369844</v>
+        <v>0.7031341963369846</v>
       </c>
       <c r="D11">
-        <v>0.7258549549553108</v>
+        <v>0.7258549549553109</v>
       </c>
       <c r="E11">
-        <v>0.7500304193500997</v>
+        <v>0.7500304193501002</v>
       </c>
       <c r="F11">
-        <v>0.7446671383921925</v>
+        <v>0.7446671383921923</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J11">
-        <v>0.7534992868576093</v>
+        <v>0.7534992868576094</v>
       </c>
       <c r="K11">
-        <v>0.7488122416280726</v>
+        <v>0.7488122416280728</v>
       </c>
       <c r="L11">
-        <v>0.7719405439877994</v>
+        <v>0.7719405439877997</v>
       </c>
       <c r="M11">
-        <v>0.766801223194429</v>
+        <v>0.7668012231944292</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7031341963369844</v>
+        <v>0.7031341963369846</v>
       </c>
       <c r="D12">
-        <v>0.7258549549553108</v>
+        <v>0.7258549549553109</v>
       </c>
       <c r="E12">
-        <v>0.7500304193500997</v>
+        <v>0.7500304193501002</v>
       </c>
       <c r="F12">
-        <v>0.7446671383921925</v>
+        <v>0.7446671383921923</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J12">
-        <v>0.7534992868576093</v>
+        <v>0.7534992868576094</v>
       </c>
       <c r="K12">
-        <v>0.7488122416280726</v>
+        <v>0.7488122416280728</v>
       </c>
       <c r="L12">
-        <v>0.7719405439877994</v>
+        <v>0.7719405439877997</v>
       </c>
       <c r="M12">
-        <v>0.766801223194429</v>
+        <v>0.7668012231944292</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7031341963369844</v>
+        <v>0.7031341963369846</v>
       </c>
       <c r="D13">
-        <v>0.7258549549553108</v>
+        <v>0.7258549549553109</v>
       </c>
       <c r="E13">
-        <v>0.7500304193500997</v>
+        <v>0.7500304193501002</v>
       </c>
       <c r="F13">
-        <v>0.7446671383921925</v>
+        <v>0.7446671383921923</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J13">
-        <v>0.7534992868576093</v>
+        <v>0.7534992868576094</v>
       </c>
       <c r="K13">
-        <v>0.7488122416280726</v>
+        <v>0.7488122416280728</v>
       </c>
       <c r="L13">
-        <v>0.7719405439877994</v>
+        <v>0.7719405439877997</v>
       </c>
       <c r="M13">
-        <v>0.766801223194429</v>
+        <v>0.7668012231944292</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7031341963369844</v>
+        <v>0.7031341963369846</v>
       </c>
       <c r="D14">
-        <v>0.7258549549553108</v>
+        <v>0.7258549549553109</v>
       </c>
       <c r="E14">
-        <v>0.7500304193500997</v>
+        <v>0.7500304193501002</v>
       </c>
       <c r="F14">
-        <v>0.7446671383921925</v>
+        <v>0.7446671383921923</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J14">
-        <v>0.7534992868576093</v>
+        <v>0.7534992868576094</v>
       </c>
       <c r="K14">
-        <v>0.7488122416280726</v>
+        <v>0.7488122416280728</v>
       </c>
       <c r="L14">
-        <v>0.7719405439877994</v>
+        <v>0.7719405439877997</v>
       </c>
       <c r="M14">
-        <v>0.766801223194429</v>
+        <v>0.7668012231944292</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7031341963369844</v>
+        <v>0.7031341963369846</v>
       </c>
       <c r="D15">
-        <v>0.7258549549553108</v>
+        <v>0.7258549549553109</v>
       </c>
       <c r="E15">
-        <v>0.7500304193500997</v>
+        <v>0.7500304193501002</v>
       </c>
       <c r="F15">
-        <v>0.7446671383921925</v>
+        <v>0.7446671383921923</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J15">
-        <v>0.7534992868576093</v>
+        <v>0.7534992868576094</v>
       </c>
       <c r="K15">
-        <v>0.7488122416280726</v>
+        <v>0.7488122416280728</v>
       </c>
       <c r="L15">
-        <v>0.7719405439877994</v>
+        <v>0.7719405439877997</v>
       </c>
       <c r="M15">
-        <v>0.766801223194429</v>
+        <v>0.7668012231944292</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7031341963369844</v>
+        <v>0.7031341963369846</v>
       </c>
       <c r="D16">
-        <v>0.7258549549553108</v>
+        <v>0.7258549549553109</v>
       </c>
       <c r="E16">
-        <v>0.7500304193500997</v>
+        <v>0.7500304193501002</v>
       </c>
       <c r="F16">
-        <v>0.7446671383921925</v>
+        <v>0.7446671383921923</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J16">
-        <v>0.7534992868576093</v>
+        <v>0.7534992868576094</v>
       </c>
       <c r="K16">
-        <v>0.7488122416280726</v>
+        <v>0.7488122416280728</v>
       </c>
       <c r="L16">
-        <v>0.7719405439877994</v>
+        <v>0.7719405439877997</v>
       </c>
       <c r="M16">
-        <v>0.766801223194429</v>
+        <v>0.7668012231944292</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7031341963369844</v>
+        <v>0.7031341963369846</v>
       </c>
       <c r="D17">
-        <v>0.7258549549553108</v>
+        <v>0.7258549549553109</v>
       </c>
       <c r="E17">
-        <v>0.7500304193500997</v>
+        <v>0.7500304193501002</v>
       </c>
       <c r="F17">
-        <v>0.7446671383921925</v>
+        <v>0.7446671383921923</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J17">
-        <v>0.7534992868576093</v>
+        <v>0.7534992868576094</v>
       </c>
       <c r="K17">
-        <v>0.7488122416280726</v>
+        <v>0.7488122416280728</v>
       </c>
       <c r="L17">
-        <v>0.7719405439877994</v>
+        <v>0.7719405439877997</v>
       </c>
       <c r="M17">
-        <v>0.766801223194429</v>
+        <v>0.7668012231944292</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7031341963369844</v>
+        <v>0.7031341963369846</v>
       </c>
       <c r="D18">
-        <v>0.7258549549553108</v>
+        <v>0.7258549549553109</v>
       </c>
       <c r="E18">
-        <v>0.7500304193500997</v>
+        <v>0.7500304193501002</v>
       </c>
       <c r="F18">
-        <v>0.7446671383921925</v>
+        <v>0.7446671383921923</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J18">
-        <v>0.7534992868576093</v>
+        <v>0.7534992868576094</v>
       </c>
       <c r="K18">
-        <v>0.7488122416280726</v>
+        <v>0.7488122416280728</v>
       </c>
       <c r="L18">
-        <v>0.7719405439877994</v>
+        <v>0.7719405439877997</v>
       </c>
       <c r="M18">
-        <v>0.766801223194429</v>
+        <v>0.7668012231944292</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7031341963369844</v>
+        <v>0.7031341963369846</v>
       </c>
       <c r="D19">
-        <v>0.7258549549553108</v>
+        <v>0.7258549549553109</v>
       </c>
       <c r="E19">
-        <v>0.7500304193500997</v>
+        <v>0.7500304193501002</v>
       </c>
       <c r="F19">
-        <v>0.7446671383921925</v>
+        <v>0.7446671383921923</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J19">
-        <v>0.7534992868576093</v>
+        <v>0.7534992868576094</v>
       </c>
       <c r="K19">
-        <v>0.7488122416280726</v>
+        <v>0.7488122416280728</v>
       </c>
       <c r="L19">
-        <v>0.7719405439877994</v>
+        <v>0.7719405439877997</v>
       </c>
       <c r="M19">
-        <v>0.766801223194429</v>
+        <v>0.7668012231944292</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7031341963369844</v>
+        <v>0.7031341963369846</v>
       </c>
       <c r="D20">
-        <v>0.7258549549553108</v>
+        <v>0.7258549549553109</v>
       </c>
       <c r="E20">
-        <v>0.7500304193500997</v>
+        <v>0.7500304193501002</v>
       </c>
       <c r="F20">
-        <v>0.7446671383921925</v>
+        <v>0.7446671383921923</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J20">
-        <v>0.7534992868576093</v>
+        <v>0.7534992868576094</v>
       </c>
       <c r="K20">
-        <v>0.7488122416280726</v>
+        <v>0.7488122416280728</v>
       </c>
       <c r="L20">
-        <v>0.7719405439877994</v>
+        <v>0.7719405439877997</v>
       </c>
       <c r="M20">
-        <v>0.766801223194429</v>
+        <v>0.7668012231944292</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7031341963369844</v>
+        <v>0.7031341963369846</v>
       </c>
       <c r="D21">
-        <v>0.7258549549553108</v>
+        <v>0.7258549549553109</v>
       </c>
       <c r="E21">
-        <v>0.7500304193500997</v>
+        <v>0.7500304193501002</v>
       </c>
       <c r="F21">
-        <v>0.7446671383921925</v>
+        <v>0.7446671383921923</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J21">
-        <v>0.7534992868576093</v>
+        <v>0.7534992868576094</v>
       </c>
       <c r="K21">
-        <v>0.7488122416280726</v>
+        <v>0.7488122416280728</v>
       </c>
       <c r="L21">
-        <v>0.7719405439877994</v>
+        <v>0.7719405439877997</v>
       </c>
       <c r="M21">
-        <v>0.766801223194429</v>
+        <v>0.7668012231944292</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7031341963369844</v>
+        <v>0.7031341963369846</v>
       </c>
       <c r="D22">
-        <v>0.7258549549553108</v>
+        <v>0.7258549549553109</v>
       </c>
       <c r="E22">
-        <v>0.7500304193500997</v>
+        <v>0.7500304193501002</v>
       </c>
       <c r="F22">
-        <v>0.7446671383921925</v>
+        <v>0.7446671383921923</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J22">
-        <v>0.7534992868576093</v>
+        <v>0.7534992868576094</v>
       </c>
       <c r="K22">
-        <v>0.7488122416280726</v>
+        <v>0.7488122416280728</v>
       </c>
       <c r="L22">
-        <v>0.7719405439877994</v>
+        <v>0.7719405439877997</v>
       </c>
       <c r="M22">
-        <v>0.766801223194429</v>
+        <v>0.7668012231944292</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7031341963369844</v>
+        <v>0.7031341963369846</v>
       </c>
       <c r="D23">
-        <v>0.7258549549553108</v>
+        <v>0.7258549549553109</v>
       </c>
       <c r="E23">
-        <v>0.7500304193500997</v>
+        <v>0.7500304193501002</v>
       </c>
       <c r="F23">
-        <v>0.7446671383921925</v>
+        <v>0.7446671383921923</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J23">
-        <v>0.7534992868576093</v>
+        <v>0.7534992868576094</v>
       </c>
       <c r="K23">
-        <v>0.7488122416280726</v>
+        <v>0.7488122416280728</v>
       </c>
       <c r="L23">
-        <v>0.7719405439877994</v>
+        <v>0.7719405439877997</v>
       </c>
       <c r="M23">
-        <v>0.766801223194429</v>
+        <v>0.7668012231944292</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7031341963369844</v>
+        <v>0.7031341963369846</v>
       </c>
       <c r="D24">
-        <v>0.7258549549553108</v>
+        <v>0.7258549549553109</v>
       </c>
       <c r="E24">
-        <v>0.7500304193500997</v>
+        <v>0.7500304193501002</v>
       </c>
       <c r="F24">
-        <v>0.7446671383921925</v>
+        <v>0.7446671383921923</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J24">
-        <v>0.7534992868576093</v>
+        <v>0.7534992868576094</v>
       </c>
       <c r="K24">
-        <v>0.7488122416280726</v>
+        <v>0.7488122416280728</v>
       </c>
       <c r="L24">
-        <v>0.7719405439877994</v>
+        <v>0.7719405439877997</v>
       </c>
       <c r="M24">
-        <v>0.766801223194429</v>
+        <v>0.7668012231944292</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7031341963369844</v>
+        <v>0.7031341963369846</v>
       </c>
       <c r="D25">
-        <v>0.7258549549553108</v>
+        <v>0.7258549549553109</v>
       </c>
       <c r="E25">
-        <v>0.7500304193500997</v>
+        <v>0.7500304193501002</v>
       </c>
       <c r="F25">
-        <v>0.7446671383921925</v>
+        <v>0.7446671383921923</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J25">
-        <v>0.7534992868576093</v>
+        <v>0.7534992868576094</v>
       </c>
       <c r="K25">
-        <v>0.7488122416280726</v>
+        <v>0.7488122416280728</v>
       </c>
       <c r="L25">
-        <v>0.7719405439877994</v>
+        <v>0.7719405439877997</v>
       </c>
       <c r="M25">
-        <v>0.766801223194429</v>
+        <v>0.7668012231944292</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9018098547936053</v>
+        <v>0.9018098547936038</v>
       </c>
       <c r="D2">
-        <v>0.9133103648797237</v>
+        <v>0.9133103648797224</v>
       </c>
       <c r="E2">
-        <v>0.9191150324286415</v>
+        <v>0.9191150324286402</v>
       </c>
       <c r="F2">
-        <v>0.9247337547247352</v>
+        <v>0.924733754724734</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.028227388195433</v>
       </c>
       <c r="J2">
-        <v>0.9273842214379074</v>
+        <v>0.9273842214379062</v>
       </c>
       <c r="K2">
-        <v>0.9261258824443095</v>
+        <v>0.926125882444308</v>
       </c>
       <c r="L2">
-        <v>0.9318294062699115</v>
+        <v>0.9318294062699105</v>
       </c>
       <c r="M2">
-        <v>0.9373517865294373</v>
+        <v>0.9373517865294361</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.92549176047559</v>
+        <v>0.9254917604755885</v>
       </c>
       <c r="D3">
-        <v>0.9359073669659869</v>
+        <v>0.9359073669659853</v>
       </c>
       <c r="E3">
-        <v>0.9395462996029416</v>
+        <v>0.9395462996029401</v>
       </c>
       <c r="F3">
-        <v>0.9466428337864533</v>
+        <v>0.9466428337864519</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033430376006299</v>
+        <v>1.033430376006298</v>
       </c>
       <c r="J3">
-        <v>0.9482424552972214</v>
+        <v>0.9482424552972196</v>
       </c>
       <c r="K3">
-        <v>0.9474317860292601</v>
+        <v>0.9474317860292585</v>
       </c>
       <c r="L3">
-        <v>0.9510159582153868</v>
+        <v>0.951015958215385</v>
       </c>
       <c r="M3">
-        <v>0.9580072381002016</v>
+        <v>0.9580072381002002</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.93935832239712</v>
+        <v>0.9393583223971202</v>
       </c>
       <c r="D4">
-        <v>0.9491546121056004</v>
+        <v>0.9491546121056008</v>
       </c>
       <c r="E4">
-        <v>0.9515243691503894</v>
+        <v>0.95152436915039</v>
       </c>
       <c r="F4">
-        <v>0.9594933563562282</v>
+        <v>0.9594933563562292</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.036452571364426</v>
       </c>
       <c r="J4">
-        <v>0.9604516230173576</v>
+        <v>0.9604516230173581</v>
       </c>
       <c r="K4">
         <v>0.959908071371806</v>
       </c>
       <c r="L4">
-        <v>0.9622453417078548</v>
+        <v>0.9622453417078551</v>
       </c>
       <c r="M4">
-        <v>0.9701065620081909</v>
+        <v>0.9701065620081916</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.944901454174134</v>
+        <v>0.9449014541741355</v>
       </c>
       <c r="D5">
-        <v>0.9544531937864239</v>
+        <v>0.9544531937864257</v>
       </c>
       <c r="E5">
-        <v>0.9563152424471414</v>
+        <v>0.9563152424471431</v>
       </c>
       <c r="F5">
-        <v>0.9646340684433485</v>
+        <v>0.96463406844335</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037653939843523</v>
+        <v>1.037653939843524</v>
       </c>
       <c r="J5">
-        <v>0.9653306293783694</v>
+        <v>0.9653306293783712</v>
       </c>
       <c r="K5">
-        <v>0.9648949710573121</v>
+        <v>0.9648949710573139</v>
       </c>
       <c r="L5">
-        <v>0.9667324715791696</v>
+        <v>0.9667324715791713</v>
       </c>
       <c r="M5">
-        <v>0.9749430749514597</v>
+        <v>0.9749430749514612</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.945816831832773</v>
+        <v>0.9458168318327739</v>
       </c>
       <c r="D6">
-        <v>0.955328346161012</v>
+        <v>0.9553283461610131</v>
       </c>
       <c r="E6">
-        <v>0.9571065298686108</v>
+        <v>0.9571065298686117</v>
       </c>
       <c r="F6">
-        <v>0.9654831754926441</v>
+        <v>0.9654831754926446</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.037851910418284</v>
       </c>
       <c r="J6">
-        <v>0.9661362272856777</v>
+        <v>0.9661362272856788</v>
       </c>
       <c r="K6">
-        <v>0.9657184497803569</v>
+        <v>0.9657184497803577</v>
       </c>
       <c r="L6">
-        <v>0.967473344325861</v>
+        <v>0.9674733443258617</v>
       </c>
       <c r="M6">
-        <v>0.9757417219500183</v>
+        <v>0.9757417219500186</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9394334472977063</v>
+        <v>0.9394334472977135</v>
       </c>
       <c r="D7">
-        <v>0.9492264114680312</v>
+        <v>0.949226411468039</v>
       </c>
       <c r="E7">
-        <v>0.9515892891898736</v>
+        <v>0.9515892891898801</v>
       </c>
       <c r="F7">
-        <v>0.9595630140926753</v>
+        <v>0.9595630140926819</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036468881338753</v>
+        <v>1.036468881338755</v>
       </c>
       <c r="J7">
-        <v>0.9605177541982486</v>
+        <v>0.9605177541982558</v>
       </c>
       <c r="K7">
-        <v>0.9599756604436546</v>
+        <v>0.9599756604436621</v>
       </c>
       <c r="L7">
-        <v>0.9623061626807687</v>
+        <v>0.9623061626807751</v>
       </c>
       <c r="M7">
-        <v>0.9701721124197773</v>
+        <v>0.970172112419784</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9101600519016505</v>
+        <v>0.9101600519016495</v>
       </c>
       <c r="D8">
-        <v>0.9212738874470193</v>
+        <v>0.9212738874470184</v>
       </c>
       <c r="E8">
-        <v>0.9263150740266526</v>
+        <v>0.9263150740266517</v>
       </c>
       <c r="F8">
-        <v>0.9324528055906747</v>
+        <v>0.9324528055906738</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.030066651750923</v>
       </c>
       <c r="J8">
-        <v>0.9347392127553258</v>
+        <v>0.9347392127553247</v>
       </c>
       <c r="K8">
-        <v>0.9336375536035513</v>
+        <v>0.9336375536035504</v>
       </c>
       <c r="L8">
-        <v>0.9385951898726055</v>
+        <v>0.9385951898726046</v>
       </c>
       <c r="M8">
-        <v>0.944632763248874</v>
+        <v>0.9446327632488734</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8425983939935026</v>
+        <v>0.8425983939935022</v>
       </c>
       <c r="D9">
-        <v>0.8569913066575919</v>
+        <v>0.8569913066575914</v>
       </c>
       <c r="E9">
-        <v>0.868214243181155</v>
+        <v>0.8682142431811548</v>
       </c>
       <c r="F9">
-        <v>0.8702425217626358</v>
+        <v>0.8702425217626355</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.015132667124545</v>
+        <v>1.015132667124544</v>
       </c>
       <c r="J9">
-        <v>0.8752634281129801</v>
+        <v>0.8752634281129799</v>
       </c>
       <c r="K9">
-        <v>0.8729265273412358</v>
+        <v>0.8729265273412357</v>
       </c>
       <c r="L9">
         <v>0.8838810185160416</v>
       </c>
       <c r="M9">
-        <v>0.8858617706822206</v>
+        <v>0.8858617706822204</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7693847268760117</v>
+        <v>0.769384726876013</v>
       </c>
       <c r="D10">
-        <v>0.7878209999159108</v>
+        <v>0.7878209999159124</v>
       </c>
       <c r="E10">
-        <v>0.805791536379442</v>
+        <v>0.8057915363794429</v>
       </c>
       <c r="F10">
-        <v>0.8037000791543863</v>
+        <v>0.8037000791543873</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.9991178191459416</v>
+        <v>0.9991178191459421</v>
       </c>
       <c r="J10">
-        <v>0.8110787202738811</v>
+        <v>0.8110787202738821</v>
       </c>
       <c r="K10">
-        <v>0.8074765213312453</v>
+        <v>0.8074765213312465</v>
       </c>
       <c r="L10">
-        <v>0.824849092929229</v>
+        <v>0.82484909292923</v>
       </c>
       <c r="M10">
-        <v>0.8228253217787082</v>
+        <v>0.8228253217787095</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7031341963369846</v>
+        <v>0.7031341963369844</v>
       </c>
       <c r="D11">
-        <v>0.7258549549553109</v>
+        <v>0.7258549549553108</v>
       </c>
       <c r="E11">
-        <v>0.7500304193501002</v>
+        <v>0.7500304193500997</v>
       </c>
       <c r="F11">
-        <v>0.7446671383921923</v>
+        <v>0.7446671383921925</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J11">
-        <v>0.7534992868576094</v>
+        <v>0.7534992868576093</v>
       </c>
       <c r="K11">
-        <v>0.7488122416280728</v>
+        <v>0.7488122416280726</v>
       </c>
       <c r="L11">
-        <v>0.7719405439877997</v>
+        <v>0.7719405439877994</v>
       </c>
       <c r="M11">
-        <v>0.7668012231944292</v>
+        <v>0.766801223194429</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7031341963369846</v>
+        <v>0.7031341963369844</v>
       </c>
       <c r="D12">
-        <v>0.7258549549553109</v>
+        <v>0.7258549549553108</v>
       </c>
       <c r="E12">
-        <v>0.7500304193501002</v>
+        <v>0.7500304193500997</v>
       </c>
       <c r="F12">
-        <v>0.7446671383921923</v>
+        <v>0.7446671383921925</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J12">
-        <v>0.7534992868576094</v>
+        <v>0.7534992868576093</v>
       </c>
       <c r="K12">
-        <v>0.7488122416280728</v>
+        <v>0.7488122416280726</v>
       </c>
       <c r="L12">
-        <v>0.7719405439877997</v>
+        <v>0.7719405439877994</v>
       </c>
       <c r="M12">
-        <v>0.7668012231944292</v>
+        <v>0.766801223194429</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7031341963369846</v>
+        <v>0.7031341963369844</v>
       </c>
       <c r="D13">
-        <v>0.7258549549553109</v>
+        <v>0.7258549549553108</v>
       </c>
       <c r="E13">
-        <v>0.7500304193501002</v>
+        <v>0.7500304193500997</v>
       </c>
       <c r="F13">
-        <v>0.7446671383921923</v>
+        <v>0.7446671383921925</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J13">
-        <v>0.7534992868576094</v>
+        <v>0.7534992868576093</v>
       </c>
       <c r="K13">
-        <v>0.7488122416280728</v>
+        <v>0.7488122416280726</v>
       </c>
       <c r="L13">
-        <v>0.7719405439877997</v>
+        <v>0.7719405439877994</v>
       </c>
       <c r="M13">
-        <v>0.7668012231944292</v>
+        <v>0.766801223194429</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7031341963369846</v>
+        <v>0.7031341963369844</v>
       </c>
       <c r="D14">
-        <v>0.7258549549553109</v>
+        <v>0.7258549549553108</v>
       </c>
       <c r="E14">
-        <v>0.7500304193501002</v>
+        <v>0.7500304193500997</v>
       </c>
       <c r="F14">
-        <v>0.7446671383921923</v>
+        <v>0.7446671383921925</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J14">
-        <v>0.7534992868576094</v>
+        <v>0.7534992868576093</v>
       </c>
       <c r="K14">
-        <v>0.7488122416280728</v>
+        <v>0.7488122416280726</v>
       </c>
       <c r="L14">
-        <v>0.7719405439877997</v>
+        <v>0.7719405439877994</v>
       </c>
       <c r="M14">
-        <v>0.7668012231944292</v>
+        <v>0.766801223194429</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7031341963369846</v>
+        <v>0.7031341963369844</v>
       </c>
       <c r="D15">
-        <v>0.7258549549553109</v>
+        <v>0.7258549549553108</v>
       </c>
       <c r="E15">
-        <v>0.7500304193501002</v>
+        <v>0.7500304193500997</v>
       </c>
       <c r="F15">
-        <v>0.7446671383921923</v>
+        <v>0.7446671383921925</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J15">
-        <v>0.7534992868576094</v>
+        <v>0.7534992868576093</v>
       </c>
       <c r="K15">
-        <v>0.7488122416280728</v>
+        <v>0.7488122416280726</v>
       </c>
       <c r="L15">
-        <v>0.7719405439877997</v>
+        <v>0.7719405439877994</v>
       </c>
       <c r="M15">
-        <v>0.7668012231944292</v>
+        <v>0.766801223194429</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7031341963369846</v>
+        <v>0.7031341963369844</v>
       </c>
       <c r="D16">
-        <v>0.7258549549553109</v>
+        <v>0.7258549549553108</v>
       </c>
       <c r="E16">
-        <v>0.7500304193501002</v>
+        <v>0.7500304193500997</v>
       </c>
       <c r="F16">
-        <v>0.7446671383921923</v>
+        <v>0.7446671383921925</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J16">
-        <v>0.7534992868576094</v>
+        <v>0.7534992868576093</v>
       </c>
       <c r="K16">
-        <v>0.7488122416280728</v>
+        <v>0.7488122416280726</v>
       </c>
       <c r="L16">
-        <v>0.7719405439877997</v>
+        <v>0.7719405439877994</v>
       </c>
       <c r="M16">
-        <v>0.7668012231944292</v>
+        <v>0.766801223194429</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7031341963369846</v>
+        <v>0.7031341963369844</v>
       </c>
       <c r="D17">
-        <v>0.7258549549553109</v>
+        <v>0.7258549549553108</v>
       </c>
       <c r="E17">
-        <v>0.7500304193501002</v>
+        <v>0.7500304193500997</v>
       </c>
       <c r="F17">
-        <v>0.7446671383921923</v>
+        <v>0.7446671383921925</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J17">
-        <v>0.7534992868576094</v>
+        <v>0.7534992868576093</v>
       </c>
       <c r="K17">
-        <v>0.7488122416280728</v>
+        <v>0.7488122416280726</v>
       </c>
       <c r="L17">
-        <v>0.7719405439877997</v>
+        <v>0.7719405439877994</v>
       </c>
       <c r="M17">
-        <v>0.7668012231944292</v>
+        <v>0.766801223194429</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7031341963369846</v>
+        <v>0.7031341963369844</v>
       </c>
       <c r="D18">
-        <v>0.7258549549553109</v>
+        <v>0.7258549549553108</v>
       </c>
       <c r="E18">
-        <v>0.7500304193501002</v>
+        <v>0.7500304193500997</v>
       </c>
       <c r="F18">
-        <v>0.7446671383921923</v>
+        <v>0.7446671383921925</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J18">
-        <v>0.7534992868576094</v>
+        <v>0.7534992868576093</v>
       </c>
       <c r="K18">
-        <v>0.7488122416280728</v>
+        <v>0.7488122416280726</v>
       </c>
       <c r="L18">
-        <v>0.7719405439877997</v>
+        <v>0.7719405439877994</v>
       </c>
       <c r="M18">
-        <v>0.7668012231944292</v>
+        <v>0.766801223194429</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7031341963369846</v>
+        <v>0.7031341963369844</v>
       </c>
       <c r="D19">
-        <v>0.7258549549553109</v>
+        <v>0.7258549549553108</v>
       </c>
       <c r="E19">
-        <v>0.7500304193501002</v>
+        <v>0.7500304193500997</v>
       </c>
       <c r="F19">
-        <v>0.7446671383921923</v>
+        <v>0.7446671383921925</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J19">
-        <v>0.7534992868576094</v>
+        <v>0.7534992868576093</v>
       </c>
       <c r="K19">
-        <v>0.7488122416280728</v>
+        <v>0.7488122416280726</v>
       </c>
       <c r="L19">
-        <v>0.7719405439877997</v>
+        <v>0.7719405439877994</v>
       </c>
       <c r="M19">
-        <v>0.7668012231944292</v>
+        <v>0.766801223194429</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7031341963369846</v>
+        <v>0.7031341963369844</v>
       </c>
       <c r="D20">
-        <v>0.7258549549553109</v>
+        <v>0.7258549549553108</v>
       </c>
       <c r="E20">
-        <v>0.7500304193501002</v>
+        <v>0.7500304193500997</v>
       </c>
       <c r="F20">
-        <v>0.7446671383921923</v>
+        <v>0.7446671383921925</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J20">
-        <v>0.7534992868576094</v>
+        <v>0.7534992868576093</v>
       </c>
       <c r="K20">
-        <v>0.7488122416280728</v>
+        <v>0.7488122416280726</v>
       </c>
       <c r="L20">
-        <v>0.7719405439877997</v>
+        <v>0.7719405439877994</v>
       </c>
       <c r="M20">
-        <v>0.7668012231944292</v>
+        <v>0.766801223194429</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7031341963369846</v>
+        <v>0.7031341963369844</v>
       </c>
       <c r="D21">
-        <v>0.7258549549553109</v>
+        <v>0.7258549549553108</v>
       </c>
       <c r="E21">
-        <v>0.7500304193501002</v>
+        <v>0.7500304193500997</v>
       </c>
       <c r="F21">
-        <v>0.7446671383921923</v>
+        <v>0.7446671383921925</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J21">
-        <v>0.7534992868576094</v>
+        <v>0.7534992868576093</v>
       </c>
       <c r="K21">
-        <v>0.7488122416280728</v>
+        <v>0.7488122416280726</v>
       </c>
       <c r="L21">
-        <v>0.7719405439877997</v>
+        <v>0.7719405439877994</v>
       </c>
       <c r="M21">
-        <v>0.7668012231944292</v>
+        <v>0.766801223194429</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7031341963369846</v>
+        <v>0.7031341963369844</v>
       </c>
       <c r="D22">
-        <v>0.7258549549553109</v>
+        <v>0.7258549549553108</v>
       </c>
       <c r="E22">
-        <v>0.7500304193501002</v>
+        <v>0.7500304193500997</v>
       </c>
       <c r="F22">
-        <v>0.7446671383921923</v>
+        <v>0.7446671383921925</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J22">
-        <v>0.7534992868576094</v>
+        <v>0.7534992868576093</v>
       </c>
       <c r="K22">
-        <v>0.7488122416280728</v>
+        <v>0.7488122416280726</v>
       </c>
       <c r="L22">
-        <v>0.7719405439877997</v>
+        <v>0.7719405439877994</v>
       </c>
       <c r="M22">
-        <v>0.7668012231944292</v>
+        <v>0.766801223194429</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7031341963369846</v>
+        <v>0.7031341963369844</v>
       </c>
       <c r="D23">
-        <v>0.7258549549553109</v>
+        <v>0.7258549549553108</v>
       </c>
       <c r="E23">
-        <v>0.7500304193501002</v>
+        <v>0.7500304193500997</v>
       </c>
       <c r="F23">
-        <v>0.7446671383921923</v>
+        <v>0.7446671383921925</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J23">
-        <v>0.7534992868576094</v>
+        <v>0.7534992868576093</v>
       </c>
       <c r="K23">
-        <v>0.7488122416280728</v>
+        <v>0.7488122416280726</v>
       </c>
       <c r="L23">
-        <v>0.7719405439877997</v>
+        <v>0.7719405439877994</v>
       </c>
       <c r="M23">
-        <v>0.7668012231944292</v>
+        <v>0.766801223194429</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7031341963369846</v>
+        <v>0.7031341963369844</v>
       </c>
       <c r="D24">
-        <v>0.7258549549553109</v>
+        <v>0.7258549549553108</v>
       </c>
       <c r="E24">
-        <v>0.7500304193501002</v>
+        <v>0.7500304193500997</v>
       </c>
       <c r="F24">
-        <v>0.7446671383921923</v>
+        <v>0.7446671383921925</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J24">
-        <v>0.7534992868576094</v>
+        <v>0.7534992868576093</v>
       </c>
       <c r="K24">
-        <v>0.7488122416280728</v>
+        <v>0.7488122416280726</v>
       </c>
       <c r="L24">
-        <v>0.7719405439877997</v>
+        <v>0.7719405439877994</v>
       </c>
       <c r="M24">
-        <v>0.7668012231944292</v>
+        <v>0.766801223194429</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7031341963369846</v>
+        <v>0.7031341963369844</v>
       </c>
       <c r="D25">
-        <v>0.7258549549553109</v>
+        <v>0.7258549549553108</v>
       </c>
       <c r="E25">
-        <v>0.7500304193501002</v>
+        <v>0.7500304193500997</v>
       </c>
       <c r="F25">
-        <v>0.7446671383921923</v>
+        <v>0.7446671383921925</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>0.9851110297009994</v>
       </c>
       <c r="J25">
-        <v>0.7534992868576094</v>
+        <v>0.7534992868576093</v>
       </c>
       <c r="K25">
-        <v>0.7488122416280728</v>
+        <v>0.7488122416280726</v>
       </c>
       <c r="L25">
-        <v>0.7719405439877997</v>
+        <v>0.7719405439877994</v>
       </c>
       <c r="M25">
-        <v>0.7668012231944292</v>
+        <v>0.766801223194429</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9018098547936038</v>
+        <v>0.9067479200724906</v>
       </c>
       <c r="D2">
-        <v>0.9133103648797224</v>
+        <v>0.9181255830932588</v>
       </c>
       <c r="E2">
-        <v>0.9191150324286402</v>
+        <v>0.9233646726133988</v>
       </c>
       <c r="F2">
-        <v>0.924733754724734</v>
+        <v>0.9289221595188747</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028227388195433</v>
+        <v>1.029235697885994</v>
       </c>
       <c r="J2">
-        <v>0.9273842214379062</v>
+        <v>0.9321266959368683</v>
       </c>
       <c r="K2">
-        <v>0.926125882444308</v>
+        <v>0.9308570806415316</v>
       </c>
       <c r="L2">
-        <v>0.9318294062699105</v>
+        <v>0.9360060399678461</v>
       </c>
       <c r="M2">
-        <v>0.9373517865294361</v>
+        <v>0.9414693521190818</v>
+      </c>
+      <c r="N2">
+        <v>0.9334504227615248</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9254917604755885</v>
+        <v>0.9302321180553876</v>
       </c>
       <c r="D3">
-        <v>0.9359073669659853</v>
+        <v>0.9405417399250781</v>
       </c>
       <c r="E3">
-        <v>0.9395462996029401</v>
+        <v>0.9436326618722107</v>
       </c>
       <c r="F3">
-        <v>0.9466428337864519</v>
+        <v>0.9506523126711053</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033430376006298</v>
+        <v>1.034397625588012</v>
       </c>
       <c r="J3">
-        <v>0.9482424552972196</v>
+        <v>0.9528239948128302</v>
       </c>
       <c r="K3">
-        <v>0.9474317860292585</v>
+        <v>0.9519965125553713</v>
       </c>
       <c r="L3">
-        <v>0.951015958215385</v>
+        <v>0.9550414667202538</v>
       </c>
       <c r="M3">
-        <v>0.9580072381002002</v>
+        <v>0.9619581303200104</v>
+      </c>
+      <c r="N3">
+        <v>0.9541771141759042</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9393583223971202</v>
+        <v>0.9440032670077891</v>
       </c>
       <c r="D4">
-        <v>0.9491546121056008</v>
+        <v>0.9537019642543051</v>
       </c>
       <c r="E4">
-        <v>0.95152436915039</v>
+        <v>0.9555321295979327</v>
       </c>
       <c r="F4">
-        <v>0.9594933563562292</v>
+        <v>0.9634158459340851</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036452571364426</v>
+        <v>1.037399995913932</v>
       </c>
       <c r="J4">
-        <v>0.9604516230173581</v>
+        <v>0.9649565769177829</v>
       </c>
       <c r="K4">
-        <v>0.959908071371806</v>
+        <v>0.9643932635513845</v>
       </c>
       <c r="L4">
-        <v>0.9622453417078551</v>
+        <v>0.9661986214869044</v>
       </c>
       <c r="M4">
-        <v>0.9701065620081916</v>
+        <v>0.9739768282608251</v>
+      </c>
+      <c r="N4">
+        <v>0.9663269259390725</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9449014541741355</v>
+        <v>0.9495118849585831</v>
       </c>
       <c r="D5">
-        <v>0.9544531937864257</v>
+        <v>0.958969126415082</v>
       </c>
       <c r="E5">
-        <v>0.9563152424471431</v>
+        <v>0.9602946199459577</v>
       </c>
       <c r="F5">
-        <v>0.96463406844335</v>
+        <v>0.9685249604763218</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037653939843524</v>
+        <v>1.038594200260035</v>
       </c>
       <c r="J5">
-        <v>0.9653306293783712</v>
+        <v>0.9698081221966985</v>
       </c>
       <c r="K5">
-        <v>0.9648949710573139</v>
+        <v>0.9693515747312875</v>
       </c>
       <c r="L5">
-        <v>0.9667324715791713</v>
+        <v>0.9706597869815987</v>
       </c>
       <c r="M5">
-        <v>0.9749430749514612</v>
+        <v>0.9787841462086515</v>
+      </c>
+      <c r="N5">
+        <v>0.9711853609687643</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9458168318327739</v>
+        <v>0.9504217498532173</v>
       </c>
       <c r="D6">
-        <v>0.9553283461610131</v>
+        <v>0.9598392636966583</v>
       </c>
       <c r="E6">
-        <v>0.9571065298686117</v>
+        <v>0.9610813768985921</v>
       </c>
       <c r="F6">
-        <v>0.9654831754926446</v>
+        <v>0.9693690133373838</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037851910418284</v>
+        <v>1.038791027214248</v>
       </c>
       <c r="J6">
-        <v>0.9661362272856788</v>
+        <v>0.9706093478714967</v>
       </c>
       <c r="K6">
-        <v>0.9657184497803577</v>
+        <v>0.9701704976582012</v>
       </c>
       <c r="L6">
-        <v>0.9674733443258617</v>
+        <v>0.9713965221066222</v>
       </c>
       <c r="M6">
-        <v>0.9757417219500186</v>
+        <v>0.9795781285976521</v>
+      </c>
+      <c r="N6">
+        <v>0.9719877244759225</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>0.9394334472977135</v>
+        <v>0.9440779109140444</v>
       </c>
       <c r="D7">
-        <v>0.949226411468039</v>
+        <v>0.9537733255046223</v>
       </c>
       <c r="E7">
-        <v>0.9515892891898801</v>
+        <v>0.9555966538742926</v>
       </c>
       <c r="F7">
-        <v>0.9595630140926819</v>
+        <v>0.9634850638356149</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036468881338755</v>
+        <v>1.037416206004988</v>
       </c>
       <c r="J7">
-        <v>0.9605177541982558</v>
+        <v>0.965022324404899</v>
       </c>
       <c r="K7">
-        <v>0.9599756604436621</v>
+        <v>0.9644604534637127</v>
       </c>
       <c r="L7">
-        <v>0.9623061626807751</v>
+        <v>0.9662590799414519</v>
       </c>
       <c r="M7">
-        <v>0.970172112419784</v>
+        <v>0.9740419719092618</v>
+      </c>
+      <c r="N7">
+        <v>0.9663927667951615</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9101600519016495</v>
+        <v>0.9150228683528</v>
       </c>
       <c r="D8">
-        <v>0.9212738874470184</v>
+        <v>0.9260202087783513</v>
       </c>
       <c r="E8">
-        <v>0.9263150740266517</v>
+        <v>0.9305025230006383</v>
       </c>
       <c r="F8">
-        <v>0.9324528055906738</v>
+        <v>0.9365732908674261</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030066651750923</v>
+        <v>1.031059343940748</v>
       </c>
       <c r="J8">
-        <v>0.9347392127553247</v>
+        <v>0.9394201475927388</v>
       </c>
       <c r="K8">
-        <v>0.9336375536035504</v>
+        <v>0.9383051793621664</v>
       </c>
       <c r="L8">
-        <v>0.9385951898726046</v>
+        <v>0.9427141222388863</v>
       </c>
       <c r="M8">
-        <v>0.9446327632488734</v>
+        <v>0.9486869529637391</v>
+      </c>
+      <c r="N8">
+        <v>0.9407542319553177</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8425983939935022</v>
+        <v>0.8483156200249552</v>
       </c>
       <c r="D9">
-        <v>0.8569913066575914</v>
+        <v>0.862522243363066</v>
       </c>
       <c r="E9">
-        <v>0.8682142431811548</v>
+        <v>0.8731090094400537</v>
       </c>
       <c r="F9">
-        <v>0.8702425217626355</v>
+        <v>0.8751260504110993</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.015132667124544</v>
+        <v>1.016301555252751</v>
       </c>
       <c r="J9">
-        <v>0.8752634281129799</v>
+        <v>0.8806541117472774</v>
       </c>
       <c r="K9">
-        <v>0.8729265273412357</v>
+        <v>0.8783239957793069</v>
       </c>
       <c r="L9">
-        <v>0.8838810185160416</v>
+        <v>0.8886615946330564</v>
       </c>
       <c r="M9">
-        <v>0.8858617706822204</v>
+        <v>0.8906320766125114</v>
+      </c>
+      <c r="N9">
+        <v>0.8819047415983968</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.769384726876013</v>
+        <v>0.777362041695199</v>
       </c>
       <c r="D10">
-        <v>0.7878209999159124</v>
+        <v>0.7954336389527192</v>
       </c>
       <c r="E10">
-        <v>0.8057915363794429</v>
+        <v>0.8125570116244943</v>
       </c>
       <c r="F10">
-        <v>0.8037000791543873</v>
+        <v>0.8105658944431273</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.9991178191459421</v>
+        <v>1.000745088255948</v>
       </c>
       <c r="J10">
-        <v>0.8110787202738821</v>
+        <v>0.8183847496309176</v>
       </c>
       <c r="K10">
-        <v>0.8074765213312465</v>
+        <v>0.8148312610773658</v>
       </c>
       <c r="L10">
-        <v>0.82484909292923</v>
+        <v>0.8313989150961507</v>
       </c>
       <c r="M10">
-        <v>0.8228253217787095</v>
+        <v>0.8294707484750058</v>
+      </c>
+      <c r="N10">
+        <v>0.8195469498454362</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7031341963369844</v>
+        <v>0.7187468205335643</v>
       </c>
       <c r="D11">
-        <v>0.7258549549553108</v>
+        <v>0.7405006897700555</v>
       </c>
       <c r="E11">
-        <v>0.7500304193500997</v>
+        <v>0.7630999825937387</v>
       </c>
       <c r="F11">
-        <v>0.7446671383921925</v>
+        <v>0.7581525115102474</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9851110297009994</v>
+        <v>0.9882670264866058</v>
       </c>
       <c r="J11">
-        <v>0.7534992868576093</v>
+        <v>0.7673274335285366</v>
       </c>
       <c r="K11">
-        <v>0.7488122416280726</v>
+        <v>0.7628119542833091</v>
       </c>
       <c r="L11">
-        <v>0.7719405439877994</v>
+        <v>0.7844829618194433</v>
       </c>
       <c r="M11">
-        <v>0.766801223194429</v>
+        <v>0.7797320118788801</v>
+      </c>
+      <c r="N11">
+        <v>0.7684171264978337</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7031341963369844</v>
+        <v>0.7187468205335643</v>
       </c>
       <c r="D12">
-        <v>0.7258549549553108</v>
+        <v>0.7405006897700555</v>
       </c>
       <c r="E12">
-        <v>0.7500304193500997</v>
+        <v>0.7630999825937387</v>
       </c>
       <c r="F12">
-        <v>0.7446671383921925</v>
+        <v>0.7581525115102474</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9851110297009994</v>
+        <v>0.9882670264866058</v>
       </c>
       <c r="J12">
-        <v>0.7534992868576093</v>
+        <v>0.7673274335285366</v>
       </c>
       <c r="K12">
-        <v>0.7488122416280726</v>
+        <v>0.7628119542833091</v>
       </c>
       <c r="L12">
-        <v>0.7719405439877994</v>
+        <v>0.7844829618194433</v>
       </c>
       <c r="M12">
-        <v>0.766801223194429</v>
+        <v>0.7797320118788801</v>
+      </c>
+      <c r="N12">
+        <v>0.7684171264978337</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7031341963369844</v>
+        <v>0.6584905130748478</v>
       </c>
       <c r="D13">
-        <v>0.7258549549553108</v>
+        <v>0.6846756406833425</v>
       </c>
       <c r="E13">
-        <v>0.7500304193500997</v>
+        <v>0.7130197341824016</v>
       </c>
       <c r="F13">
-        <v>0.7446671383921925</v>
+        <v>0.7055039703920806</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9851110297009994</v>
+        <v>0.9759815267991023</v>
       </c>
       <c r="J13">
-        <v>0.7534992868576093</v>
+        <v>0.7154172370964575</v>
       </c>
       <c r="K13">
-        <v>0.7488122416280726</v>
+        <v>0.7099619744052638</v>
       </c>
       <c r="L13">
-        <v>0.7719405439877994</v>
+        <v>0.7368499345655126</v>
       </c>
       <c r="M13">
-        <v>0.766801223194429</v>
+        <v>0.7297038129556034</v>
+      </c>
+      <c r="N13">
+        <v>0.7164332116326387</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7031341963369844</v>
+        <v>0.6075168644540924</v>
       </c>
       <c r="D14">
-        <v>0.7258549549553108</v>
+        <v>0.6381579979646335</v>
       </c>
       <c r="E14">
-        <v>0.7500304193500997</v>
+        <v>0.6714894456271315</v>
       </c>
       <c r="F14">
-        <v>0.7446671383921925</v>
+        <v>0.6623043706067558</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9851110297009994</v>
+        <v>0.9661366492123837</v>
       </c>
       <c r="J14">
-        <v>0.7534992868576093</v>
+        <v>0.6721588607688491</v>
       </c>
       <c r="K14">
-        <v>0.7488122416280726</v>
+        <v>0.6659567047589896</v>
       </c>
       <c r="L14">
-        <v>0.7719405439877994</v>
+        <v>0.697241733533614</v>
       </c>
       <c r="M14">
-        <v>0.766801223194429</v>
+        <v>0.6885904677463563</v>
+      </c>
+      <c r="N14">
+        <v>0.6731134034488397</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7031341963369844</v>
+        <v>0.5921322619551788</v>
       </c>
       <c r="D15">
-        <v>0.7258549549553108</v>
+        <v>0.6242825916278308</v>
       </c>
       <c r="E15">
-        <v>0.7500304193500997</v>
+        <v>0.6591475303509426</v>
       </c>
       <c r="F15">
-        <v>0.7446671383921925</v>
+        <v>0.6495720793340751</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9851110297009994</v>
+        <v>0.9632794742093171</v>
       </c>
       <c r="J15">
-        <v>0.7534992868576093</v>
+        <v>0.6592550704595259</v>
       </c>
       <c r="K15">
-        <v>0.7488122416280726</v>
+        <v>0.652838449626427</v>
       </c>
       <c r="L15">
-        <v>0.7719405439877994</v>
+        <v>0.6854484456958678</v>
       </c>
       <c r="M15">
-        <v>0.766801223194429</v>
+        <v>0.6764568521892171</v>
+      </c>
+      <c r="N15">
+        <v>0.660191288277192</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7031341963369844</v>
+        <v>0.5328918821160159</v>
       </c>
       <c r="D16">
-        <v>0.7258549549553108</v>
+        <v>0.571796667539422</v>
       </c>
       <c r="E16">
-        <v>0.7500304193500997</v>
+        <v>0.6127106870835056</v>
       </c>
       <c r="F16">
-        <v>0.7446671383921925</v>
+        <v>0.6022537023005917</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.9851110297009994</v>
+        <v>0.9528407623690193</v>
       </c>
       <c r="J16">
-        <v>0.7534992868576093</v>
+        <v>0.6104251300516625</v>
       </c>
       <c r="K16">
-        <v>0.7488122416280726</v>
+        <v>0.6032473129643948</v>
       </c>
       <c r="L16">
-        <v>0.7719405439877994</v>
+        <v>0.6409520262159843</v>
       </c>
       <c r="M16">
-        <v>0.766801223194429</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.6312535956387195</v>
+      </c>
+      <c r="N16">
+        <v>0.6112920037530772</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7031341963369844</v>
+        <v>0.5054722377286598</v>
       </c>
       <c r="D17">
-        <v>0.7258549549553108</v>
+        <v>0.5481516113570467</v>
       </c>
       <c r="E17">
-        <v>0.7500304193500997</v>
+        <v>0.5919501473427697</v>
       </c>
       <c r="F17">
-        <v>0.7446671383921925</v>
+        <v>0.5814913551569491</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.9851110297009994</v>
+        <v>0.9483446360820553</v>
       </c>
       <c r="J17">
-        <v>0.7534992868576093</v>
+        <v>0.588398840452076</v>
       </c>
       <c r="K17">
-        <v>0.7488122416280726</v>
+        <v>0.5809150351375153</v>
       </c>
       <c r="L17">
-        <v>0.7719405439877994</v>
+        <v>0.6209738098858218</v>
       </c>
       <c r="M17">
-        <v>0.766801223194429</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.6113315976965397</v>
+      </c>
+      <c r="N17">
+        <v>0.5892344342958082</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7031341963369844</v>
+        <v>0.4911061255202536</v>
       </c>
       <c r="D18">
-        <v>0.7258549549553108</v>
+        <v>0.5359730848938882</v>
       </c>
       <c r="E18">
-        <v>0.7500304193500997</v>
+        <v>0.5813050082988811</v>
       </c>
       <c r="F18">
-        <v>0.7446671383921925</v>
+        <v>0.5709692614810296</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0.9851110297009994</v>
+        <v>0.9460827796416398</v>
       </c>
       <c r="J18">
-        <v>0.7534992868576093</v>
+        <v>0.5770392131077416</v>
       </c>
       <c r="K18">
-        <v>0.7488122416280726</v>
+        <v>0.5694108115422652</v>
       </c>
       <c r="L18">
-        <v>0.7719405439877994</v>
+        <v>0.61070155145414</v>
       </c>
       <c r="M18">
-        <v>0.766801223194429</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.6012027376709551</v>
+      </c>
+      <c r="N18">
+        <v>0.5778586749776774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7031341963369844</v>
+        <v>0.4864139359900696</v>
       </c>
       <c r="D19">
-        <v>0.7258549549553108</v>
+        <v>0.5320307036560439</v>
       </c>
       <c r="E19">
-        <v>0.7500304193500997</v>
+        <v>0.5778666770457491</v>
       </c>
       <c r="F19">
-        <v>0.7446671383921925</v>
+        <v>0.5675912733025977</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0.9851110297009994</v>
+        <v>0.9453586977421358</v>
       </c>
       <c r="J19">
-        <v>0.7534992868576093</v>
+        <v>0.5733588905441794</v>
       </c>
       <c r="K19">
-        <v>0.7488122416280726</v>
+        <v>0.5656859690310136</v>
       </c>
       <c r="L19">
-        <v>0.7719405439877994</v>
+        <v>0.6073788184766945</v>
       </c>
       <c r="M19">
-        <v>0.766801223194429</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.5979451395022748</v>
+      </c>
+      <c r="N19">
+        <v>0.5741731259339362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7031341963369844</v>
+        <v>0.5082263738099069</v>
       </c>
       <c r="D20">
-        <v>0.7258549549553108</v>
+        <v>0.5505039239910846</v>
       </c>
       <c r="E20">
-        <v>0.7500304193500997</v>
+        <v>0.5940102184245303</v>
       </c>
       <c r="F20">
-        <v>0.7446671383921925</v>
+        <v>0.5835380348126652</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0.9851110297009994</v>
+        <v>0.9487858172695695</v>
       </c>
       <c r="J20">
-        <v>0.7534992868576093</v>
+        <v>0.5905915937885966</v>
       </c>
       <c r="K20">
-        <v>0.7488122416280726</v>
+        <v>0.5831368400450331</v>
       </c>
       <c r="L20">
-        <v>0.7719405439877994</v>
+        <v>0.6229593091832205</v>
       </c>
       <c r="M20">
-        <v>0.766801223194429</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.6132989177143502</v>
+      </c>
+      <c r="N20">
+        <v>0.591430301593579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7031341963369844</v>
+        <v>0.6164875145089993</v>
       </c>
       <c r="D21">
-        <v>0.7258549549553108</v>
+        <v>0.6462869853039658</v>
       </c>
       <c r="E21">
-        <v>0.7500304193500997</v>
+        <v>0.6787306887938601</v>
       </c>
       <c r="F21">
-        <v>0.7446671383921925</v>
+        <v>0.6697993987327946</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9851110297009994</v>
+        <v>0.9678281827622666</v>
       </c>
       <c r="J21">
-        <v>0.7534992868576093</v>
+        <v>0.6797183761128287</v>
       </c>
       <c r="K21">
-        <v>0.7488122416280726</v>
+        <v>0.6736438362486199</v>
       </c>
       <c r="L21">
-        <v>0.7719405439877994</v>
+        <v>0.7041558764835688</v>
       </c>
       <c r="M21">
-        <v>0.766801223194429</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.695729062113606</v>
+      </c>
+      <c r="N21">
+        <v>0.6806836541716963</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7031341963369844</v>
+        <v>0.6164875145089993</v>
       </c>
       <c r="D22">
-        <v>0.7258549549553108</v>
+        <v>0.6462869853039658</v>
       </c>
       <c r="E22">
-        <v>0.7500304193500997</v>
+        <v>0.6787306887938601</v>
       </c>
       <c r="F22">
-        <v>0.7446671383921925</v>
+        <v>0.6697993987327946</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9851110297009994</v>
+        <v>0.9678281827622666</v>
       </c>
       <c r="J22">
-        <v>0.7534992868576093</v>
+        <v>0.6797183761128287</v>
       </c>
       <c r="K22">
-        <v>0.7488122416280726</v>
+        <v>0.6736438362486199</v>
       </c>
       <c r="L22">
-        <v>0.7719405439877994</v>
+        <v>0.7041558764835688</v>
       </c>
       <c r="M22">
-        <v>0.766801223194429</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.695729062113606</v>
+      </c>
+      <c r="N22">
+        <v>0.6806836541716963</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7031341963369844</v>
+        <v>0.6164875145089993</v>
       </c>
       <c r="D23">
-        <v>0.7258549549553108</v>
+        <v>0.6462869853039658</v>
       </c>
       <c r="E23">
-        <v>0.7500304193500997</v>
+        <v>0.6787306887938601</v>
       </c>
       <c r="F23">
-        <v>0.7446671383921925</v>
+        <v>0.6697993987327946</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9851110297009994</v>
+        <v>0.9678281827622666</v>
       </c>
       <c r="J23">
-        <v>0.7534992868576093</v>
+        <v>0.6797183761128287</v>
       </c>
       <c r="K23">
-        <v>0.7488122416280726</v>
+        <v>0.6736438362486199</v>
       </c>
       <c r="L23">
-        <v>0.7719405439877994</v>
+        <v>0.7041558764835688</v>
       </c>
       <c r="M23">
-        <v>0.766801223194429</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.695729062113606</v>
+      </c>
+      <c r="N23">
+        <v>0.6806836541716963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7031341963369844</v>
+        <v>0.6164875145089993</v>
       </c>
       <c r="D24">
-        <v>0.7258549549553108</v>
+        <v>0.6462869853039658</v>
       </c>
       <c r="E24">
-        <v>0.7500304193500997</v>
+        <v>0.6787306887938601</v>
       </c>
       <c r="F24">
-        <v>0.7446671383921925</v>
+        <v>0.6697993987327946</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9851110297009994</v>
+        <v>0.9678281827622666</v>
       </c>
       <c r="J24">
-        <v>0.7534992868576093</v>
+        <v>0.6797183761128287</v>
       </c>
       <c r="K24">
-        <v>0.7488122416280726</v>
+        <v>0.6736438362486199</v>
       </c>
       <c r="L24">
-        <v>0.7719405439877994</v>
+        <v>0.7041558764835688</v>
       </c>
       <c r="M24">
-        <v>0.766801223194429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.695729062113606</v>
+      </c>
+      <c r="N24">
+        <v>0.6806836541716963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7031341963369844</v>
+        <v>0.6164875145089993</v>
       </c>
       <c r="D25">
-        <v>0.7258549549553108</v>
+        <v>0.6462869853039658</v>
       </c>
       <c r="E25">
-        <v>0.7500304193500997</v>
+        <v>0.6787306887938601</v>
       </c>
       <c r="F25">
-        <v>0.7446671383921925</v>
+        <v>0.6697993987327946</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9851110297009994</v>
+        <v>0.9678281827622666</v>
       </c>
       <c r="J25">
-        <v>0.7534992868576093</v>
+        <v>0.6797183761128287</v>
       </c>
       <c r="K25">
-        <v>0.7488122416280726</v>
+        <v>0.6736438362486199</v>
       </c>
       <c r="L25">
-        <v>0.7719405439877994</v>
+        <v>0.7041558764835688</v>
       </c>
       <c r="M25">
-        <v>0.766801223194429</v>
+        <v>0.695729062113606</v>
+      </c>
+      <c r="N25">
+        <v>0.6806836541716963</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9067479200724906</v>
+        <v>0.8799875797512453</v>
       </c>
       <c r="D2">
-        <v>0.9181255830932588</v>
+        <v>0.8899284392325807</v>
       </c>
       <c r="E2">
-        <v>0.9233646726133988</v>
+        <v>0.9001422219723547</v>
       </c>
       <c r="F2">
-        <v>0.9289221595188747</v>
+        <v>0.9105349509066725</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029235697885994</v>
+        <v>1.038068023515519</v>
       </c>
       <c r="J2">
-        <v>0.9321266959368683</v>
+        <v>0.9064638912608828</v>
       </c>
       <c r="K2">
-        <v>0.9308570806415316</v>
+        <v>0.9031688291032284</v>
       </c>
       <c r="L2">
-        <v>0.9360060399678461</v>
+        <v>0.9131934835223146</v>
       </c>
       <c r="M2">
-        <v>0.9414693521190818</v>
+        <v>0.9233994199389096</v>
       </c>
       <c r="N2">
-        <v>0.9334504227615248</v>
+        <v>0.9077511739593327</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9302321180553876</v>
+        <v>0.9011624792573444</v>
       </c>
       <c r="D3">
-        <v>0.9405417399250781</v>
+        <v>0.9100264145531031</v>
       </c>
       <c r="E3">
-        <v>0.9436326618722107</v>
+        <v>0.9183849522238966</v>
       </c>
       <c r="F3">
-        <v>0.9506523126711053</v>
+        <v>0.9292717475551038</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034397625588012</v>
+        <v>1.039485139498519</v>
       </c>
       <c r="J3">
-        <v>0.9528239948128302</v>
+        <v>0.9247652766135106</v>
       </c>
       <c r="K3">
-        <v>0.9519965125553713</v>
+        <v>0.9219565254570278</v>
       </c>
       <c r="L3">
-        <v>0.9550414667202538</v>
+        <v>0.9301808384251576</v>
       </c>
       <c r="M3">
-        <v>0.9619581303200104</v>
+        <v>0.9408974319142691</v>
       </c>
       <c r="N3">
-        <v>0.9541771141759042</v>
+        <v>0.9260785493783615</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9440032670077891</v>
+        <v>0.9136864782313144</v>
       </c>
       <c r="D4">
-        <v>0.9537019642543051</v>
+        <v>0.9219302878519499</v>
       </c>
       <c r="E4">
-        <v>0.9555321295979327</v>
+        <v>0.9291920819966303</v>
       </c>
       <c r="F4">
-        <v>0.9634158459340851</v>
+        <v>0.9403917837991799</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037399995913932</v>
+        <v>1.040307310395595</v>
       </c>
       <c r="J4">
-        <v>0.9649565769177829</v>
+        <v>0.9355892029859815</v>
       </c>
       <c r="K4">
-        <v>0.9643932635513845</v>
+        <v>0.933072178595317</v>
       </c>
       <c r="L4">
-        <v>0.9661986214869044</v>
+        <v>0.9402275409971563</v>
       </c>
       <c r="M4">
-        <v>0.9739768282608251</v>
+        <v>0.9512671680378163</v>
       </c>
       <c r="N4">
-        <v>0.9663269259390725</v>
+        <v>0.9369178469678031</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9495118849585831</v>
+        <v>0.9187158660516892</v>
       </c>
       <c r="D5">
-        <v>0.958969126415082</v>
+        <v>0.9267139772458021</v>
       </c>
       <c r="E5">
-        <v>0.9602946199459577</v>
+        <v>0.9335351809941205</v>
       </c>
       <c r="F5">
-        <v>0.9685249604763218</v>
+        <v>0.9448638559009378</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038594200260035</v>
+        <v>1.04063303972098</v>
       </c>
       <c r="J5">
-        <v>0.9698081221966985</v>
+        <v>0.9399351290536531</v>
       </c>
       <c r="K5">
-        <v>0.9693515747312875</v>
+        <v>0.9375362208986712</v>
       </c>
       <c r="L5">
-        <v>0.9706597869815987</v>
+        <v>0.9442612200882344</v>
       </c>
       <c r="M5">
-        <v>0.9787841462086515</v>
+        <v>0.9554339803126808</v>
       </c>
       <c r="N5">
-        <v>0.9711853609687643</v>
+        <v>0.9412699447489756</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9504217498532173</v>
+        <v>0.9195476016393183</v>
       </c>
       <c r="D6">
-        <v>0.9598392636966583</v>
+        <v>0.9275052597118194</v>
       </c>
       <c r="E6">
-        <v>0.9610813768985921</v>
+        <v>0.9342535843576082</v>
       </c>
       <c r="F6">
-        <v>0.9693690133373838</v>
+        <v>0.9456037428364931</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038791027214248</v>
+        <v>1.040686630237687</v>
       </c>
       <c r="J6">
-        <v>0.9706093478714967</v>
+        <v>0.9406537781484914</v>
       </c>
       <c r="K6">
-        <v>0.9701704976582012</v>
+        <v>0.938274459866569</v>
       </c>
       <c r="L6">
-        <v>0.9713965221066222</v>
+        <v>0.9449282208101262</v>
       </c>
       <c r="M6">
-        <v>0.9795781285976521</v>
+        <v>0.9561231583621438</v>
       </c>
       <c r="N6">
-        <v>0.9719877244759225</v>
+        <v>0.9419896144079586</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9440779109140444</v>
+        <v>0.9137545560226364</v>
       </c>
       <c r="D7">
-        <v>0.9537733255046223</v>
+        <v>0.921995027347193</v>
       </c>
       <c r="E7">
-        <v>0.9555966538742926</v>
+        <v>0.92925085862954</v>
       </c>
       <c r="F7">
-        <v>0.9634850638356149</v>
+        <v>0.9404522948613283</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037416206004988</v>
+        <v>1.040311737937491</v>
       </c>
       <c r="J7">
-        <v>0.965022324404899</v>
+        <v>0.9356480331277995</v>
       </c>
       <c r="K7">
-        <v>0.9644604534637127</v>
+        <v>0.9331326037221613</v>
       </c>
       <c r="L7">
-        <v>0.9662590799414519</v>
+        <v>0.9402821452168675</v>
       </c>
       <c r="M7">
-        <v>0.9740419719092618</v>
+        <v>0.9513235626102228</v>
       </c>
       <c r="N7">
-        <v>0.9663927667951615</v>
+        <v>0.9369767606551703</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9150228683528</v>
+        <v>0.8874202617293883</v>
       </c>
       <c r="D8">
-        <v>0.9260202087783513</v>
+        <v>0.8969788800640301</v>
       </c>
       <c r="E8">
-        <v>0.9305025230006383</v>
+        <v>0.9065411043549059</v>
       </c>
       <c r="F8">
-        <v>0.9365732908674261</v>
+        <v>0.9171014982161335</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031059343940748</v>
+        <v>1.038568532949729</v>
       </c>
       <c r="J8">
-        <v>0.9394201475927388</v>
+        <v>0.9128875749148996</v>
       </c>
       <c r="K8">
-        <v>0.9383051793621664</v>
+        <v>0.9097623016974814</v>
       </c>
       <c r="L8">
-        <v>0.9427141222388863</v>
+        <v>0.9191558394332942</v>
       </c>
       <c r="M8">
-        <v>0.9486869529637391</v>
+        <v>0.9295352118839059</v>
       </c>
       <c r="N8">
-        <v>0.9407542319553177</v>
+        <v>0.9141839799809468</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8483156200249552</v>
+        <v>0.8286839814297562</v>
       </c>
       <c r="D9">
-        <v>0.862522243363066</v>
+        <v>0.8414019547351335</v>
       </c>
       <c r="E9">
-        <v>0.8731090094400537</v>
+        <v>0.8561390966008521</v>
       </c>
       <c r="F9">
-        <v>0.8751260504110993</v>
+        <v>0.8655990486379783</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.016301555252751</v>
+        <v>1.03457423756131</v>
       </c>
       <c r="J9">
-        <v>0.8806541117472774</v>
+        <v>0.8621715108367073</v>
       </c>
       <c r="K9">
-        <v>0.8783239957793069</v>
+        <v>0.8577261437546594</v>
       </c>
       <c r="L9">
-        <v>0.8886615946330564</v>
+        <v>0.8720950884411622</v>
       </c>
       <c r="M9">
-        <v>0.8906320766125114</v>
+        <v>0.8813275437559792</v>
       </c>
       <c r="N9">
-        <v>0.8819047415983968</v>
+        <v>0.86339589327455</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.777362041695199</v>
+        <v>0.7714582316616382</v>
       </c>
       <c r="D10">
-        <v>0.7954336389527192</v>
+        <v>0.787615823133507</v>
       </c>
       <c r="E10">
-        <v>0.8125570116244943</v>
+        <v>0.8075025438113385</v>
       </c>
       <c r="F10">
-        <v>0.8105658944431273</v>
+        <v>0.8165459365260529</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.000745088255948</v>
+        <v>1.030724185013042</v>
       </c>
       <c r="J10">
-        <v>0.8183847496309176</v>
+        <v>0.8129757302679731</v>
       </c>
       <c r="K10">
-        <v>0.8148312610773658</v>
+        <v>0.8072783918039568</v>
       </c>
       <c r="L10">
-        <v>0.8313989150961507</v>
+        <v>0.8265050880334072</v>
       </c>
       <c r="M10">
-        <v>0.8294707484750058</v>
+        <v>0.8352630024363236</v>
       </c>
       <c r="N10">
-        <v>0.8195469498454362</v>
+        <v>0.8141302490545733</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7187468205335643</v>
+        <v>0.734626291199847</v>
       </c>
       <c r="D11">
-        <v>0.7405006897700555</v>
+        <v>0.7532380335539393</v>
       </c>
       <c r="E11">
-        <v>0.7630999825937387</v>
+        <v>0.7765328411872038</v>
       </c>
       <c r="F11">
-        <v>0.7581525115102474</v>
+        <v>0.7857632824064579</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9882670264866058</v>
+        <v>1.028336932581319</v>
       </c>
       <c r="J11">
-        <v>0.7673274335285366</v>
+        <v>0.7815092833460239</v>
       </c>
       <c r="K11">
-        <v>0.7628119542833091</v>
+        <v>0.7750163768144105</v>
       </c>
       <c r="L11">
-        <v>0.7844829618194433</v>
+        <v>0.7973999954621456</v>
       </c>
       <c r="M11">
-        <v>0.7797320118788801</v>
+        <v>0.8062903062657598</v>
       </c>
       <c r="N11">
-        <v>0.7684171264978337</v>
+        <v>0.7826191161687429</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7187468205335643</v>
+        <v>0.7161269187869311</v>
       </c>
       <c r="D12">
-        <v>0.7405006897700555</v>
+        <v>0.7360570100238457</v>
       </c>
       <c r="E12">
-        <v>0.7630999825937387</v>
+        <v>0.7610998755379006</v>
       </c>
       <c r="F12">
-        <v>0.7581525115102474</v>
+        <v>0.770583899848333</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9882670264866058</v>
+        <v>1.027175295343934</v>
       </c>
       <c r="J12">
-        <v>0.7673274335285366</v>
+        <v>0.7657830951394321</v>
       </c>
       <c r="K12">
-        <v>0.7628119542833091</v>
+        <v>0.7588924474371143</v>
       </c>
       <c r="L12">
-        <v>0.7844829618194433</v>
+        <v>0.7828758698701371</v>
       </c>
       <c r="M12">
-        <v>0.7797320118788801</v>
+        <v>0.7919840081247621</v>
       </c>
       <c r="N12">
-        <v>0.7684171264978337</v>
+        <v>0.7668705949710789</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.6584905130748478</v>
+        <v>0.7204703292803742</v>
       </c>
       <c r="D13">
-        <v>0.6846756406833425</v>
+        <v>0.740085262741169</v>
       </c>
       <c r="E13">
-        <v>0.7130197341824016</v>
+        <v>0.7647152795337989</v>
       </c>
       <c r="F13">
-        <v>0.7055039703920806</v>
+        <v>0.7741294522432737</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9759815267991023</v>
+        <v>1.027445550866741</v>
       </c>
       <c r="J13">
-        <v>0.7154172370964575</v>
+        <v>0.7694701004176059</v>
       </c>
       <c r="K13">
-        <v>0.7099619744052638</v>
+        <v>0.7626727510836533</v>
       </c>
       <c r="L13">
-        <v>0.7368499345655126</v>
+        <v>0.7862795659765214</v>
       </c>
       <c r="M13">
-        <v>0.7297038129556034</v>
+        <v>0.795326850689934</v>
       </c>
       <c r="N13">
-        <v>0.7164332116326387</v>
+        <v>0.7705628362196528</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.6075168644540924</v>
+        <v>0.7332431268746724</v>
       </c>
       <c r="D14">
-        <v>0.6381579979646335</v>
+        <v>0.7519513224177595</v>
       </c>
       <c r="E14">
-        <v>0.6714894456271315</v>
+        <v>0.7753759187728466</v>
       </c>
       <c r="F14">
-        <v>0.6623043706067558</v>
+        <v>0.7846214205459064</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9661366492123837</v>
+        <v>1.028249144795557</v>
       </c>
       <c r="J14">
-        <v>0.6721588607688491</v>
+        <v>0.7803314846131773</v>
       </c>
       <c r="K14">
-        <v>0.6659567047589896</v>
+        <v>0.7738088044337889</v>
       </c>
       <c r="L14">
-        <v>0.697241733533614</v>
+        <v>0.796311668266889</v>
       </c>
       <c r="M14">
-        <v>0.6885904677463563</v>
+        <v>0.8052145877547807</v>
       </c>
       <c r="N14">
-        <v>0.6731134034488397</v>
+        <v>0.7814396448266002</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.5921322619551788</v>
+        <v>0.7402640570469314</v>
       </c>
       <c r="D15">
-        <v>0.6242825916278308</v>
+        <v>0.7584860470380441</v>
       </c>
       <c r="E15">
-        <v>0.6591475303509426</v>
+        <v>0.7812532829401813</v>
       </c>
       <c r="F15">
-        <v>0.6495720793340751</v>
+        <v>0.7904286335403791</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9632794742093171</v>
+        <v>1.028696247503925</v>
       </c>
       <c r="J15">
-        <v>0.6592550704595259</v>
+        <v>0.786313107343323</v>
       </c>
       <c r="K15">
-        <v>0.652838449626427</v>
+        <v>0.779941624064731</v>
       </c>
       <c r="L15">
-        <v>0.6854484456958678</v>
+        <v>0.8018397743975513</v>
       </c>
       <c r="M15">
-        <v>0.6764568521892171</v>
+        <v>0.810684650743779</v>
       </c>
       <c r="N15">
-        <v>0.660191288277192</v>
+        <v>0.7874297621471247</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.5328918821160159</v>
+        <v>0.7735092071737965</v>
       </c>
       <c r="D16">
-        <v>0.571796667539422</v>
+        <v>0.7895361810978924</v>
       </c>
       <c r="E16">
-        <v>0.6127106870835056</v>
+        <v>0.8092356004936899</v>
       </c>
       <c r="F16">
-        <v>0.6022537023005917</v>
+        <v>0.8182799923009458</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.9528407623690193</v>
+        <v>1.030859655072808</v>
       </c>
       <c r="J16">
-        <v>0.6104251300516625</v>
+        <v>0.814733201761475</v>
       </c>
       <c r="K16">
-        <v>0.6032473129643948</v>
+        <v>0.8090803492988898</v>
       </c>
       <c r="L16">
-        <v>0.6409520262159843</v>
+        <v>0.8281321522695861</v>
       </c>
       <c r="M16">
-        <v>0.6312535956387195</v>
+        <v>0.8368936007584026</v>
       </c>
       <c r="N16">
-        <v>0.6112920037530772</v>
+        <v>0.8158902163591806</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.5054722377286598</v>
+        <v>0.7902885263202188</v>
       </c>
       <c r="D17">
-        <v>0.5481516113570467</v>
+        <v>0.8052686758774372</v>
       </c>
       <c r="E17">
-        <v>0.5919501473427697</v>
+        <v>0.823444271276088</v>
       </c>
       <c r="F17">
-        <v>0.5814913551569491</v>
+        <v>0.8325382793499808</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.9483446360820553</v>
+        <v>1.031976350274889</v>
       </c>
       <c r="J17">
-        <v>0.588398840452076</v>
+        <v>0.8291292161540171</v>
       </c>
       <c r="K17">
-        <v>0.5809150351375153</v>
+        <v>0.8238412297921729</v>
       </c>
       <c r="L17">
-        <v>0.6209738098858218</v>
+        <v>0.8414649720256089</v>
       </c>
       <c r="M17">
-        <v>0.6113315976965397</v>
+        <v>0.8502952292181172</v>
       </c>
       <c r="N17">
-        <v>0.5892344342958082</v>
+        <v>0.8303066747434061</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.4911061255202536</v>
+        <v>0.7991445090662057</v>
       </c>
       <c r="D18">
-        <v>0.5359730848938882</v>
+        <v>0.8135871072323314</v>
       </c>
       <c r="E18">
-        <v>0.5813050082988811</v>
+        <v>0.8309641070279754</v>
       </c>
       <c r="F18">
-        <v>0.5709692614810296</v>
+        <v>0.8401127562816365</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0.9460827796416398</v>
+        <v>1.032571097515882</v>
       </c>
       <c r="J18">
-        <v>0.5770392131077416</v>
+        <v>0.8367391421029056</v>
       </c>
       <c r="K18">
-        <v>0.5694108115422652</v>
+        <v>0.8316444655487465</v>
       </c>
       <c r="L18">
-        <v>0.61070155145414</v>
+        <v>0.8485161900167962</v>
       </c>
       <c r="M18">
-        <v>0.6012027376709551</v>
+        <v>0.8574102547670829</v>
       </c>
       <c r="N18">
-        <v>0.5778586749776774</v>
+        <v>0.8379274076600129</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.4864139359900696</v>
+        <v>0.8020350877996842</v>
       </c>
       <c r="D19">
-        <v>0.5320307036560439</v>
+        <v>0.8163043648434137</v>
       </c>
       <c r="E19">
-        <v>0.5778666770457491</v>
+        <v>0.8334214828172007</v>
       </c>
       <c r="F19">
-        <v>0.5675912733025977</v>
+        <v>0.8425920195883285</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0.9453586977421358</v>
+        <v>1.032765915216189</v>
       </c>
       <c r="J19">
-        <v>0.5733588905441794</v>
+        <v>0.8392246239057197</v>
       </c>
       <c r="K19">
-        <v>0.5656859690310136</v>
+        <v>0.8341931658588313</v>
       </c>
       <c r="L19">
-        <v>0.6073788184766945</v>
+        <v>0.8508196428489139</v>
       </c>
       <c r="M19">
-        <v>0.5979451395022748</v>
+        <v>0.8597384644965195</v>
       </c>
       <c r="N19">
-        <v>0.5741731259339362</v>
+        <v>0.8404164191320757</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.5082263738099069</v>
+        <v>0.7885922618636867</v>
       </c>
       <c r="D20">
-        <v>0.5505039239910846</v>
+        <v>0.8036765234140543</v>
       </c>
       <c r="E20">
-        <v>0.5940102184245303</v>
+        <v>0.8220055082959097</v>
       </c>
       <c r="F20">
-        <v>0.5835380348126652</v>
+        <v>0.8310912372181759</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0.9487858172695695</v>
+        <v>1.031862826440627</v>
       </c>
       <c r="J20">
-        <v>0.5905915937885966</v>
+        <v>0.8276725091357856</v>
       </c>
       <c r="K20">
-        <v>0.5831368400450331</v>
+        <v>0.822347557867625</v>
       </c>
       <c r="L20">
-        <v>0.6229593091832205</v>
+        <v>0.8401154624307309</v>
       </c>
       <c r="M20">
-        <v>0.6132989177143502</v>
+        <v>0.8489356149707</v>
       </c>
       <c r="N20">
-        <v>0.591430301593579</v>
+        <v>0.8288478990341223</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.6164875145089993</v>
+        <v>0.7296805359445189</v>
       </c>
       <c r="D21">
-        <v>0.6462869853039658</v>
+        <v>0.7486387018137493</v>
       </c>
       <c r="E21">
-        <v>0.6787306887938601</v>
+        <v>0.7723982510002098</v>
       </c>
       <c r="F21">
-        <v>0.6697993987327946</v>
+        <v>0.7816853897724118</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9678281827622666</v>
+        <v>1.028023709701026</v>
       </c>
       <c r="J21">
-        <v>0.6797183761128287</v>
+        <v>0.7772992773168581</v>
       </c>
       <c r="K21">
-        <v>0.6736438362486199</v>
+        <v>0.770699937680198</v>
       </c>
       <c r="L21">
-        <v>0.7041558764835688</v>
+        <v>0.7935102031113057</v>
       </c>
       <c r="M21">
-        <v>0.695729062113606</v>
+        <v>0.802448287827349</v>
       </c>
       <c r="N21">
-        <v>0.6806836541716963</v>
+        <v>0.7784031314481211</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.6164875145089993</v>
+        <v>0.7296805359445189</v>
       </c>
       <c r="D22">
-        <v>0.6462869853039658</v>
+        <v>0.7486387018137493</v>
       </c>
       <c r="E22">
-        <v>0.6787306887938601</v>
+        <v>0.7723982510002098</v>
       </c>
       <c r="F22">
-        <v>0.6697993987327946</v>
+        <v>0.7816853897724118</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9678281827622666</v>
+        <v>1.028023709701026</v>
       </c>
       <c r="J22">
-        <v>0.6797183761128287</v>
+        <v>0.7772992773168581</v>
       </c>
       <c r="K22">
-        <v>0.6736438362486199</v>
+        <v>0.770699937680198</v>
       </c>
       <c r="L22">
-        <v>0.7041558764835688</v>
+        <v>0.7935102031113057</v>
       </c>
       <c r="M22">
-        <v>0.695729062113606</v>
+        <v>0.802448287827349</v>
       </c>
       <c r="N22">
-        <v>0.6806836541716963</v>
+        <v>0.7784031314481211</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.6164875145089993</v>
+        <v>0.7296805359445189</v>
       </c>
       <c r="D23">
-        <v>0.6462869853039658</v>
+        <v>0.7486387018137493</v>
       </c>
       <c r="E23">
-        <v>0.6787306887938601</v>
+        <v>0.7723982510002098</v>
       </c>
       <c r="F23">
-        <v>0.6697993987327946</v>
+        <v>0.7816853897724118</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9678281827622666</v>
+        <v>1.028023709701026</v>
       </c>
       <c r="J23">
-        <v>0.6797183761128287</v>
+        <v>0.7772992773168581</v>
       </c>
       <c r="K23">
-        <v>0.6736438362486199</v>
+        <v>0.770699937680198</v>
       </c>
       <c r="L23">
-        <v>0.7041558764835688</v>
+        <v>0.7935102031113057</v>
       </c>
       <c r="M23">
-        <v>0.695729062113606</v>
+        <v>0.802448287827349</v>
       </c>
       <c r="N23">
-        <v>0.6806836541716963</v>
+        <v>0.7784031314481211</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.6164875145089993</v>
+        <v>0.7296805359445189</v>
       </c>
       <c r="D24">
-        <v>0.6462869853039658</v>
+        <v>0.7486387018137493</v>
       </c>
       <c r="E24">
-        <v>0.6787306887938601</v>
+        <v>0.7723982510002098</v>
       </c>
       <c r="F24">
-        <v>0.6697993987327946</v>
+        <v>0.7816853897724118</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9678281827622666</v>
+        <v>1.028023709701026</v>
       </c>
       <c r="J24">
-        <v>0.6797183761128287</v>
+        <v>0.7772992773168581</v>
       </c>
       <c r="K24">
-        <v>0.6736438362486199</v>
+        <v>0.770699937680198</v>
       </c>
       <c r="L24">
-        <v>0.7041558764835688</v>
+        <v>0.7935102031113057</v>
       </c>
       <c r="M24">
-        <v>0.695729062113606</v>
+        <v>0.802448287827349</v>
       </c>
       <c r="N24">
-        <v>0.6806836541716963</v>
+        <v>0.7784031314481211</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.6164875145089993</v>
+        <v>0.7296805359445189</v>
       </c>
       <c r="D25">
-        <v>0.6462869853039658</v>
+        <v>0.7486387018137493</v>
       </c>
       <c r="E25">
-        <v>0.6787306887938601</v>
+        <v>0.7723982510002098</v>
       </c>
       <c r="F25">
-        <v>0.6697993987327946</v>
+        <v>0.7816853897724118</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9678281827622666</v>
+        <v>1.028023709701026</v>
       </c>
       <c r="J25">
-        <v>0.6797183761128287</v>
+        <v>0.7772992773168581</v>
       </c>
       <c r="K25">
-        <v>0.6736438362486199</v>
+        <v>0.770699937680198</v>
       </c>
       <c r="L25">
-        <v>0.7041558764835688</v>
+        <v>0.7935102031113057</v>
       </c>
       <c r="M25">
-        <v>0.695729062113606</v>
+        <v>0.802448287827349</v>
       </c>
       <c r="N25">
-        <v>0.6806836541716963</v>
+        <v>0.7784031314481211</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8799875797512453</v>
+        <v>1.034211454833783</v>
       </c>
       <c r="D2">
-        <v>0.8899284392325807</v>
+        <v>1.045874787531949</v>
       </c>
       <c r="E2">
-        <v>0.9001422219723547</v>
+        <v>1.044846068987134</v>
       </c>
       <c r="F2">
-        <v>0.9105349509066725</v>
+        <v>1.053998756405353</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038068023515519</v>
+        <v>1.055346587363235</v>
       </c>
       <c r="J2">
-        <v>0.9064638912608828</v>
+        <v>1.055414931193248</v>
       </c>
       <c r="K2">
-        <v>0.9031688291032284</v>
+        <v>1.056729973469133</v>
       </c>
       <c r="L2">
-        <v>0.9131934835223146</v>
+        <v>1.055714077639088</v>
       </c>
       <c r="M2">
-        <v>0.9233994199389096</v>
+        <v>1.064753772529418</v>
       </c>
       <c r="N2">
-        <v>0.9077511739593327</v>
+        <v>1.056913741453327</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9011624792573444</v>
+        <v>1.041181756165974</v>
       </c>
       <c r="D3">
-        <v>0.9100264145531031</v>
+        <v>1.051950294704299</v>
       </c>
       <c r="E3">
-        <v>0.9183849522238966</v>
+        <v>1.050799339872383</v>
       </c>
       <c r="F3">
-        <v>0.9292717475551038</v>
+        <v>1.060240638685767</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039485139498519</v>
+        <v>1.057192214445303</v>
       </c>
       <c r="J3">
-        <v>0.9247652766135106</v>
+        <v>1.060609424233587</v>
       </c>
       <c r="K3">
-        <v>0.9219565254570278</v>
+        <v>1.061958963566156</v>
       </c>
       <c r="L3">
-        <v>0.9301808384251576</v>
+        <v>1.060821013540365</v>
       </c>
       <c r="M3">
-        <v>0.9408974319142691</v>
+        <v>1.070156659568062</v>
       </c>
       <c r="N3">
-        <v>0.9260785493783615</v>
+        <v>1.0621156112696</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9136864782313144</v>
+        <v>1.04557059671943</v>
       </c>
       <c r="D4">
-        <v>0.9219302878519499</v>
+        <v>1.055780805711119</v>
       </c>
       <c r="E4">
-        <v>0.9291920819966303</v>
+        <v>1.054553384696515</v>
       </c>
       <c r="F4">
-        <v>0.9403917837991799</v>
+        <v>1.064176879553396</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040307310395595</v>
+        <v>1.058341645053338</v>
       </c>
       <c r="J4">
-        <v>0.9355892029859815</v>
+        <v>1.063876312401021</v>
       </c>
       <c r="K4">
-        <v>0.933072178595317</v>
+        <v>1.065249577525879</v>
       </c>
       <c r="L4">
-        <v>0.9402275409971563</v>
+        <v>1.064035134051295</v>
       </c>
       <c r="M4">
-        <v>0.9512671680378163</v>
+        <v>1.073557859543387</v>
       </c>
       <c r="N4">
-        <v>0.9369178469678031</v>
+        <v>1.065387138792949</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9187158660516892</v>
+        <v>1.04738807961622</v>
       </c>
       <c r="D5">
-        <v>0.9267139772458021</v>
+        <v>1.057368224328375</v>
       </c>
       <c r="E5">
-        <v>0.9335351809941205</v>
+        <v>1.056109253671093</v>
       </c>
       <c r="F5">
-        <v>0.9448638559009378</v>
+        <v>1.065808311468605</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04063303972098</v>
+        <v>1.058814548180569</v>
       </c>
       <c r="J5">
-        <v>0.9399351290536531</v>
+        <v>1.065228205632428</v>
       </c>
       <c r="K5">
-        <v>0.9375362208986712</v>
+        <v>1.06661177273528</v>
       </c>
       <c r="L5">
-        <v>0.9442612200882344</v>
+        <v>1.065365736819437</v>
       </c>
       <c r="M5">
-        <v>0.9554339803126808</v>
+        <v>1.0749661061734</v>
       </c>
       <c r="N5">
-        <v>0.9412699447489756</v>
+        <v>1.066740951867809</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9195476016393183</v>
+        <v>1.047691666351711</v>
       </c>
       <c r="D6">
-        <v>0.9275052597118194</v>
+        <v>1.057633447402316</v>
       </c>
       <c r="E6">
-        <v>0.9342535843576082</v>
+        <v>1.056369213513004</v>
       </c>
       <c r="F6">
-        <v>0.9456037428364931</v>
+        <v>1.066080899739687</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040686630237687</v>
+        <v>1.058893357059922</v>
       </c>
       <c r="J6">
-        <v>0.9406537781484914</v>
+        <v>1.065453962902882</v>
       </c>
       <c r="K6">
-        <v>0.938274459866569</v>
+        <v>1.066839278737181</v>
       </c>
       <c r="L6">
-        <v>0.9449282208101262</v>
+        <v>1.065587970658675</v>
       </c>
       <c r="M6">
-        <v>0.9561231583621438</v>
+        <v>1.075201319361395</v>
       </c>
       <c r="N6">
-        <v>0.9419896144079586</v>
+        <v>1.066967029739482</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9137545560226364</v>
+        <v>1.045594988531412</v>
       </c>
       <c r="D7">
-        <v>0.921995027347193</v>
+        <v>1.055802105457073</v>
       </c>
       <c r="E7">
-        <v>0.92925085862954</v>
+        <v>1.054574260571068</v>
       </c>
       <c r="F7">
-        <v>0.9404522948613283</v>
+        <v>1.064198769086034</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040311737937491</v>
+        <v>1.05834800402721</v>
       </c>
       <c r="J7">
-        <v>0.9356480331277995</v>
+        <v>1.063894459615538</v>
       </c>
       <c r="K7">
-        <v>0.9331326037221613</v>
+        <v>1.065267861119021</v>
       </c>
       <c r="L7">
-        <v>0.9402821452168675</v>
+        <v>1.064052993320036</v>
       </c>
       <c r="M7">
-        <v>0.9513235626102228</v>
+        <v>1.073576760171047</v>
       </c>
       <c r="N7">
-        <v>0.9369767606551703</v>
+        <v>1.065405311778592</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8874202617293883</v>
+        <v>1.036593166831008</v>
       </c>
       <c r="D8">
-        <v>0.8969788800640301</v>
+        <v>1.047949639739565</v>
       </c>
       <c r="E8">
-        <v>0.9065411043549059</v>
+        <v>1.046879046079638</v>
       </c>
       <c r="F8">
-        <v>0.9171014982161335</v>
+        <v>1.056130250582802</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038568532949729</v>
+        <v>1.055979861919286</v>
       </c>
       <c r="J8">
-        <v>0.9128875749148996</v>
+        <v>1.057190627771796</v>
       </c>
       <c r="K8">
-        <v>0.9097623016974814</v>
+        <v>1.058517032450207</v>
       </c>
       <c r="L8">
-        <v>0.9191558394332942</v>
+        <v>1.057459355235688</v>
       </c>
       <c r="M8">
-        <v>0.9295352118839059</v>
+        <v>1.066600017297681</v>
       </c>
       <c r="N8">
-        <v>0.9141839799809468</v>
+        <v>1.058691959724692</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8286839814297562</v>
+        <v>1.019728074474731</v>
       </c>
       <c r="D9">
-        <v>0.8414019547351335</v>
+        <v>1.033282462024232</v>
       </c>
       <c r="E9">
-        <v>0.8561390966008521</v>
+        <v>1.032510711855329</v>
       </c>
       <c r="F9">
-        <v>0.8655990486379783</v>
+        <v>1.041066363863461</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03457423756131</v>
+        <v>1.051443467917019</v>
       </c>
       <c r="J9">
-        <v>0.8621715108367073</v>
+        <v>1.044602913943527</v>
       </c>
       <c r="K9">
-        <v>0.8577261437546594</v>
+        <v>1.045857685185781</v>
       </c>
       <c r="L9">
-        <v>0.8720950884411622</v>
+        <v>1.045097461861145</v>
       </c>
       <c r="M9">
-        <v>0.8813275437559792</v>
+        <v>1.053526539558773</v>
       </c>
       <c r="N9">
-        <v>0.86339589327455</v>
+        <v>1.046086369898956</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7714582316616382</v>
+        <v>1.007697306426858</v>
       </c>
       <c r="D10">
-        <v>0.787615823133507</v>
+        <v>1.022855547171129</v>
       </c>
       <c r="E10">
-        <v>0.8075025438113385</v>
+        <v>1.022300165166987</v>
       </c>
       <c r="F10">
-        <v>0.8165459365260529</v>
+        <v>1.030362306961475</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030724185013042</v>
+        <v>1.048143531410128</v>
       </c>
       <c r="J10">
-        <v>0.8129757302679731</v>
+        <v>1.035608823236328</v>
       </c>
       <c r="K10">
-        <v>0.8072783918039568</v>
+        <v>1.036824045695691</v>
       </c>
       <c r="L10">
-        <v>0.8265050880334072</v>
+        <v>1.036278127551995</v>
       </c>
       <c r="M10">
-        <v>0.8352630024363236</v>
+        <v>1.044204178025846</v>
       </c>
       <c r="N10">
-        <v>0.8141302490545733</v>
+        <v>1.037079506551316</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.734626291199847</v>
+        <v>1.002271962818426</v>
       </c>
       <c r="D11">
-        <v>0.7532380335539393</v>
+        <v>1.018163437690462</v>
       </c>
       <c r="E11">
-        <v>0.7765328411872038</v>
+        <v>1.01770646315253</v>
       </c>
       <c r="F11">
-        <v>0.7857632824064579</v>
+        <v>1.025546701277535</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028336932581319</v>
+        <v>1.046641198549495</v>
       </c>
       <c r="J11">
-        <v>0.7815092833460239</v>
+        <v>1.031550529972247</v>
       </c>
       <c r="K11">
-        <v>0.7750163768144105</v>
+        <v>1.03275075903734</v>
       </c>
       <c r="L11">
-        <v>0.7973999954621456</v>
+        <v>1.032302012226755</v>
       </c>
       <c r="M11">
-        <v>0.8062903062657598</v>
+        <v>1.040002406444325</v>
       </c>
       <c r="N11">
-        <v>0.7826191161687429</v>
+        <v>1.033015450045307</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7161269187869311</v>
+        <v>1.000221476794994</v>
       </c>
       <c r="D12">
-        <v>0.7360570100238457</v>
+        <v>1.016391707495433</v>
       </c>
       <c r="E12">
-        <v>0.7610998755379006</v>
+        <v>1.015972058503855</v>
       </c>
       <c r="F12">
-        <v>0.770583899848333</v>
+        <v>1.023728527888485</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027175295343934</v>
+        <v>1.046071353652227</v>
       </c>
       <c r="J12">
-        <v>0.7657830951394321</v>
+        <v>1.030016466282173</v>
       </c>
       <c r="K12">
-        <v>0.7588924474371143</v>
+        <v>1.031211464941776</v>
       </c>
       <c r="L12">
-        <v>0.7828758698701371</v>
+        <v>1.030799525683319</v>
       </c>
       <c r="M12">
-        <v>0.7919840081247621</v>
+        <v>1.038414821712058</v>
       </c>
       <c r="N12">
-        <v>0.7668705949710789</v>
+        <v>1.031479207808834</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7204703292803742</v>
+        <v>1.000662958214592</v>
       </c>
       <c r="D13">
-        <v>0.740085262741169</v>
+        <v>1.016773095146843</v>
       </c>
       <c r="E13">
-        <v>0.7647152795337989</v>
+        <v>1.016345403627012</v>
       </c>
       <c r="F13">
-        <v>0.7741294522432737</v>
+        <v>1.024119904414054</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027445550866741</v>
+        <v>1.046194135292721</v>
       </c>
       <c r="J13">
-        <v>0.7694701004176059</v>
+        <v>1.030346768429441</v>
       </c>
       <c r="K13">
-        <v>0.7626727510836533</v>
+        <v>1.031542873369382</v>
       </c>
       <c r="L13">
-        <v>0.7862795659765214</v>
+        <v>1.031123005486032</v>
       </c>
       <c r="M13">
-        <v>0.795326850689934</v>
+        <v>1.038756615012394</v>
       </c>
       <c r="N13">
-        <v>0.7705628362196528</v>
+        <v>1.031809979023036</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7332431268746724</v>
+        <v>1.002103206085213</v>
       </c>
       <c r="D14">
-        <v>0.7519513224177595</v>
+        <v>1.018017588839838</v>
       </c>
       <c r="E14">
-        <v>0.7753759187728466</v>
+        <v>1.017563683485518</v>
       </c>
       <c r="F14">
-        <v>0.7846214205459064</v>
+        <v>1.025397025357676</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028249144795557</v>
+        <v>1.046594340763632</v>
       </c>
       <c r="J14">
-        <v>0.7803314846131773</v>
+        <v>1.031424279635213</v>
       </c>
       <c r="K14">
-        <v>0.7738088044337889</v>
+        <v>1.032624069324798</v>
       </c>
       <c r="L14">
-        <v>0.796311668266889</v>
+        <v>1.032178350126711</v>
       </c>
       <c r="M14">
-        <v>0.8052145877547807</v>
+        <v>1.039871736827189</v>
       </c>
       <c r="N14">
-        <v>0.7814396448266002</v>
+        <v>1.032889020418314</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7402640570469314</v>
+        <v>1.002985826195782</v>
       </c>
       <c r="D15">
-        <v>0.7584860470380441</v>
+        <v>1.018780464932861</v>
       </c>
       <c r="E15">
-        <v>0.7812532829401813</v>
+        <v>1.018310512789353</v>
       </c>
       <c r="F15">
-        <v>0.7904286335403791</v>
+        <v>1.026179927007754</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028696247503925</v>
+        <v>1.046839330619099</v>
       </c>
       <c r="J15">
-        <v>0.786313107343323</v>
+        <v>1.032084576194125</v>
       </c>
       <c r="K15">
-        <v>0.779941624064731</v>
+        <v>1.03328668167608</v>
       </c>
       <c r="L15">
-        <v>0.8018397743975513</v>
+        <v>1.032825131015268</v>
       </c>
       <c r="M15">
-        <v>0.810684650743779</v>
+        <v>1.040555175649167</v>
       </c>
       <c r="N15">
-        <v>0.7874297621471247</v>
+        <v>1.033550254674076</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7735092071737965</v>
+        <v>1.00805258491523</v>
       </c>
       <c r="D16">
-        <v>0.7895361810978924</v>
+        <v>1.023163027503992</v>
       </c>
       <c r="E16">
-        <v>0.8092356004936899</v>
+        <v>1.022601219200861</v>
       </c>
       <c r="F16">
-        <v>0.8182799923009458</v>
+        <v>1.030677905895842</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030859655072808</v>
+        <v>1.048241624588447</v>
       </c>
       <c r="J16">
-        <v>0.814733201761475</v>
+        <v>1.035874540255346</v>
       </c>
       <c r="K16">
-        <v>0.8090803492988898</v>
+        <v>1.037090804211143</v>
       </c>
       <c r="L16">
-        <v>0.8281321522695861</v>
+        <v>1.036538533980818</v>
       </c>
       <c r="M16">
-        <v>0.8368936007584026</v>
+        <v>1.044479386909091</v>
       </c>
       <c r="N16">
-        <v>0.8158902163591806</v>
+        <v>1.037345600918979</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7902885263202188</v>
+        <v>1.011171118640468</v>
       </c>
       <c r="D17">
-        <v>0.8052686758774372</v>
+        <v>1.025863144344801</v>
       </c>
       <c r="E17">
-        <v>0.823444271276088</v>
+        <v>1.025245023029125</v>
       </c>
       <c r="F17">
-        <v>0.8325382793499808</v>
+        <v>1.033449454097858</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031976350274889</v>
+        <v>1.049101062566754</v>
       </c>
       <c r="J17">
-        <v>0.8291292161540171</v>
+        <v>1.038206674042687</v>
       </c>
       <c r="K17">
-        <v>0.8238412297921729</v>
+        <v>1.039432402204156</v>
       </c>
       <c r="L17">
-        <v>0.8414649720256089</v>
+        <v>1.038824435266001</v>
       </c>
       <c r="M17">
-        <v>0.8502952292181172</v>
+        <v>1.046895355128371</v>
       </c>
       <c r="N17">
-        <v>0.8303066747434061</v>
+        <v>1.039681046603797</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7991445090662057</v>
+        <v>1.012969479033909</v>
       </c>
       <c r="D18">
-        <v>0.8135871072323314</v>
+        <v>1.027421145889252</v>
       </c>
       <c r="E18">
-        <v>0.8309641070279754</v>
+        <v>1.026770628733452</v>
       </c>
       <c r="F18">
-        <v>0.8401127562816365</v>
+        <v>1.035048786829526</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032571097515882</v>
+        <v>1.049595329466121</v>
       </c>
       <c r="J18">
-        <v>0.8367391421029056</v>
+        <v>1.039551313055078</v>
       </c>
       <c r="K18">
-        <v>0.8316444655487465</v>
+        <v>1.040782765798091</v>
       </c>
       <c r="L18">
-        <v>0.8485161900167962</v>
+        <v>1.040142729967225</v>
       </c>
       <c r="M18">
-        <v>0.8574102547670829</v>
+        <v>1.04828876642744</v>
       </c>
       <c r="N18">
-        <v>0.8379274076600129</v>
+        <v>1.041027595157818</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8020350877996842</v>
+        <v>1.013579255304793</v>
       </c>
       <c r="D19">
-        <v>0.8163043648434137</v>
+        <v>1.027949576644224</v>
       </c>
       <c r="E19">
-        <v>0.8334214828172007</v>
+        <v>1.027288087960035</v>
       </c>
       <c r="F19">
-        <v>0.8425920195883285</v>
+        <v>1.03559125521638</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032765915216189</v>
+        <v>1.049762691730848</v>
       </c>
       <c r="J19">
-        <v>0.8392246239057197</v>
+        <v>1.040007202605572</v>
       </c>
       <c r="K19">
-        <v>0.8341931658588313</v>
+        <v>1.041240641408747</v>
       </c>
       <c r="L19">
-        <v>0.8508196428489139</v>
+        <v>1.040589740218063</v>
       </c>
       <c r="M19">
-        <v>0.8597384644965195</v>
+        <v>1.048761265303811</v>
       </c>
       <c r="N19">
-        <v>0.8404164191320757</v>
+        <v>1.041484132123766</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7885922618636867</v>
+        <v>1.010838682489892</v>
       </c>
       <c r="D20">
-        <v>0.8036765234140543</v>
+        <v>1.025575214063179</v>
       </c>
       <c r="E20">
-        <v>0.8220055082959097</v>
+        <v>1.024963087558517</v>
       </c>
       <c r="F20">
-        <v>0.8310912372181759</v>
+        <v>1.033153894725408</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031862826440627</v>
+        <v>1.049009585364069</v>
       </c>
       <c r="J20">
-        <v>0.8276725091357856</v>
+        <v>1.037958091343549</v>
       </c>
       <c r="K20">
-        <v>0.822347557867625</v>
+        <v>1.039182782830791</v>
       </c>
       <c r="L20">
-        <v>0.8401154624307309</v>
+        <v>1.038580747994668</v>
       </c>
       <c r="M20">
-        <v>0.8489356149707</v>
+        <v>1.046637791099137</v>
       </c>
       <c r="N20">
-        <v>0.8288478990341223</v>
+        <v>1.039432110888714</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7296805359445189</v>
+        <v>1.001680087054992</v>
       </c>
       <c r="D21">
-        <v>0.7486387018137493</v>
+        <v>1.017651932855131</v>
       </c>
       <c r="E21">
-        <v>0.7723982510002098</v>
+        <v>1.017205724942385</v>
       </c>
       <c r="F21">
-        <v>0.7816853897724118</v>
+        <v>1.025021777628311</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028023709701026</v>
+        <v>1.04647682298399</v>
       </c>
       <c r="J21">
-        <v>0.7772992773168581</v>
+        <v>1.031107732078714</v>
       </c>
       <c r="K21">
-        <v>0.770699937680198</v>
+        <v>1.032306427185969</v>
       </c>
       <c r="L21">
-        <v>0.7935102031113057</v>
+        <v>1.031868300364837</v>
       </c>
       <c r="M21">
-        <v>0.802448287827349</v>
+        <v>1.039544120365999</v>
       </c>
       <c r="N21">
-        <v>0.7784031314481211</v>
+        <v>1.032572023327975</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7296805359445189</v>
+        <v>0.9957159870875631</v>
       </c>
       <c r="D22">
-        <v>0.7486387018137493</v>
+        <v>1.012501895058181</v>
       </c>
       <c r="E22">
-        <v>0.7723982510002098</v>
+        <v>1.012164514479821</v>
       </c>
       <c r="F22">
-        <v>0.7816853897724118</v>
+        <v>1.019737104712608</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028023709701026</v>
+        <v>1.044815583046899</v>
       </c>
       <c r="J22">
-        <v>0.7772992773168581</v>
+        <v>1.026645368123678</v>
       </c>
       <c r="K22">
-        <v>0.770699937680198</v>
+        <v>1.027829689770396</v>
       </c>
       <c r="L22">
-        <v>0.7935102031113057</v>
+        <v>1.027498781288756</v>
       </c>
       <c r="M22">
-        <v>0.802448287827349</v>
+        <v>1.03492745004239</v>
       </c>
       <c r="N22">
-        <v>0.7784031314481211</v>
+        <v>1.028103322304283</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7296805359445189</v>
+        <v>0.9988982048599503</v>
       </c>
       <c r="D23">
-        <v>0.7486387018137493</v>
+        <v>1.015248807854041</v>
       </c>
       <c r="E23">
-        <v>0.7723982510002098</v>
+        <v>1.014853285174641</v>
       </c>
       <c r="F23">
-        <v>0.7816853897724118</v>
+        <v>1.022555722851852</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028023709701026</v>
+        <v>1.04570304247818</v>
       </c>
       <c r="J23">
-        <v>0.7772992773168581</v>
+        <v>1.029026409191024</v>
       </c>
       <c r="K23">
-        <v>0.770699937680198</v>
+        <v>1.030218156675936</v>
       </c>
       <c r="L23">
-        <v>0.7935102031113057</v>
+        <v>1.029829994475303</v>
       </c>
       <c r="M23">
-        <v>0.802448287827349</v>
+        <v>1.037390426921157</v>
       </c>
       <c r="N23">
-        <v>0.7784031314481211</v>
+        <v>1.030487744723055</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7296805359445189</v>
+        <v>1.010988959612543</v>
       </c>
       <c r="D24">
-        <v>0.7486387018137493</v>
+        <v>1.025705369518642</v>
       </c>
       <c r="E24">
-        <v>0.7723982510002098</v>
+        <v>1.02509053282921</v>
       </c>
       <c r="F24">
-        <v>0.7816853897724118</v>
+        <v>1.033287498465862</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028023709701026</v>
+        <v>1.049050941637525</v>
       </c>
       <c r="J24">
-        <v>0.7772992773168581</v>
+        <v>1.038070463394355</v>
       </c>
       <c r="K24">
-        <v>0.770699937680198</v>
+        <v>1.039295622680211</v>
       </c>
       <c r="L24">
-        <v>0.7935102031113057</v>
+        <v>1.038690906094796</v>
       </c>
       <c r="M24">
-        <v>0.802448287827349</v>
+        <v>1.04675422181675</v>
       </c>
       <c r="N24">
-        <v>0.7784031314481211</v>
+        <v>1.039544642520722</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7296805359445189</v>
+        <v>1.024217880012598</v>
       </c>
       <c r="D25">
-        <v>0.7486387018137493</v>
+        <v>1.037181433175239</v>
       </c>
       <c r="E25">
-        <v>0.7723982510002098</v>
+        <v>1.036329604879954</v>
       </c>
       <c r="F25">
-        <v>0.7816853897724118</v>
+        <v>1.04506997564018</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028023709701026</v>
+        <v>1.052662335297345</v>
       </c>
       <c r="J25">
-        <v>0.7772992773168581</v>
+        <v>1.047956827193277</v>
       </c>
       <c r="K25">
-        <v>0.770699937680198</v>
+        <v>1.049228726894691</v>
       </c>
       <c r="L25">
-        <v>0.7935102031113057</v>
+        <v>1.048388962805381</v>
       </c>
       <c r="M25">
-        <v>0.802448287827349</v>
+        <v>1.057006724952653</v>
       </c>
       <c r="N25">
-        <v>0.7784031314481211</v>
+        <v>1.049445046090219</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.034211454833783</v>
+        <v>1.077808610839221</v>
       </c>
       <c r="D2">
-        <v>1.045874787531949</v>
+        <v>1.082667254768235</v>
       </c>
       <c r="E2">
-        <v>1.044846068987134</v>
+        <v>1.081294811952993</v>
       </c>
       <c r="F2">
-        <v>1.053998756405353</v>
+        <v>1.091784320675822</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055346587363235</v>
+        <v>1.048372308005105</v>
       </c>
       <c r="J2">
-        <v>1.055414931193248</v>
+        <v>1.082701223347435</v>
       </c>
       <c r="K2">
-        <v>1.056729973469133</v>
+        <v>1.085334875392519</v>
       </c>
       <c r="L2">
-        <v>1.055714077639088</v>
+        <v>1.083966009003443</v>
       </c>
       <c r="M2">
-        <v>1.064753772529418</v>
+        <v>1.094428429498829</v>
       </c>
       <c r="N2">
-        <v>1.056913741453327</v>
+        <v>1.084238783272155</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.041181756165974</v>
+        <v>1.079239888658735</v>
       </c>
       <c r="D3">
-        <v>1.051950294704299</v>
+        <v>1.083958539962137</v>
       </c>
       <c r="E3">
-        <v>1.050799339872383</v>
+        <v>1.08256224496061</v>
       </c>
       <c r="F3">
-        <v>1.060240638685767</v>
+        <v>1.093116892664243</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057192214445303</v>
+        <v>1.048665424828717</v>
       </c>
       <c r="J3">
-        <v>1.060609424233587</v>
+        <v>1.083790609522272</v>
       </c>
       <c r="K3">
-        <v>1.061958963566156</v>
+        <v>1.086443693800442</v>
       </c>
       <c r="L3">
-        <v>1.060821013540365</v>
+        <v>1.085050772696539</v>
       </c>
       <c r="M3">
-        <v>1.070156659568062</v>
+        <v>1.095580146410417</v>
       </c>
       <c r="N3">
-        <v>1.0621156112696</v>
+        <v>1.085329716500314</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.04557059671943</v>
+        <v>1.080165300350881</v>
       </c>
       <c r="D4">
-        <v>1.055780805711119</v>
+        <v>1.084793631795567</v>
       </c>
       <c r="E4">
-        <v>1.054553384696515</v>
+        <v>1.083381946362196</v>
       </c>
       <c r="F4">
-        <v>1.064176879553396</v>
+        <v>1.093978776662275</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058341645053338</v>
+        <v>1.048853329377354</v>
       </c>
       <c r="J4">
-        <v>1.063876312401021</v>
+        <v>1.084494304519896</v>
       </c>
       <c r="K4">
-        <v>1.065249577525879</v>
+        <v>1.087160157864051</v>
       </c>
       <c r="L4">
-        <v>1.064035134051295</v>
+        <v>1.085751710794441</v>
       </c>
       <c r="M4">
-        <v>1.073557859543387</v>
+        <v>1.096324450782184</v>
       </c>
       <c r="N4">
-        <v>1.065387138792949</v>
+        <v>1.08603441082555</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.04738807961622</v>
+        <v>1.080554175641311</v>
       </c>
       <c r="D5">
-        <v>1.057368224328375</v>
+        <v>1.085144598814698</v>
       </c>
       <c r="E5">
-        <v>1.056109253671093</v>
+        <v>1.083726453531197</v>
       </c>
       <c r="F5">
-        <v>1.065808311468605</v>
+        <v>1.094341025567214</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058814548180569</v>
+        <v>1.048931903744065</v>
       </c>
       <c r="J5">
-        <v>1.065228205632428</v>
+        <v>1.084789851408587</v>
       </c>
       <c r="K5">
-        <v>1.06661177273528</v>
+        <v>1.087461119523895</v>
       </c>
       <c r="L5">
-        <v>1.065365736819437</v>
+        <v>1.086046154579532</v>
       </c>
       <c r="M5">
-        <v>1.0749661061734</v>
+        <v>1.096637136208271</v>
       </c>
       <c r="N5">
-        <v>1.066740951867809</v>
+        <v>1.086330377424722</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.047691666351711</v>
+        <v>1.080619459813</v>
       </c>
       <c r="D6">
-        <v>1.057633447402316</v>
+        <v>1.085203521633844</v>
       </c>
       <c r="E6">
-        <v>1.056369213513004</v>
+        <v>1.083784292312477</v>
       </c>
       <c r="F6">
-        <v>1.066080899739687</v>
+        <v>1.094401843748932</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058893357059922</v>
+        <v>1.048945072085551</v>
       </c>
       <c r="J6">
-        <v>1.065453962902882</v>
+        <v>1.084839458329159</v>
       </c>
       <c r="K6">
-        <v>1.066839278737181</v>
+        <v>1.087511638342713</v>
       </c>
       <c r="L6">
-        <v>1.065587970658675</v>
+        <v>1.08609557955734</v>
       </c>
       <c r="M6">
-        <v>1.075201319361395</v>
+        <v>1.09668962465556</v>
       </c>
       <c r="N6">
-        <v>1.066967029739482</v>
+        <v>1.086380054792811</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.045594988531412</v>
+        <v>1.080170497174901</v>
       </c>
       <c r="D7">
-        <v>1.055802105457073</v>
+        <v>1.084798321844489</v>
       </c>
       <c r="E7">
-        <v>1.054574260571068</v>
+        <v>1.083386550054027</v>
       </c>
       <c r="F7">
-        <v>1.064198769086034</v>
+        <v>1.093983617387694</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05834800402721</v>
+        <v>1.048854380943694</v>
       </c>
       <c r="J7">
-        <v>1.063894459615538</v>
+        <v>1.084498254753432</v>
       </c>
       <c r="K7">
-        <v>1.065267861119021</v>
+        <v>1.087164180266765</v>
       </c>
       <c r="L7">
-        <v>1.064052993320036</v>
+        <v>1.085755646068812</v>
       </c>
       <c r="M7">
-        <v>1.073576760171047</v>
+        <v>1.096328629760971</v>
       </c>
       <c r="N7">
-        <v>1.065405311778592</v>
+        <v>1.086038366668871</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.036593166831008</v>
+        <v>1.078292469992332</v>
       </c>
       <c r="D8">
-        <v>1.047949639739565</v>
+        <v>1.083103747233382</v>
       </c>
       <c r="E8">
-        <v>1.046879046079638</v>
+        <v>1.081723234367191</v>
       </c>
       <c r="F8">
-        <v>1.056130250582802</v>
+        <v>1.092234750332181</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055979861919286</v>
+        <v>1.04847173359041</v>
       </c>
       <c r="J8">
-        <v>1.057190627771796</v>
+        <v>1.083069639213829</v>
       </c>
       <c r="K8">
-        <v>1.058517032450207</v>
+        <v>1.085709818041137</v>
       </c>
       <c r="L8">
-        <v>1.057459355235688</v>
+        <v>1.084332814100625</v>
       </c>
       <c r="M8">
-        <v>1.066600017297681</v>
+        <v>1.094817852923183</v>
       </c>
       <c r="N8">
-        <v>1.058691959724692</v>
+        <v>1.084607722331336</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.019728074474731</v>
+        <v>1.07497741203653</v>
       </c>
       <c r="D9">
-        <v>1.033282462024232</v>
+        <v>1.080114036354505</v>
       </c>
       <c r="E9">
-        <v>1.032510711855329</v>
+        <v>1.078788945036857</v>
       </c>
       <c r="F9">
-        <v>1.041066363863461</v>
+        <v>1.089149954992949</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051443467917019</v>
+        <v>1.047783921401151</v>
       </c>
       <c r="J9">
-        <v>1.044602913943527</v>
+        <v>1.080542812714707</v>
       </c>
       <c r="K9">
-        <v>1.045857685185781</v>
+        <v>1.083139119345927</v>
       </c>
       <c r="L9">
-        <v>1.045097461861145</v>
+        <v>1.08181797951529</v>
       </c>
       <c r="M9">
-        <v>1.053526539558773</v>
+        <v>1.092148371332956</v>
       </c>
       <c r="N9">
-        <v>1.046086369898956</v>
+        <v>1.082077307448755</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.007697306426858</v>
+        <v>1.072763217146631</v>
       </c>
       <c r="D10">
-        <v>1.022855547171129</v>
+        <v>1.078118211393094</v>
       </c>
       <c r="E10">
-        <v>1.022300165166987</v>
+        <v>1.076830304252484</v>
       </c>
       <c r="F10">
-        <v>1.030362306961475</v>
+        <v>1.087091130254487</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048143531410128</v>
+        <v>1.04731621092377</v>
       </c>
       <c r="J10">
-        <v>1.035608823236328</v>
+        <v>1.078851712977888</v>
       </c>
       <c r="K10">
-        <v>1.036824045695691</v>
+        <v>1.081419781190352</v>
       </c>
       <c r="L10">
-        <v>1.036278127551995</v>
+        <v>1.080136094990032</v>
       </c>
       <c r="M10">
-        <v>1.044204178025846</v>
+        <v>1.090363596513963</v>
       </c>
       <c r="N10">
-        <v>1.037079506551316</v>
+        <v>1.080383806156338</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.002271962818426</v>
+        <v>1.071803392967472</v>
       </c>
       <c r="D11">
-        <v>1.018163437690462</v>
+        <v>1.077253309094095</v>
       </c>
       <c r="E11">
-        <v>1.01770646315253</v>
+        <v>1.075981561055491</v>
       </c>
       <c r="F11">
-        <v>1.025546701277535</v>
+        <v>1.086199039925806</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046641198549495</v>
+        <v>1.047111497201417</v>
       </c>
       <c r="J11">
-        <v>1.031550529972247</v>
+        <v>1.078117846817259</v>
       </c>
       <c r="K11">
-        <v>1.03275075903734</v>
+        <v>1.080673927720116</v>
       </c>
       <c r="L11">
-        <v>1.032302012226755</v>
+        <v>1.07940651086341</v>
       </c>
       <c r="M11">
-        <v>1.040002406444325</v>
+        <v>1.089589506869037</v>
       </c>
       <c r="N11">
-        <v>1.033015450045307</v>
+        <v>1.079648897821585</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.000221476794994</v>
+        <v>1.071446705897882</v>
       </c>
       <c r="D12">
-        <v>1.016391707495433</v>
+        <v>1.076931936652048</v>
       </c>
       <c r="E12">
-        <v>1.015972058503855</v>
+        <v>1.075666199714028</v>
       </c>
       <c r="F12">
-        <v>1.023728527888485</v>
+        <v>1.085867582275201</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046071353652227</v>
+        <v>1.047035126719118</v>
       </c>
       <c r="J12">
-        <v>1.030016466282173</v>
+        <v>1.077845010314688</v>
       </c>
       <c r="K12">
-        <v>1.031211464941776</v>
+        <v>1.080396674737233</v>
       </c>
       <c r="L12">
-        <v>1.030799525683319</v>
+        <v>1.07913530893235</v>
       </c>
       <c r="M12">
-        <v>1.038414821712058</v>
+        <v>1.089301780427787</v>
       </c>
       <c r="N12">
-        <v>1.031479207808834</v>
+        <v>1.079375673859885</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.000662958214592</v>
+        <v>1.071523224075465</v>
       </c>
       <c r="D13">
-        <v>1.016773095146843</v>
+        <v>1.077000877146916</v>
       </c>
       <c r="E13">
-        <v>1.016345403627012</v>
+        <v>1.075733850402511</v>
       </c>
       <c r="F13">
-        <v>1.024119904414054</v>
+        <v>1.085938685465745</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046194135292721</v>
+        <v>1.047051523433334</v>
       </c>
       <c r="J13">
-        <v>1.030346768429441</v>
+        <v>1.077903545867894</v>
       </c>
       <c r="K13">
-        <v>1.031542873369382</v>
+        <v>1.080456156003975</v>
       </c>
       <c r="L13">
-        <v>1.031123005486032</v>
+        <v>1.079193491868662</v>
       </c>
       <c r="M13">
-        <v>1.038756615012394</v>
+        <v>1.089363507622013</v>
       </c>
       <c r="N13">
-        <v>1.031809979023036</v>
+        <v>1.079434292540291</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.002103206085213</v>
+        <v>1.071773912516147</v>
       </c>
       <c r="D14">
-        <v>1.018017588839838</v>
+        <v>1.077226746602007</v>
       </c>
       <c r="E14">
-        <v>1.017563683485518</v>
+        <v>1.075955495260556</v>
       </c>
       <c r="F14">
-        <v>1.025397025357676</v>
+        <v>1.086171643509516</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046594340763632</v>
+        <v>1.047105191147463</v>
       </c>
       <c r="J14">
-        <v>1.031424279635213</v>
+        <v>1.078095299108391</v>
       </c>
       <c r="K14">
-        <v>1.032624069324798</v>
+        <v>1.080651014205976</v>
       </c>
       <c r="L14">
-        <v>1.032178350126711</v>
+        <v>1.07938409736933</v>
       </c>
       <c r="M14">
-        <v>1.039871736827189</v>
+        <v>1.089565727315741</v>
       </c>
       <c r="N14">
-        <v>1.032889020418314</v>
+        <v>1.079626318092385</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.002985826195782</v>
+        <v>1.071928347813111</v>
       </c>
       <c r="D15">
-        <v>1.018780464932861</v>
+        <v>1.077365897619941</v>
       </c>
       <c r="E15">
-        <v>1.018310512789353</v>
+        <v>1.076092044547726</v>
       </c>
       <c r="F15">
-        <v>1.026179927007754</v>
+        <v>1.086315163845449</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046839330619099</v>
+        <v>1.047138213736573</v>
       </c>
       <c r="J15">
-        <v>1.032084576194125</v>
+        <v>1.078213411892813</v>
       </c>
       <c r="K15">
-        <v>1.03328668167608</v>
+        <v>1.080771044850565</v>
       </c>
       <c r="L15">
-        <v>1.032825131015268</v>
+        <v>1.079501508834089</v>
       </c>
       <c r="M15">
-        <v>1.040555175649167</v>
+        <v>1.089690295566329</v>
       </c>
       <c r="N15">
-        <v>1.033550254674076</v>
+        <v>1.079744598610507</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.00805258491523</v>
+        <v>1.072826894613195</v>
       </c>
       <c r="D16">
-        <v>1.023163027503992</v>
+        <v>1.07817559704218</v>
       </c>
       <c r="E16">
-        <v>1.022601219200861</v>
+        <v>1.076886618713146</v>
       </c>
       <c r="F16">
-        <v>1.030677905895842</v>
+        <v>1.087150322200194</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048241624588447</v>
+        <v>1.047329750799854</v>
       </c>
       <c r="J16">
-        <v>1.035874540255346</v>
+        <v>1.078900383001748</v>
       </c>
       <c r="K16">
-        <v>1.037090804211143</v>
+        <v>1.081469251836993</v>
       </c>
       <c r="L16">
-        <v>1.036538533980818</v>
+        <v>1.080184486993699</v>
       </c>
       <c r="M16">
-        <v>1.044479386909091</v>
+        <v>1.090414943169234</v>
       </c>
       <c r="N16">
-        <v>1.037345600918979</v>
+        <v>1.080432545297214</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.011171118640468</v>
+        <v>1.073390240479981</v>
       </c>
       <c r="D17">
-        <v>1.025863144344801</v>
+        <v>1.07868331033326</v>
       </c>
       <c r="E17">
-        <v>1.025245023029125</v>
+        <v>1.077384860000526</v>
       </c>
       <c r="F17">
-        <v>1.033449454097858</v>
+        <v>1.087674029592154</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049101062566754</v>
+        <v>1.047449309115726</v>
       </c>
       <c r="J17">
-        <v>1.038206674042687</v>
+        <v>1.079330868124961</v>
       </c>
       <c r="K17">
-        <v>1.039432402204156</v>
+        <v>1.081906849260725</v>
       </c>
       <c r="L17">
-        <v>1.038824435266001</v>
+        <v>1.080612545702827</v>
       </c>
       <c r="M17">
-        <v>1.046895355128371</v>
+        <v>1.090869152377846</v>
       </c>
       <c r="N17">
-        <v>1.039681046603797</v>
+        <v>1.080863641758679</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.012969479033909</v>
+        <v>1.073718728412656</v>
       </c>
       <c r="D18">
-        <v>1.027421145889252</v>
+        <v>1.078979383970627</v>
       </c>
       <c r="E18">
-        <v>1.026770628733452</v>
+        <v>1.077675414374085</v>
       </c>
       <c r="F18">
-        <v>1.035048786829526</v>
+        <v>1.087979441131469</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049595329466121</v>
+        <v>1.047518834055718</v>
       </c>
       <c r="J18">
-        <v>1.039551313055078</v>
+        <v>1.079581807874509</v>
       </c>
       <c r="K18">
-        <v>1.040782765798091</v>
+        <v>1.082161960657705</v>
       </c>
       <c r="L18">
-        <v>1.040142729967225</v>
+        <v>1.080862098306002</v>
       </c>
       <c r="M18">
-        <v>1.04828876642744</v>
+        <v>1.091133962639611</v>
       </c>
       <c r="N18">
-        <v>1.041027595157818</v>
+        <v>1.081114937871455</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.013579255304793</v>
+        <v>1.07383071715497</v>
       </c>
       <c r="D19">
-        <v>1.027949576644224</v>
+        <v>1.079080326212088</v>
       </c>
       <c r="E19">
-        <v>1.027288087960035</v>
+        <v>1.077774475633501</v>
       </c>
       <c r="F19">
-        <v>1.03559125521638</v>
+        <v>1.088083568853476</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049762691730848</v>
+        <v>1.047542504447055</v>
       </c>
       <c r="J19">
-        <v>1.040007202605572</v>
+        <v>1.079667345691012</v>
       </c>
       <c r="K19">
-        <v>1.041240641408747</v>
+        <v>1.082248924825003</v>
       </c>
       <c r="L19">
-        <v>1.040589740218063</v>
+        <v>1.080947167908547</v>
       </c>
       <c r="M19">
-        <v>1.048761265303811</v>
+        <v>1.091224235480886</v>
       </c>
       <c r="N19">
-        <v>1.041484132123766</v>
+        <v>1.081200597161469</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.010838682489892</v>
+        <v>1.073329809413261</v>
       </c>
       <c r="D20">
-        <v>1.025575214063179</v>
+        <v>1.078628844459586</v>
       </c>
       <c r="E20">
-        <v>1.024963087558517</v>
+        <v>1.077331409803222</v>
       </c>
       <c r="F20">
-        <v>1.033153894725408</v>
+        <v>1.087617846791803</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049009585364069</v>
+        <v>1.047436503516697</v>
       </c>
       <c r="J20">
-        <v>1.037958091343549</v>
+        <v>1.079284697203324</v>
       </c>
       <c r="K20">
-        <v>1.039182782830791</v>
+        <v>1.081859912860222</v>
       </c>
       <c r="L20">
-        <v>1.038580747994668</v>
+        <v>1.080566632200358</v>
       </c>
       <c r="M20">
-        <v>1.046637791099137</v>
+        <v>1.090820432708725</v>
       </c>
       <c r="N20">
-        <v>1.039432110888714</v>
+        <v>1.080817405269038</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.001680087054992</v>
+        <v>1.071700095638454</v>
       </c>
       <c r="D21">
-        <v>1.017651932855131</v>
+        <v>1.077160236728475</v>
       </c>
       <c r="E21">
-        <v>1.017205724942385</v>
+        <v>1.075890229178842</v>
       </c>
       <c r="F21">
-        <v>1.025021777628311</v>
+        <v>1.086103045847507</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04647682298399</v>
+        <v>1.047089396483001</v>
       </c>
       <c r="J21">
-        <v>1.031107732078714</v>
+        <v>1.078038839381483</v>
       </c>
       <c r="K21">
-        <v>1.032306427185969</v>
+        <v>1.080593639147114</v>
       </c>
       <c r="L21">
-        <v>1.031868300364837</v>
+        <v>1.07932797440608</v>
       </c>
       <c r="M21">
-        <v>1.039544120365999</v>
+        <v>1.089506184075343</v>
       </c>
       <c r="N21">
-        <v>1.032572023327975</v>
+        <v>1.079569778186187</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9957159870875631</v>
+        <v>1.070674468657311</v>
       </c>
       <c r="D22">
-        <v>1.012501895058181</v>
+        <v>1.076236230600855</v>
       </c>
       <c r="E22">
-        <v>1.012164514479821</v>
+        <v>1.074983519080122</v>
       </c>
       <c r="F22">
-        <v>1.019737104712608</v>
+        <v>1.085150075068851</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044815583046899</v>
+        <v>1.046869242554941</v>
       </c>
       <c r="J22">
-        <v>1.026645368123678</v>
+        <v>1.077254094104786</v>
       </c>
       <c r="K22">
-        <v>1.027829689770396</v>
+        <v>1.079796266718247</v>
       </c>
       <c r="L22">
-        <v>1.027498781288756</v>
+        <v>1.078548010933804</v>
       </c>
       <c r="M22">
-        <v>1.03492745004239</v>
+        <v>1.088678733011708</v>
       </c>
       <c r="N22">
-        <v>1.028103322304283</v>
+        <v>1.078783918481186</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9988982048599503</v>
+        <v>1.071218266018404</v>
       </c>
       <c r="D23">
-        <v>1.015248807854041</v>
+        <v>1.076726125355865</v>
       </c>
       <c r="E23">
-        <v>1.014853285174641</v>
+        <v>1.075464239945862</v>
       </c>
       <c r="F23">
-        <v>1.022555722851852</v>
+        <v>1.085655317085282</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04570304247818</v>
+        <v>1.046986132197533</v>
       </c>
       <c r="J23">
-        <v>1.029026409191024</v>
+        <v>1.07767023891634</v>
       </c>
       <c r="K23">
-        <v>1.030218156675936</v>
+        <v>1.080219085576959</v>
       </c>
       <c r="L23">
-        <v>1.029829994475303</v>
+        <v>1.078961596596894</v>
       </c>
       <c r="M23">
-        <v>1.037390426921157</v>
+        <v>1.089117489077032</v>
       </c>
       <c r="N23">
-        <v>1.030487744723055</v>
+        <v>1.079200654266105</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.010988959612543</v>
+        <v>1.073357115926451</v>
       </c>
       <c r="D24">
-        <v>1.025705369518642</v>
+        <v>1.078653455450039</v>
       </c>
       <c r="E24">
-        <v>1.02509053282921</v>
+        <v>1.077355561835967</v>
       </c>
       <c r="F24">
-        <v>1.033287498465862</v>
+        <v>1.087643233560285</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049050941637525</v>
+        <v>1.047442290468827</v>
       </c>
       <c r="J24">
-        <v>1.038070463394355</v>
+        <v>1.079305560333917</v>
       </c>
       <c r="K24">
-        <v>1.039295622680211</v>
+        <v>1.081881121806205</v>
       </c>
       <c r="L24">
-        <v>1.038690906094796</v>
+        <v>1.080587378927382</v>
       </c>
       <c r="M24">
-        <v>1.04675422181675</v>
+        <v>1.090842447407712</v>
       </c>
       <c r="N24">
-        <v>1.039544642520722</v>
+        <v>1.080838298027669</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.024217880012598</v>
+        <v>1.075835144401023</v>
       </c>
       <c r="D25">
-        <v>1.037181433175239</v>
+        <v>1.080887404652336</v>
       </c>
       <c r="E25">
-        <v>1.036329604879954</v>
+        <v>1.07954794446747</v>
       </c>
       <c r="F25">
-        <v>1.04506997564018</v>
+        <v>1.089947835894707</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052662335297345</v>
+        <v>1.047963348547454</v>
       </c>
       <c r="J25">
-        <v>1.047956827193277</v>
+        <v>1.081197196509149</v>
       </c>
       <c r="K25">
-        <v>1.049228726894691</v>
+        <v>1.08380466743426</v>
       </c>
       <c r="L25">
-        <v>1.048388962805381</v>
+        <v>1.082469048710729</v>
       </c>
       <c r="M25">
-        <v>1.057006724952653</v>
+        <v>1.092839383174863</v>
       </c>
       <c r="N25">
-        <v>1.049445046090219</v>
+        <v>1.082732620543244</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.077808610839221</v>
+        <v>1.034211454833785</v>
       </c>
       <c r="D2">
-        <v>1.082667254768235</v>
+        <v>1.045874787531951</v>
       </c>
       <c r="E2">
-        <v>1.081294811952993</v>
+        <v>1.044846068987135</v>
       </c>
       <c r="F2">
-        <v>1.091784320675822</v>
+        <v>1.053998756405353</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048372308005105</v>
+        <v>1.055346587363236</v>
       </c>
       <c r="J2">
-        <v>1.082701223347435</v>
+        <v>1.055414931193249</v>
       </c>
       <c r="K2">
-        <v>1.085334875392519</v>
+        <v>1.056729973469135</v>
       </c>
       <c r="L2">
-        <v>1.083966009003443</v>
+        <v>1.055714077639089</v>
       </c>
       <c r="M2">
-        <v>1.094428429498829</v>
+        <v>1.064753772529419</v>
       </c>
       <c r="N2">
-        <v>1.084238783272155</v>
+        <v>1.056913741453328</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.079239888658735</v>
+        <v>1.041181756165974</v>
       </c>
       <c r="D3">
-        <v>1.083958539962137</v>
+        <v>1.051950294704299</v>
       </c>
       <c r="E3">
-        <v>1.08256224496061</v>
+        <v>1.050799339872383</v>
       </c>
       <c r="F3">
-        <v>1.093116892664243</v>
+        <v>1.060240638685768</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048665424828717</v>
+        <v>1.057192214445304</v>
       </c>
       <c r="J3">
-        <v>1.083790609522272</v>
+        <v>1.060609424233587</v>
       </c>
       <c r="K3">
-        <v>1.086443693800442</v>
+        <v>1.061958963566155</v>
       </c>
       <c r="L3">
-        <v>1.085050772696539</v>
+        <v>1.060821013540365</v>
       </c>
       <c r="M3">
-        <v>1.095580146410417</v>
+        <v>1.070156659568062</v>
       </c>
       <c r="N3">
-        <v>1.085329716500314</v>
+        <v>1.0621156112696</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.080165300350881</v>
+        <v>1.04557059671943</v>
       </c>
       <c r="D4">
-        <v>1.084793631795567</v>
+        <v>1.055780805711119</v>
       </c>
       <c r="E4">
-        <v>1.083381946362196</v>
+        <v>1.054553384696514</v>
       </c>
       <c r="F4">
-        <v>1.093978776662275</v>
+        <v>1.064176879553396</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048853329377354</v>
+        <v>1.058341645053338</v>
       </c>
       <c r="J4">
-        <v>1.084494304519896</v>
+        <v>1.063876312401021</v>
       </c>
       <c r="K4">
-        <v>1.087160157864051</v>
+        <v>1.065249577525879</v>
       </c>
       <c r="L4">
-        <v>1.085751710794441</v>
+        <v>1.064035134051295</v>
       </c>
       <c r="M4">
-        <v>1.096324450782184</v>
+        <v>1.073557859543387</v>
       </c>
       <c r="N4">
-        <v>1.08603441082555</v>
+        <v>1.06538713879295</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.080554175641311</v>
+        <v>1.04738807961622</v>
       </c>
       <c r="D5">
-        <v>1.085144598814698</v>
+        <v>1.057368224328375</v>
       </c>
       <c r="E5">
-        <v>1.083726453531197</v>
+        <v>1.056109253671093</v>
       </c>
       <c r="F5">
-        <v>1.094341025567214</v>
+        <v>1.065808311468605</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048931903744065</v>
+        <v>1.058814548180569</v>
       </c>
       <c r="J5">
-        <v>1.084789851408587</v>
+        <v>1.065228205632428</v>
       </c>
       <c r="K5">
-        <v>1.087461119523895</v>
+        <v>1.06661177273528</v>
       </c>
       <c r="L5">
-        <v>1.086046154579532</v>
+        <v>1.065365736819437</v>
       </c>
       <c r="M5">
-        <v>1.096637136208271</v>
+        <v>1.0749661061734</v>
       </c>
       <c r="N5">
-        <v>1.086330377424722</v>
+        <v>1.066740951867809</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.080619459813</v>
+        <v>1.047691666351709</v>
       </c>
       <c r="D6">
-        <v>1.085203521633844</v>
+        <v>1.057633447402314</v>
       </c>
       <c r="E6">
-        <v>1.083784292312477</v>
+        <v>1.056369213513002</v>
       </c>
       <c r="F6">
-        <v>1.094401843748932</v>
+        <v>1.066080899739685</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048945072085551</v>
+        <v>1.058893357059921</v>
       </c>
       <c r="J6">
-        <v>1.084839458329159</v>
+        <v>1.065453962902881</v>
       </c>
       <c r="K6">
-        <v>1.087511638342713</v>
+        <v>1.066839278737179</v>
       </c>
       <c r="L6">
-        <v>1.08609557955734</v>
+        <v>1.065587970658673</v>
       </c>
       <c r="M6">
-        <v>1.09668962465556</v>
+        <v>1.075201319361393</v>
       </c>
       <c r="N6">
-        <v>1.086380054792811</v>
+        <v>1.06696702973948</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.080170497174901</v>
+        <v>1.045594988531412</v>
       </c>
       <c r="D7">
-        <v>1.084798321844489</v>
+        <v>1.055802105457074</v>
       </c>
       <c r="E7">
-        <v>1.083386550054027</v>
+        <v>1.054574260571068</v>
       </c>
       <c r="F7">
-        <v>1.093983617387694</v>
+        <v>1.064198769086034</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048854380943694</v>
+        <v>1.05834800402721</v>
       </c>
       <c r="J7">
-        <v>1.084498254753432</v>
+        <v>1.063894459615538</v>
       </c>
       <c r="K7">
-        <v>1.087164180266765</v>
+        <v>1.065267861119022</v>
       </c>
       <c r="L7">
-        <v>1.085755646068812</v>
+        <v>1.064052993320037</v>
       </c>
       <c r="M7">
-        <v>1.096328629760971</v>
+        <v>1.073576760171048</v>
       </c>
       <c r="N7">
-        <v>1.086038366668871</v>
+        <v>1.065405311778593</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.078292469992332</v>
+        <v>1.036593166831008</v>
       </c>
       <c r="D8">
-        <v>1.083103747233382</v>
+        <v>1.047949639739565</v>
       </c>
       <c r="E8">
-        <v>1.081723234367191</v>
+        <v>1.046879046079638</v>
       </c>
       <c r="F8">
-        <v>1.092234750332181</v>
+        <v>1.056130250582801</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04847173359041</v>
+        <v>1.055979861919286</v>
       </c>
       <c r="J8">
-        <v>1.083069639213829</v>
+        <v>1.057190627771796</v>
       </c>
       <c r="K8">
-        <v>1.085709818041137</v>
+        <v>1.058517032450207</v>
       </c>
       <c r="L8">
-        <v>1.084332814100625</v>
+        <v>1.057459355235687</v>
       </c>
       <c r="M8">
-        <v>1.094817852923183</v>
+        <v>1.066600017297681</v>
       </c>
       <c r="N8">
-        <v>1.084607722331336</v>
+        <v>1.058691959724692</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.07497741203653</v>
+        <v>1.019728074474731</v>
       </c>
       <c r="D9">
-        <v>1.080114036354505</v>
+        <v>1.033282462024232</v>
       </c>
       <c r="E9">
-        <v>1.078788945036857</v>
+        <v>1.032510711855329</v>
       </c>
       <c r="F9">
-        <v>1.089149954992949</v>
+        <v>1.041066363863461</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047783921401151</v>
+        <v>1.05144346791702</v>
       </c>
       <c r="J9">
-        <v>1.080542812714707</v>
+        <v>1.044602913943527</v>
       </c>
       <c r="K9">
-        <v>1.083139119345927</v>
+        <v>1.045857685185781</v>
       </c>
       <c r="L9">
-        <v>1.08181797951529</v>
+        <v>1.045097461861145</v>
       </c>
       <c r="M9">
-        <v>1.092148371332956</v>
+        <v>1.053526539558773</v>
       </c>
       <c r="N9">
-        <v>1.082077307448755</v>
+        <v>1.046086369898956</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.072763217146631</v>
+        <v>1.007697306426858</v>
       </c>
       <c r="D10">
-        <v>1.078118211393094</v>
+        <v>1.022855547171128</v>
       </c>
       <c r="E10">
-        <v>1.076830304252484</v>
+        <v>1.022300165166986</v>
       </c>
       <c r="F10">
-        <v>1.087091130254487</v>
+        <v>1.030362306961474</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04731621092377</v>
+        <v>1.048143531410128</v>
       </c>
       <c r="J10">
-        <v>1.078851712977888</v>
+        <v>1.035608823236327</v>
       </c>
       <c r="K10">
-        <v>1.081419781190352</v>
+        <v>1.036824045695691</v>
       </c>
       <c r="L10">
-        <v>1.080136094990032</v>
+        <v>1.036278127551995</v>
       </c>
       <c r="M10">
-        <v>1.090363596513963</v>
+        <v>1.044204178025845</v>
       </c>
       <c r="N10">
-        <v>1.080383806156338</v>
+        <v>1.037079506551315</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.071803392967472</v>
+        <v>1.002271962818426</v>
       </c>
       <c r="D11">
-        <v>1.077253309094095</v>
+        <v>1.018163437690462</v>
       </c>
       <c r="E11">
-        <v>1.075981561055491</v>
+        <v>1.01770646315253</v>
       </c>
       <c r="F11">
-        <v>1.086199039925806</v>
+        <v>1.025546701277535</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047111497201417</v>
+        <v>1.046641198549495</v>
       </c>
       <c r="J11">
-        <v>1.078117846817259</v>
+        <v>1.031550529972247</v>
       </c>
       <c r="K11">
-        <v>1.080673927720116</v>
+        <v>1.03275075903734</v>
       </c>
       <c r="L11">
-        <v>1.07940651086341</v>
+        <v>1.032302012226755</v>
       </c>
       <c r="M11">
-        <v>1.089589506869037</v>
+        <v>1.040002406444324</v>
       </c>
       <c r="N11">
-        <v>1.079648897821585</v>
+        <v>1.033015450045307</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.071446705897882</v>
+        <v>1.000221476794993</v>
       </c>
       <c r="D12">
-        <v>1.076931936652048</v>
+        <v>1.016391707495432</v>
       </c>
       <c r="E12">
-        <v>1.075666199714028</v>
+        <v>1.015972058503854</v>
       </c>
       <c r="F12">
-        <v>1.085867582275201</v>
+        <v>1.023728527888484</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047035126719118</v>
+        <v>1.046071353652227</v>
       </c>
       <c r="J12">
-        <v>1.077845010314688</v>
+        <v>1.030016466282172</v>
       </c>
       <c r="K12">
-        <v>1.080396674737233</v>
+        <v>1.031211464941775</v>
       </c>
       <c r="L12">
-        <v>1.07913530893235</v>
+        <v>1.030799525683318</v>
       </c>
       <c r="M12">
-        <v>1.089301780427787</v>
+        <v>1.038414821712057</v>
       </c>
       <c r="N12">
-        <v>1.079375673859885</v>
+        <v>1.031479207808833</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.071523224075465</v>
+        <v>1.000662958214591</v>
       </c>
       <c r="D13">
-        <v>1.077000877146916</v>
+        <v>1.016773095146843</v>
       </c>
       <c r="E13">
-        <v>1.075733850402511</v>
+        <v>1.016345403627011</v>
       </c>
       <c r="F13">
-        <v>1.085938685465745</v>
+        <v>1.024119904414054</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047051523433334</v>
+        <v>1.04619413529272</v>
       </c>
       <c r="J13">
-        <v>1.077903545867894</v>
+        <v>1.03034676842944</v>
       </c>
       <c r="K13">
-        <v>1.080456156003975</v>
+        <v>1.031542873369382</v>
       </c>
       <c r="L13">
-        <v>1.079193491868662</v>
+        <v>1.031123005486031</v>
       </c>
       <c r="M13">
-        <v>1.089363507622013</v>
+        <v>1.038756615012394</v>
       </c>
       <c r="N13">
-        <v>1.079434292540291</v>
+        <v>1.031809979023036</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.071773912516147</v>
+        <v>1.002103206085213</v>
       </c>
       <c r="D14">
-        <v>1.077226746602007</v>
+        <v>1.018017588839839</v>
       </c>
       <c r="E14">
-        <v>1.075955495260556</v>
+        <v>1.017563683485519</v>
       </c>
       <c r="F14">
-        <v>1.086171643509516</v>
+        <v>1.025397025357678</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047105191147463</v>
+        <v>1.046594340763632</v>
       </c>
       <c r="J14">
-        <v>1.078095299108391</v>
+        <v>1.031424279635214</v>
       </c>
       <c r="K14">
-        <v>1.080651014205976</v>
+        <v>1.032624069324799</v>
       </c>
       <c r="L14">
-        <v>1.07938409736933</v>
+        <v>1.032178350126712</v>
       </c>
       <c r="M14">
-        <v>1.089565727315741</v>
+        <v>1.039871736827191</v>
       </c>
       <c r="N14">
-        <v>1.079626318092385</v>
+        <v>1.032889020418314</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.071928347813111</v>
+        <v>1.002985826195781</v>
       </c>
       <c r="D15">
-        <v>1.077365897619941</v>
+        <v>1.01878046493286</v>
       </c>
       <c r="E15">
-        <v>1.076092044547726</v>
+        <v>1.018310512789352</v>
       </c>
       <c r="F15">
-        <v>1.086315163845449</v>
+        <v>1.026179927007753</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047138213736573</v>
+        <v>1.046839330619098</v>
       </c>
       <c r="J15">
-        <v>1.078213411892813</v>
+        <v>1.032084576194124</v>
       </c>
       <c r="K15">
-        <v>1.080771044850565</v>
+        <v>1.03328668167608</v>
       </c>
       <c r="L15">
-        <v>1.079501508834089</v>
+        <v>1.032825131015267</v>
       </c>
       <c r="M15">
-        <v>1.089690295566329</v>
+        <v>1.040555175649166</v>
       </c>
       <c r="N15">
-        <v>1.079744598610507</v>
+        <v>1.033550254674075</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>1.072826894613195</v>
+        <v>1.008052584915229</v>
       </c>
       <c r="D16">
-        <v>1.07817559704218</v>
+        <v>1.023163027503991</v>
       </c>
       <c r="E16">
-        <v>1.076886618713146</v>
+        <v>1.02260121920086</v>
       </c>
       <c r="F16">
-        <v>1.087150322200194</v>
+        <v>1.03067790589584</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047329750799854</v>
+        <v>1.048241624588447</v>
       </c>
       <c r="J16">
-        <v>1.078900383001748</v>
+        <v>1.035874540255345</v>
       </c>
       <c r="K16">
-        <v>1.081469251836993</v>
+        <v>1.037090804211142</v>
       </c>
       <c r="L16">
-        <v>1.080184486993699</v>
+        <v>1.036538533980817</v>
       </c>
       <c r="M16">
-        <v>1.090414943169234</v>
+        <v>1.044479386909089</v>
       </c>
       <c r="N16">
-        <v>1.080432545297214</v>
+        <v>1.037345600918978</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.073390240479981</v>
+        <v>1.011171118640468</v>
       </c>
       <c r="D17">
-        <v>1.07868331033326</v>
+        <v>1.025863144344801</v>
       </c>
       <c r="E17">
-        <v>1.077384860000526</v>
+        <v>1.025245023029126</v>
       </c>
       <c r="F17">
-        <v>1.087674029592154</v>
+        <v>1.033449454097858</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047449309115726</v>
+        <v>1.049101062566754</v>
       </c>
       <c r="J17">
-        <v>1.079330868124961</v>
+        <v>1.038206674042688</v>
       </c>
       <c r="K17">
-        <v>1.081906849260725</v>
+        <v>1.039432402204156</v>
       </c>
       <c r="L17">
-        <v>1.080612545702827</v>
+        <v>1.038824435266002</v>
       </c>
       <c r="M17">
-        <v>1.090869152377846</v>
+        <v>1.046895355128371</v>
       </c>
       <c r="N17">
-        <v>1.080863641758679</v>
+        <v>1.039681046603798</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.073718728412656</v>
+        <v>1.01296947903391</v>
       </c>
       <c r="D18">
-        <v>1.078979383970627</v>
+        <v>1.027421145889253</v>
       </c>
       <c r="E18">
-        <v>1.077675414374085</v>
+        <v>1.026770628733452</v>
       </c>
       <c r="F18">
-        <v>1.087979441131469</v>
+        <v>1.035048786829527</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047518834055718</v>
+        <v>1.049595329466122</v>
       </c>
       <c r="J18">
-        <v>1.079581807874509</v>
+        <v>1.039551313055078</v>
       </c>
       <c r="K18">
-        <v>1.082161960657705</v>
+        <v>1.040782765798092</v>
       </c>
       <c r="L18">
-        <v>1.080862098306002</v>
+        <v>1.040142729967225</v>
       </c>
       <c r="M18">
-        <v>1.091133962639611</v>
+        <v>1.048288766427441</v>
       </c>
       <c r="N18">
-        <v>1.081114937871455</v>
+        <v>1.041027595157819</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.07383071715497</v>
+        <v>1.013579255304793</v>
       </c>
       <c r="D19">
-        <v>1.079080326212088</v>
+        <v>1.027949576644224</v>
       </c>
       <c r="E19">
-        <v>1.077774475633501</v>
+        <v>1.027288087960035</v>
       </c>
       <c r="F19">
-        <v>1.088083568853476</v>
+        <v>1.03559125521638</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047542504447055</v>
+        <v>1.049762691730848</v>
       </c>
       <c r="J19">
-        <v>1.079667345691012</v>
+        <v>1.040007202605572</v>
       </c>
       <c r="K19">
-        <v>1.082248924825003</v>
+        <v>1.041240641408747</v>
       </c>
       <c r="L19">
-        <v>1.080947167908547</v>
+        <v>1.040589740218063</v>
       </c>
       <c r="M19">
-        <v>1.091224235480886</v>
+        <v>1.04876126530381</v>
       </c>
       <c r="N19">
-        <v>1.081200597161469</v>
+        <v>1.041484132123766</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.073329809413261</v>
+        <v>1.010838682489891</v>
       </c>
       <c r="D20">
-        <v>1.078628844459586</v>
+        <v>1.025575214063179</v>
       </c>
       <c r="E20">
-        <v>1.077331409803222</v>
+        <v>1.024963087558516</v>
       </c>
       <c r="F20">
-        <v>1.087617846791803</v>
+        <v>1.033153894725407</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047436503516697</v>
+        <v>1.049009585364068</v>
       </c>
       <c r="J20">
-        <v>1.079284697203324</v>
+        <v>1.037958091343549</v>
       </c>
       <c r="K20">
-        <v>1.081859912860222</v>
+        <v>1.03918278283079</v>
       </c>
       <c r="L20">
-        <v>1.080566632200358</v>
+        <v>1.038580747994668</v>
       </c>
       <c r="M20">
-        <v>1.090820432708725</v>
+        <v>1.046637791099136</v>
       </c>
       <c r="N20">
-        <v>1.080817405269038</v>
+        <v>1.039432110888714</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.071700095638454</v>
+        <v>1.00168008705499</v>
       </c>
       <c r="D21">
-        <v>1.077160236728475</v>
+        <v>1.017651932855129</v>
       </c>
       <c r="E21">
-        <v>1.075890229178842</v>
+        <v>1.017205724942384</v>
       </c>
       <c r="F21">
-        <v>1.086103045847507</v>
+        <v>1.025021777628311</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047089396483001</v>
+        <v>1.04647682298399</v>
       </c>
       <c r="J21">
-        <v>1.078038839381483</v>
+        <v>1.031107732078712</v>
       </c>
       <c r="K21">
-        <v>1.080593639147114</v>
+        <v>1.032306427185967</v>
       </c>
       <c r="L21">
-        <v>1.07932797440608</v>
+        <v>1.031868300364836</v>
       </c>
       <c r="M21">
-        <v>1.089506184075343</v>
+        <v>1.039544120365998</v>
       </c>
       <c r="N21">
-        <v>1.079569778186187</v>
+        <v>1.032572023327974</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.070674468657311</v>
+        <v>0.9957159870875607</v>
       </c>
       <c r="D22">
-        <v>1.076236230600855</v>
+        <v>1.012501895058178</v>
       </c>
       <c r="E22">
-        <v>1.074983519080122</v>
+        <v>1.012164514479819</v>
       </c>
       <c r="F22">
-        <v>1.085150075068851</v>
+        <v>1.019737104712605</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046869242554941</v>
+        <v>1.044815583046898</v>
       </c>
       <c r="J22">
-        <v>1.077254094104786</v>
+        <v>1.026645368123676</v>
       </c>
       <c r="K22">
-        <v>1.079796266718247</v>
+        <v>1.027829689770394</v>
       </c>
       <c r="L22">
-        <v>1.078548010933804</v>
+        <v>1.027498781288754</v>
       </c>
       <c r="M22">
-        <v>1.088678733011708</v>
+        <v>1.034927450042388</v>
       </c>
       <c r="N22">
-        <v>1.078783918481186</v>
+        <v>1.028103322304281</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.071218266018404</v>
+        <v>0.9988982048599512</v>
       </c>
       <c r="D23">
-        <v>1.076726125355865</v>
+        <v>1.015248807854042</v>
       </c>
       <c r="E23">
-        <v>1.075464239945862</v>
+        <v>1.014853285174641</v>
       </c>
       <c r="F23">
-        <v>1.085655317085282</v>
+        <v>1.022555722851853</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046986132197533</v>
+        <v>1.04570304247818</v>
       </c>
       <c r="J23">
-        <v>1.07767023891634</v>
+        <v>1.029026409191025</v>
       </c>
       <c r="K23">
-        <v>1.080219085576959</v>
+        <v>1.030218156675937</v>
       </c>
       <c r="L23">
-        <v>1.078961596596894</v>
+        <v>1.029829994475303</v>
       </c>
       <c r="M23">
-        <v>1.089117489077032</v>
+        <v>1.037390426921158</v>
       </c>
       <c r="N23">
-        <v>1.079200654266105</v>
+        <v>1.030487744723056</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.073357115926451</v>
+        <v>1.010988959612542</v>
       </c>
       <c r="D24">
-        <v>1.078653455450039</v>
+        <v>1.025705369518641</v>
       </c>
       <c r="E24">
-        <v>1.077355561835967</v>
+        <v>1.02509053282921</v>
       </c>
       <c r="F24">
-        <v>1.087643233560285</v>
+        <v>1.033287498465861</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047442290468827</v>
+        <v>1.049050941637525</v>
       </c>
       <c r="J24">
-        <v>1.079305560333917</v>
+        <v>1.038070463394354</v>
       </c>
       <c r="K24">
-        <v>1.081881121806205</v>
+        <v>1.039295622680211</v>
       </c>
       <c r="L24">
-        <v>1.080587378927382</v>
+        <v>1.038690906094795</v>
       </c>
       <c r="M24">
-        <v>1.090842447407712</v>
+        <v>1.046754221816749</v>
       </c>
       <c r="N24">
-        <v>1.080838298027669</v>
+        <v>1.03954464252072</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.075835144401023</v>
+        <v>1.024217880012599</v>
       </c>
       <c r="D25">
-        <v>1.080887404652336</v>
+        <v>1.037181433175239</v>
       </c>
       <c r="E25">
-        <v>1.07954794446747</v>
+        <v>1.036329604879955</v>
       </c>
       <c r="F25">
-        <v>1.089947835894707</v>
+        <v>1.04506997564018</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047963348547454</v>
+        <v>1.052662335297346</v>
       </c>
       <c r="J25">
-        <v>1.081197196509149</v>
+        <v>1.047956827193277</v>
       </c>
       <c r="K25">
-        <v>1.08380466743426</v>
+        <v>1.049228726894692</v>
       </c>
       <c r="L25">
-        <v>1.082469048710729</v>
+        <v>1.048388962805382</v>
       </c>
       <c r="M25">
-        <v>1.092839383174863</v>
+        <v>1.057006724952653</v>
       </c>
       <c r="N25">
-        <v>1.082732620543244</v>
+        <v>1.04944504609022</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,81 +433,105 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034211454833785</v>
+        <v>0.982535675990537</v>
       </c>
       <c r="D2">
-        <v>1.045874787531951</v>
+        <v>0.9983305163656564</v>
       </c>
       <c r="E2">
-        <v>1.044846068987135</v>
+        <v>0.9912731411989164</v>
       </c>
       <c r="F2">
-        <v>1.053998756405353</v>
+        <v>1.017997023219527</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055346587363236</v>
+        <v>1.046514732435849</v>
       </c>
       <c r="J2">
-        <v>1.055414931193249</v>
+        <v>1.005251591755904</v>
       </c>
       <c r="K2">
-        <v>1.056729973469135</v>
+        <v>1.009813158851706</v>
       </c>
       <c r="L2">
-        <v>1.055714077639089</v>
+        <v>1.002855408967771</v>
       </c>
       <c r="M2">
-        <v>1.064753772529419</v>
+        <v>1.029211197907935</v>
       </c>
       <c r="N2">
-        <v>1.056913741453328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.005446207144224</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.031691039502638</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.018008293072575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>1.041181756165974</v>
+        <v>0.9865668920120744</v>
       </c>
       <c r="D3">
-        <v>1.051950294704299</v>
+        <v>1.001275099881648</v>
       </c>
       <c r="E3">
-        <v>1.050799339872383</v>
+        <v>0.9944549516232767</v>
       </c>
       <c r="F3">
-        <v>1.060240638685768</v>
+        <v>1.020897879805111</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057192214445304</v>
+        <v>1.046699964279845</v>
       </c>
       <c r="J3">
-        <v>1.060609424233587</v>
+        <v>1.007430578468346</v>
       </c>
       <c r="K3">
-        <v>1.061958963566155</v>
+        <v>1.011891691524243</v>
       </c>
       <c r="L3">
-        <v>1.060821013540365</v>
+        <v>1.0051592775199</v>
       </c>
       <c r="M3">
-        <v>1.070156659568062</v>
+        <v>1.031270172525816</v>
       </c>
       <c r="N3">
-        <v>1.0621156112696</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.006220550200742</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.033320598203004</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.019475343456639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04557059671943</v>
+        <v>0.9891307458024881</v>
       </c>
       <c r="D4">
-        <v>1.055780805711119</v>
+        <v>1.003155453814677</v>
       </c>
       <c r="E4">
-        <v>1.054553384696514</v>
+        <v>0.9964849374861617</v>
       </c>
       <c r="F4">
-        <v>1.064176879553396</v>
+        <v>1.022743915332994</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058341645053338</v>
+        <v>1.046799507408066</v>
       </c>
       <c r="J4">
-        <v>1.063876312401021</v>
+        <v>1.008816634915211</v>
       </c>
       <c r="K4">
-        <v>1.065249577525879</v>
+        <v>1.013215943893633</v>
       </c>
       <c r="L4">
-        <v>1.064035134051295</v>
+        <v>1.006625972170059</v>
       </c>
       <c r="M4">
-        <v>1.073557859543387</v>
+        <v>1.03257537720272</v>
       </c>
       <c r="N4">
-        <v>1.06538713879295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.006712346715862</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.034353589859478</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.02041267800883</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04738807961622</v>
+        <v>0.9902032715986273</v>
       </c>
       <c r="D5">
-        <v>1.057368224328375</v>
+        <v>1.003946956524551</v>
       </c>
       <c r="E5">
-        <v>1.056109253671093</v>
+        <v>0.9973361816622622</v>
       </c>
       <c r="F5">
-        <v>1.065808311468605</v>
+        <v>1.023515064957994</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058814548180569</v>
+        <v>1.046836767151642</v>
       </c>
       <c r="J5">
-        <v>1.065228205632428</v>
+        <v>1.009398654668618</v>
       </c>
       <c r="K5">
-        <v>1.06661177273528</v>
+        <v>1.013774566762017</v>
       </c>
       <c r="L5">
-        <v>1.065365736819437</v>
+        <v>1.007241453004894</v>
       </c>
       <c r="M5">
-        <v>1.0749661061734</v>
+        <v>1.033120032568619</v>
       </c>
       <c r="N5">
-        <v>1.066740951867809</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.00691901757472</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.034784651649072</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.020815054422044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047691666351709</v>
+        <v>0.9903888590817812</v>
       </c>
       <c r="D6">
-        <v>1.057633447402314</v>
+        <v>1.004087792232295</v>
       </c>
       <c r="E6">
-        <v>1.056369213513002</v>
+        <v>0.9974842473869718</v>
       </c>
       <c r="F6">
-        <v>1.066080899739685</v>
+        <v>1.023646972865035</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058893357059921</v>
+        <v>1.046843063463429</v>
       </c>
       <c r="J6">
-        <v>1.065453962902881</v>
+        <v>1.009502003879604</v>
       </c>
       <c r="K6">
-        <v>1.066839278737179</v>
+        <v>1.013876261901838</v>
       </c>
       <c r="L6">
-        <v>1.065587970658673</v>
+        <v>1.007349931150751</v>
       </c>
       <c r="M6">
-        <v>1.075201319361393</v>
+        <v>1.033213931115776</v>
       </c>
       <c r="N6">
-        <v>1.06696702973948</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.006956132322513</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.034858966644969</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.020895940643253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045594988531412</v>
+        <v>0.9891616251131018</v>
       </c>
       <c r="D7">
-        <v>1.055802105457074</v>
+        <v>1.003188345879102</v>
       </c>
       <c r="E7">
-        <v>1.054574260571068</v>
+        <v>0.9965112913257755</v>
       </c>
       <c r="F7">
-        <v>1.064198769086034</v>
+        <v>1.022761986708701</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05834800402721</v>
+        <v>1.046800907885887</v>
       </c>
       <c r="J7">
-        <v>1.063894459615538</v>
+        <v>1.008840506741927</v>
       </c>
       <c r="K7">
-        <v>1.065267861119022</v>
+        <v>1.013245453502481</v>
       </c>
       <c r="L7">
-        <v>1.064052993320037</v>
+        <v>1.006648989468902</v>
       </c>
       <c r="M7">
-        <v>1.073576760171048</v>
+        <v>1.032590330359924</v>
       </c>
       <c r="N7">
-        <v>1.065405311778593</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.006721996959306</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.034365424382782</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.020454193255912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036593166831008</v>
+        <v>0.9839285679858453</v>
       </c>
       <c r="D8">
-        <v>1.047949639739565</v>
+        <v>0.9993589949177351</v>
       </c>
       <c r="E8">
-        <v>1.046879046079638</v>
+        <v>0.9923736580094303</v>
       </c>
       <c r="F8">
-        <v>1.056130250582801</v>
+        <v>1.018993904094625</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055979861919286</v>
+        <v>1.046582694535568</v>
       </c>
       <c r="J8">
-        <v>1.057190627771796</v>
+        <v>1.006013466771272</v>
       </c>
       <c r="K8">
-        <v>1.058517032450207</v>
+        <v>1.01054765603085</v>
       </c>
       <c r="L8">
-        <v>1.057459355235687</v>
+        <v>1.003657933624283</v>
       </c>
       <c r="M8">
-        <v>1.066600017297681</v>
+        <v>1.02992259347218</v>
       </c>
       <c r="N8">
-        <v>1.058691959724692</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.005718669610405</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.03225406815994</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.018551222784294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019728074474731</v>
+        <v>0.9743216352188266</v>
       </c>
       <c r="D9">
-        <v>1.033282462024232</v>
+        <v>0.992374719811623</v>
       </c>
       <c r="E9">
-        <v>1.032510711855329</v>
+        <v>0.9848269089534256</v>
       </c>
       <c r="F9">
-        <v>1.041066363863461</v>
+        <v>1.012095896102826</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05144346791702</v>
+        <v>1.046040609346032</v>
       </c>
       <c r="J9">
-        <v>1.044602913943527</v>
+        <v>1.000814927630469</v>
       </c>
       <c r="K9">
-        <v>1.045857685185781</v>
+        <v>1.005592735350848</v>
       </c>
       <c r="L9">
-        <v>1.045097461861145</v>
+        <v>0.9981710513241813</v>
       </c>
       <c r="M9">
-        <v>1.053526539558773</v>
+        <v>1.024995727498839</v>
       </c>
       <c r="N9">
-        <v>1.046086369898956</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.00386591275589</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.028354727868508</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.015044287174702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.007697306426858</v>
+        <v>0.9677093154060691</v>
       </c>
       <c r="D10">
-        <v>1.022855547171128</v>
+        <v>0.9876220406418451</v>
       </c>
       <c r="E10">
-        <v>1.022300165166986</v>
+        <v>0.9796784397551159</v>
       </c>
       <c r="F10">
-        <v>1.030362306961474</v>
+        <v>1.007539879398309</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048143531410128</v>
+        <v>1.04560081736575</v>
       </c>
       <c r="J10">
-        <v>1.035608823236327</v>
+        <v>0.9972653616107805</v>
       </c>
       <c r="K10">
-        <v>1.036824045695691</v>
+        <v>1.002218438172709</v>
       </c>
       <c r="L10">
-        <v>1.036278127551995</v>
+        <v>0.9944245627002137</v>
       </c>
       <c r="M10">
-        <v>1.044204178025845</v>
+        <v>1.021774320494422</v>
       </c>
       <c r="N10">
-        <v>1.037079506551315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.002602524197859</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.025857389945841</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.012675626501562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002271962818426</v>
+        <v>0.9652077111010553</v>
       </c>
       <c r="D11">
-        <v>1.018163437690462</v>
+        <v>0.9858994478067346</v>
       </c>
       <c r="E11">
-        <v>1.01770646315253</v>
+        <v>0.9777989634330763</v>
       </c>
       <c r="F11">
-        <v>1.025546701277535</v>
+        <v>1.007225053781799</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046641198549495</v>
+        <v>1.04559765445332</v>
       </c>
       <c r="J11">
-        <v>1.031550529972247</v>
+        <v>0.996103103657762</v>
       </c>
       <c r="K11">
-        <v>1.03275075903734</v>
+        <v>1.001092270701963</v>
       </c>
       <c r="L11">
-        <v>1.032302012226755</v>
+        <v>0.9931520654178377</v>
       </c>
       <c r="M11">
-        <v>1.040002406444324</v>
+        <v>1.022011990411234</v>
       </c>
       <c r="N11">
-        <v>1.033015450045307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.002230686308734</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.026487812201699</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.01191321430555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000221476794993</v>
+        <v>0.9643889384610771</v>
       </c>
       <c r="D12">
-        <v>1.016391707495432</v>
+        <v>0.9853521909132992</v>
       </c>
       <c r="E12">
-        <v>1.015972058503854</v>
+        <v>0.9772083443004899</v>
       </c>
       <c r="F12">
-        <v>1.023728527888484</v>
+        <v>1.007670497680405</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046071353652227</v>
+        <v>1.045662105389028</v>
       </c>
       <c r="J12">
-        <v>1.030016466282172</v>
+        <v>0.9957808120618735</v>
       </c>
       <c r="K12">
-        <v>1.031211464941775</v>
+        <v>1.000765505199079</v>
       </c>
       <c r="L12">
-        <v>1.030799525683318</v>
+        <v>0.9927856223162324</v>
       </c>
       <c r="M12">
-        <v>1.038414821712057</v>
+        <v>1.022652203879243</v>
       </c>
       <c r="N12">
-        <v>1.031479207808833</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.002151445517994</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.027324528921231</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.011682166425665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000662958214591</v>
+        <v>0.9648335710234085</v>
       </c>
       <c r="D13">
-        <v>1.016773095146843</v>
+        <v>0.9856991757298323</v>
       </c>
       <c r="E13">
-        <v>1.016345403627011</v>
+        <v>0.9775878567578572</v>
       </c>
       <c r="F13">
-        <v>1.024119904414054</v>
+        <v>1.00876296174676</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04619413529272</v>
+        <v>1.045791590329589</v>
       </c>
       <c r="J13">
-        <v>1.03034676842944</v>
+        <v>0.9961062020376084</v>
       </c>
       <c r="K13">
-        <v>1.031542873369382</v>
+        <v>1.001060608700928</v>
       </c>
       <c r="L13">
-        <v>1.031123005486031</v>
+        <v>0.9931118880494932</v>
       </c>
       <c r="M13">
-        <v>1.038756615012394</v>
+        <v>1.023680704372161</v>
       </c>
       <c r="N13">
-        <v>1.031809979023036</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.002301695853874</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.028417210509971</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.011888254330718</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.002103206085213</v>
+        <v>0.9657166716549064</v>
       </c>
       <c r="D14">
-        <v>1.018017588839839</v>
+        <v>0.986348735600262</v>
       </c>
       <c r="E14">
-        <v>1.017563683485519</v>
+        <v>0.978292701705639</v>
       </c>
       <c r="F14">
-        <v>1.025397025357678</v>
+        <v>1.009808579421025</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046594340763632</v>
+        <v>1.045908828216835</v>
       </c>
       <c r="J14">
-        <v>1.031424279635214</v>
+        <v>0.9966264601701158</v>
       </c>
       <c r="K14">
-        <v>1.032624069324799</v>
+        <v>1.001550083500968</v>
       </c>
       <c r="L14">
-        <v>1.032178350126712</v>
+        <v>0.9936534583013662</v>
       </c>
       <c r="M14">
-        <v>1.039871736827191</v>
+        <v>1.024564590380664</v>
       </c>
       <c r="N14">
-        <v>1.032889020418314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.002510813676612</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.029290670126711</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.01223582043875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,81 +1122,105 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.002985826195781</v>
+        <v>0.9662165736039683</v>
       </c>
       <c r="D15">
-        <v>1.01878046493286</v>
+        <v>0.986713075013492</v>
       </c>
       <c r="E15">
-        <v>1.018310512789352</v>
+        <v>0.9786848015821354</v>
       </c>
       <c r="F15">
-        <v>1.026179927007753</v>
+        <v>1.010238311010492</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046839330619098</v>
+        <v>1.045955290548182</v>
       </c>
       <c r="J15">
-        <v>1.032084576194124</v>
+        <v>0.9969055284463214</v>
       </c>
       <c r="K15">
-        <v>1.03328668167608</v>
+        <v>1.001816641370161</v>
       </c>
       <c r="L15">
-        <v>1.032825131015267</v>
+        <v>0.9939459715053165</v>
       </c>
       <c r="M15">
-        <v>1.040555175649166</v>
+        <v>1.024898827003464</v>
       </c>
       <c r="N15">
-        <v>1.033550254674075</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.002615855858308</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.02959266172644</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.012430354458213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.008052584915229</v>
+        <v>0.9689294610326228</v>
       </c>
       <c r="D16">
-        <v>1.023163027503991</v>
+        <v>0.9886547216792424</v>
       </c>
       <c r="E16">
-        <v>1.02260121920086</v>
+        <v>0.980783135272511</v>
       </c>
       <c r="F16">
-        <v>1.03067790589584</v>
+        <v>1.012010818666743</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048241624588447</v>
+        <v>1.046137932282642</v>
       </c>
       <c r="J16">
-        <v>1.035874540255345</v>
+        <v>0.9983515232665847</v>
       </c>
       <c r="K16">
-        <v>1.037090804211142</v>
+        <v>1.003194595058142</v>
       </c>
       <c r="L16">
-        <v>1.036538533980817</v>
+        <v>0.9954705192669882</v>
       </c>
       <c r="M16">
-        <v>1.044479386909089</v>
+        <v>1.026130497277286</v>
       </c>
       <c r="N16">
-        <v>1.037345600918978</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.003123963988237</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.03052715877278</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.013407937377767</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011171118640468</v>
+        <v>0.9705535494019273</v>
       </c>
       <c r="D17">
-        <v>1.025863144344801</v>
+        <v>0.9898105404778946</v>
       </c>
       <c r="E17">
-        <v>1.025245023029126</v>
+        <v>0.9820301149160471</v>
       </c>
       <c r="F17">
-        <v>1.033449454097858</v>
+        <v>1.012820748218124</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049101062566754</v>
+        <v>1.046213467823262</v>
       </c>
       <c r="J17">
-        <v>1.038206674042688</v>
+        <v>0.9991923113349787</v>
       </c>
       <c r="K17">
-        <v>1.039432402204156</v>
+        <v>1.003999618140335</v>
       </c>
       <c r="L17">
-        <v>1.038824435266002</v>
+        <v>0.9963607323826681</v>
       </c>
       <c r="M17">
-        <v>1.046895355128371</v>
+        <v>1.026607656489022</v>
       </c>
       <c r="N17">
-        <v>1.039681046603798</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.003405405633419</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.030774257967247</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.013979816227143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01296947903391</v>
+        <v>0.9713701974091499</v>
       </c>
       <c r="D18">
-        <v>1.027421145889253</v>
+        <v>0.9903686330902935</v>
       </c>
       <c r="E18">
-        <v>1.026770628733452</v>
+        <v>0.9826366235568814</v>
       </c>
       <c r="F18">
-        <v>1.035048786829527</v>
+        <v>1.012766743760732</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049595329466122</v>
+        <v>1.046194633713087</v>
       </c>
       <c r="J18">
-        <v>1.039551313055078</v>
+        <v>0.9995602096793218</v>
       </c>
       <c r="K18">
-        <v>1.040782765798092</v>
+        <v>1.004355713596718</v>
       </c>
       <c r="L18">
-        <v>1.040142729967225</v>
+        <v>0.9967619570506366</v>
       </c>
       <c r="M18">
-        <v>1.048288766427441</v>
+        <v>1.02636868622293</v>
       </c>
       <c r="N18">
-        <v>1.041027595157819</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.00350674273434</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.030345472591152</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.014219607911831</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013579255304793</v>
+        <v>0.9714600581308035</v>
       </c>
       <c r="D19">
-        <v>1.027949576644224</v>
+        <v>0.9904027398028321</v>
       </c>
       <c r="E19">
-        <v>1.027288087960035</v>
+        <v>0.9826686549675152</v>
       </c>
       <c r="F19">
-        <v>1.03559125521638</v>
+        <v>1.011880914786654</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049762691730848</v>
+        <v>1.046083666678024</v>
       </c>
       <c r="J19">
-        <v>1.040007202605572</v>
+        <v>0.9995051618124826</v>
       </c>
       <c r="K19">
-        <v>1.041240641408747</v>
+        <v>1.004323771261182</v>
       </c>
       <c r="L19">
-        <v>1.040589740218063</v>
+        <v>0.9967272190177935</v>
       </c>
       <c r="M19">
-        <v>1.04876126530381</v>
+        <v>1.025434210970776</v>
       </c>
       <c r="N19">
-        <v>1.041484132123766</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.003453169443127</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.029277498414009</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.01420361209541</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010838682489891</v>
+        <v>0.9694693939068292</v>
       </c>
       <c r="D20">
-        <v>1.025575214063179</v>
+        <v>0.9889100901668019</v>
       </c>
       <c r="E20">
-        <v>1.024963087558516</v>
+        <v>0.9810521136714115</v>
       </c>
       <c r="F20">
-        <v>1.033153894725407</v>
+        <v>1.008750319857187</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049009585364068</v>
+        <v>1.045724798283734</v>
       </c>
       <c r="J20">
-        <v>1.037958091343549</v>
+        <v>0.998230156153905</v>
       </c>
       <c r="K20">
-        <v>1.03918278283079</v>
+        <v>1.003150786122043</v>
       </c>
       <c r="L20">
-        <v>1.038580747994668</v>
+        <v>0.9954365272843646</v>
       </c>
       <c r="M20">
-        <v>1.046637791099136</v>
+        <v>1.022641030920387</v>
       </c>
       <c r="N20">
-        <v>1.039432110888714</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.002950024227636</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.02653259873695</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.013378261485203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.00168008705499</v>
+        <v>0.9644174013403928</v>
       </c>
       <c r="D21">
-        <v>1.017651932855129</v>
+        <v>0.9852783757745787</v>
       </c>
       <c r="E21">
-        <v>1.017205724942384</v>
+        <v>0.9771209603916023</v>
       </c>
       <c r="F21">
-        <v>1.025021777628311</v>
+        <v>1.005001960039007</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04647682298399</v>
+        <v>1.045323057528159</v>
       </c>
       <c r="J21">
-        <v>1.031107732078712</v>
+        <v>0.9954820085732067</v>
       </c>
       <c r="K21">
-        <v>1.032306427185967</v>
+        <v>1.00054412643884</v>
       </c>
       <c r="L21">
-        <v>1.031868300364836</v>
+        <v>0.9925491458009452</v>
       </c>
       <c r="M21">
-        <v>1.039544120365998</v>
+        <v>1.019889184384745</v>
       </c>
       <c r="N21">
-        <v>1.032572023327974</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.001963169229136</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.024313159834747</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.011538485349412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9957159870875607</v>
+        <v>0.9611842903752061</v>
       </c>
       <c r="D22">
-        <v>1.012501895058178</v>
+        <v>0.9829576135946759</v>
       </c>
       <c r="E22">
-        <v>1.012164514479819</v>
+        <v>0.9746152406422015</v>
       </c>
       <c r="F22">
-        <v>1.019737104712605</v>
+        <v>1.002702446991986</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044815583046898</v>
+        <v>1.045060526906658</v>
       </c>
       <c r="J22">
-        <v>1.026645368123676</v>
+        <v>0.9937280052026563</v>
       </c>
       <c r="K22">
-        <v>1.027829689770394</v>
+        <v>0.9988744160124943</v>
       </c>
       <c r="L22">
-        <v>1.027498781288754</v>
+        <v>0.9907069237885365</v>
       </c>
       <c r="M22">
-        <v>1.034927450042388</v>
+        <v>1.018220557308777</v>
       </c>
       <c r="N22">
-        <v>1.028103322304281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.001333426553357</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.022992521540808</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.010343915966837</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9988982048599512</v>
+        <v>0.9628874408415214</v>
       </c>
       <c r="D23">
-        <v>1.015248807854042</v>
+        <v>0.9841698150834414</v>
       </c>
       <c r="E23">
-        <v>1.014853285174641</v>
+        <v>0.9759320855066601</v>
       </c>
       <c r="F23">
-        <v>1.022555722851853</v>
+        <v>1.00391699560405</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04570304247818</v>
+        <v>1.045200823474611</v>
       </c>
       <c r="J23">
-        <v>1.029026409191025</v>
+        <v>0.9946448328364677</v>
       </c>
       <c r="K23">
-        <v>1.030218156675937</v>
+        <v>0.9997412770974449</v>
       </c>
       <c r="L23">
-        <v>1.029829994475303</v>
+        <v>0.9916716316681308</v>
       </c>
       <c r="M23">
-        <v>1.037390426921158</v>
+        <v>1.019100230802291</v>
       </c>
       <c r="N23">
-        <v>1.030487744723056</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.001661283760902</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.023688741237714</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.010946910529973</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.010988959612542</v>
+        <v>0.9694850071913877</v>
       </c>
       <c r="D24">
-        <v>1.025705369518641</v>
+        <v>0.9889011989552796</v>
       </c>
       <c r="E24">
-        <v>1.02509053282921</v>
+        <v>0.981055498367955</v>
       </c>
       <c r="F24">
-        <v>1.033287498465861</v>
+        <v>1.008626791051091</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049050941637525</v>
+        <v>1.045708132511187</v>
       </c>
       <c r="J24">
-        <v>1.038070463394354</v>
+        <v>0.9982105066215804</v>
       </c>
       <c r="K24">
-        <v>1.039295622680211</v>
+        <v>1.003126066327057</v>
       </c>
       <c r="L24">
-        <v>1.038690906094795</v>
+        <v>0.9954236740426006</v>
       </c>
       <c r="M24">
-        <v>1.046754221816749</v>
+        <v>1.022504085534973</v>
       </c>
       <c r="N24">
-        <v>1.03954464252072</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.002937423897039</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.026382723508815</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.013332524430401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024217880012599</v>
+        <v>0.9768779586910001</v>
       </c>
       <c r="D25">
-        <v>1.037181433175239</v>
+        <v>0.9942416584950954</v>
       </c>
       <c r="E25">
-        <v>1.036329604879955</v>
+        <v>0.9868319715428527</v>
       </c>
       <c r="F25">
-        <v>1.04506997564018</v>
+        <v>1.013922773146683</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052662335297346</v>
+        <v>1.046200878411748</v>
       </c>
       <c r="J25">
-        <v>1.047956827193277</v>
+        <v>1.002209338931302</v>
       </c>
       <c r="K25">
-        <v>1.049228726894692</v>
+        <v>1.006930027884918</v>
       </c>
       <c r="L25">
-        <v>1.048388962805382</v>
+        <v>0.9996382025759037</v>
       </c>
       <c r="M25">
-        <v>1.057006724952653</v>
+        <v>1.026308733352474</v>
       </c>
       <c r="N25">
-        <v>1.04944504609022</v>
+        <v>1.004365636735199</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.029393901089887</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.016019326829064</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,105 +439,123 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.982535675990537</v>
+        <v>0.9848332314179963</v>
       </c>
       <c r="D2">
-        <v>0.9983305163656564</v>
+        <v>1.001138703138354</v>
       </c>
       <c r="E2">
-        <v>0.9912731411989164</v>
+        <v>0.9932818682639772</v>
       </c>
       <c r="F2">
-        <v>1.017997023219527</v>
+        <v>1.018900202561257</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046514732435849</v>
+        <v>1.046592874954989</v>
       </c>
       <c r="J2">
-        <v>1.005251591755904</v>
+        <v>1.007477238531278</v>
       </c>
       <c r="K2">
-        <v>1.009813158851706</v>
+        <v>1.012582196780923</v>
       </c>
       <c r="L2">
-        <v>1.002855408967771</v>
+        <v>1.004835597647845</v>
       </c>
       <c r="M2">
-        <v>1.029211197907935</v>
+        <v>1.030102360419656</v>
       </c>
       <c r="N2">
-        <v>1.005446207144224</v>
+        <v>1.009040654251449</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.031691039502638</v>
+        <v>1.032396343283782</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.018008293072575</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.019975362814863</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.015355647546341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9865668920120744</v>
+        <v>0.9886117676477819</v>
       </c>
       <c r="D3">
-        <v>1.001275099881648</v>
+        <v>1.003754202204208</v>
       </c>
       <c r="E3">
-        <v>0.9944549516232767</v>
+        <v>0.996243375217436</v>
       </c>
       <c r="F3">
-        <v>1.020897879805111</v>
+        <v>1.02169715222619</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046699964279845</v>
+        <v>1.046768552485985</v>
       </c>
       <c r="J3">
-        <v>1.007430578468346</v>
+        <v>1.009417776386204</v>
       </c>
       <c r="K3">
-        <v>1.011891691524243</v>
+        <v>1.014339271625738</v>
       </c>
       <c r="L3">
-        <v>1.0051592775199</v>
+        <v>1.006924549499204</v>
       </c>
       <c r="M3">
-        <v>1.031270172525816</v>
+        <v>1.032059741333042</v>
       </c>
       <c r="N3">
-        <v>1.006220550200742</v>
+        <v>1.00958715054969</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.033320598203004</v>
+        <v>1.033945495003533</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.019475343456639</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.02121481497853</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.015748689562055</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9891307458024881</v>
+        <v>0.9910171337851321</v>
       </c>
       <c r="D4">
-        <v>1.003155453814677</v>
+        <v>1.005426382495593</v>
       </c>
       <c r="E4">
-        <v>0.9964849374861617</v>
+        <v>0.9981349687086569</v>
       </c>
       <c r="F4">
-        <v>1.022743915332994</v>
+        <v>1.023478328346122</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046799507408066</v>
+        <v>1.046862166565785</v>
       </c>
       <c r="J4">
-        <v>1.008816634915211</v>
+        <v>1.01065344724856</v>
       </c>
       <c r="K4">
-        <v>1.013215943893633</v>
+        <v>1.015459754087449</v>
       </c>
       <c r="L4">
-        <v>1.006625972170059</v>
+        <v>1.008255955255658</v>
       </c>
       <c r="M4">
-        <v>1.03257537720272</v>
+        <v>1.033301413840108</v>
       </c>
       <c r="N4">
-        <v>1.006712346715862</v>
+        <v>1.009934704799098</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.034353589859478</v>
+        <v>1.034928203899813</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.02041267800883</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.022008131855202</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.015996823764419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9902032715986273</v>
+        <v>0.9920236576765538</v>
       </c>
       <c r="D5">
-        <v>1.003946956524551</v>
+        <v>1.006130875015051</v>
       </c>
       <c r="E5">
-        <v>0.9973361816622622</v>
+        <v>0.9989285229958025</v>
       </c>
       <c r="F5">
-        <v>1.023515064957994</v>
+        <v>1.02422254782767</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046836767151642</v>
+        <v>1.046896971340187</v>
       </c>
       <c r="J5">
-        <v>1.009398654668618</v>
+        <v>1.011172641957971</v>
       </c>
       <c r="K5">
-        <v>1.013774566762017</v>
+        <v>1.015933106523115</v>
       </c>
       <c r="L5">
-        <v>1.007241453004894</v>
+        <v>1.008814971693656</v>
       </c>
       <c r="M5">
-        <v>1.033120032568619</v>
+        <v>1.033819661841559</v>
       </c>
       <c r="N5">
-        <v>1.00691901757472</v>
+        <v>1.010080895583716</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.034784651649072</v>
+        <v>1.035338365529432</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.020815054422044</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.022350912603154</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.01610169898945</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9903888590817812</v>
+        <v>0.9921975966901733</v>
       </c>
       <c r="D6">
-        <v>1.004087792232295</v>
+        <v>1.006256445599735</v>
       </c>
       <c r="E6">
-        <v>0.9974842473869718</v>
+        <v>0.9990663890190686</v>
       </c>
       <c r="F6">
-        <v>1.023646972865035</v>
+        <v>1.024349708877087</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046843063463429</v>
+        <v>1.046902833241273</v>
       </c>
       <c r="J6">
-        <v>1.009502003879604</v>
+        <v>1.011264879122126</v>
       </c>
       <c r="K6">
-        <v>1.013876261901838</v>
+        <v>1.016019830678538</v>
       </c>
       <c r="L6">
-        <v>1.007349931150751</v>
+        <v>1.008913458003565</v>
       </c>
       <c r="M6">
-        <v>1.033213931115776</v>
+        <v>1.033908902063268</v>
       </c>
       <c r="N6">
-        <v>1.006956132322513</v>
+        <v>1.010107185895546</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.034858966644969</v>
+        <v>1.035408993688568</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.020895940643253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.022422072682349</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.01612167711191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9891616251131018</v>
+        <v>0.9910537367952368</v>
       </c>
       <c r="D7">
-        <v>1.003188345879102</v>
+        <v>1.00546284875229</v>
       </c>
       <c r="E7">
-        <v>0.9965112913257755</v>
+        <v>0.9981665773435884</v>
       </c>
       <c r="F7">
-        <v>1.022761986708701</v>
+        <v>1.023499371715407</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046800907885887</v>
+        <v>1.046863939414853</v>
       </c>
       <c r="J7">
-        <v>1.008840506741927</v>
+        <v>1.010682915208482</v>
       </c>
       <c r="K7">
-        <v>1.013245453502481</v>
+        <v>1.015492806652166</v>
       </c>
       <c r="L7">
-        <v>1.006648989468902</v>
+        <v>1.008284171721255</v>
       </c>
       <c r="M7">
-        <v>1.032590330359924</v>
+        <v>1.033319308299647</v>
       </c>
       <c r="N7">
-        <v>1.006721996959306</v>
+        <v>1.009970031489496</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.034365424382782</v>
+        <v>1.034942366275205</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.020454193255912</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.022054131644947</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.016007040917421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9839285679858453</v>
+        <v>0.9861630890391636</v>
       </c>
       <c r="D8">
-        <v>0.9993589949177351</v>
+        <v>1.002073093861377</v>
       </c>
       <c r="E8">
-        <v>0.9923736580094303</v>
+        <v>0.9943284502621889</v>
       </c>
       <c r="F8">
-        <v>1.018993904094625</v>
+        <v>1.019873277093571</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046582694535568</v>
+        <v>1.046658987638823</v>
       </c>
       <c r="J8">
-        <v>1.006013466771272</v>
+        <v>1.008180428910423</v>
       </c>
       <c r="K8">
-        <v>1.01054765603085</v>
+        <v>1.013225056810877</v>
       </c>
       <c r="L8">
-        <v>1.003657933624283</v>
+        <v>1.005585798345972</v>
       </c>
       <c r="M8">
-        <v>1.02992259347218</v>
+        <v>1.030790616334487</v>
       </c>
       <c r="N8">
-        <v>1.005718669610405</v>
+        <v>1.009319511553816</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.03225406815994</v>
+        <v>1.032941057697874</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.018551222784294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.020455729229865</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.015505010366878</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9743216352188266</v>
+        <v>0.9771769828523563</v>
       </c>
       <c r="D9">
-        <v>0.992374719811623</v>
+        <v>0.9958841109936891</v>
       </c>
       <c r="E9">
-        <v>0.9848269089534256</v>
+        <v>0.9873216937663775</v>
       </c>
       <c r="F9">
-        <v>1.012095896102826</v>
+        <v>1.013233083602028</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046040609346032</v>
+        <v>1.046140923541501</v>
       </c>
       <c r="J9">
-        <v>1.000814927630469</v>
+        <v>1.003562247262728</v>
       </c>
       <c r="K9">
-        <v>1.005592735350848</v>
+        <v>1.009044320468755</v>
       </c>
       <c r="L9">
-        <v>0.9981710513241813</v>
+        <v>1.000623872288249</v>
       </c>
       <c r="M9">
-        <v>1.024995727498839</v>
+        <v>1.026115050678979</v>
       </c>
       <c r="N9">
-        <v>1.00386591275589</v>
+        <v>1.008025454275772</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.028354727868508</v>
+        <v>1.029240611812337</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.015044287174702</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.017495987095056</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.014553891346276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9677093154060691</v>
+        <v>0.9710413378518733</v>
       </c>
       <c r="D10">
-        <v>0.9876220406418451</v>
+        <v>0.9917138309017771</v>
       </c>
       <c r="E10">
-        <v>0.9796784397551159</v>
+        <v>0.9825873291973145</v>
       </c>
       <c r="F10">
-        <v>1.007539879398309</v>
+        <v>1.008879780564831</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04560081736575</v>
+        <v>1.045720181494732</v>
       </c>
       <c r="J10">
-        <v>0.9972653616107805</v>
+        <v>1.00045295706508</v>
       </c>
       <c r="K10">
-        <v>1.002218438172709</v>
+        <v>1.006234323918072</v>
       </c>
       <c r="L10">
-        <v>0.9944245627002137</v>
+        <v>0.9972782566119496</v>
       </c>
       <c r="M10">
-        <v>1.021774320494422</v>
+        <v>1.023090537592815</v>
       </c>
       <c r="N10">
-        <v>1.002602524197859</v>
+        <v>1.007268343796377</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.025857389945841</v>
+        <v>1.026899041586111</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.012675626501562</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.01552802635514</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.013910123183128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9652077111010553</v>
+        <v>0.9687610183282247</v>
       </c>
       <c r="D11">
-        <v>0.9858994478067346</v>
+        <v>0.9902397039209625</v>
       </c>
       <c r="E11">
-        <v>0.9777989634330763</v>
+        <v>0.9808995968097183</v>
       </c>
       <c r="F11">
-        <v>1.007225053781799</v>
+        <v>1.008658984131788</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04559765445332</v>
+        <v>1.045720763136827</v>
       </c>
       <c r="J11">
-        <v>0.996103103657762</v>
+        <v>0.9994937029672191</v>
       </c>
       <c r="K11">
-        <v>1.001092270701963</v>
+        <v>1.005348062678815</v>
       </c>
       <c r="L11">
-        <v>0.9931520654178377</v>
+        <v>0.9961909375955008</v>
       </c>
       <c r="M11">
-        <v>1.022011990411234</v>
+        <v>1.023419431528003</v>
       </c>
       <c r="N11">
-        <v>1.002230686308734</v>
+        <v>1.007260041539286</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.026487812201699</v>
+        <v>1.027601082233672</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.01191321430555</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.01493841439346</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.013745224792945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9643889384610771</v>
+        <v>0.9680133731977048</v>
       </c>
       <c r="D12">
-        <v>0.9853521909132992</v>
+        <v>0.9897716002596856</v>
       </c>
       <c r="E12">
-        <v>0.9772083443004899</v>
+        <v>0.9803692669825034</v>
       </c>
       <c r="F12">
-        <v>1.007670497680405</v>
+        <v>1.009132346305341</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045662105389028</v>
+        <v>1.045782776626077</v>
       </c>
       <c r="J12">
-        <v>0.9957808120618735</v>
+        <v>0.9992359868313012</v>
       </c>
       <c r="K12">
-        <v>1.000765505199079</v>
+        <v>1.005097419337519</v>
       </c>
       <c r="L12">
-        <v>0.9927856223162324</v>
+        <v>0.995882478798864</v>
       </c>
       <c r="M12">
-        <v>1.022652203879243</v>
+        <v>1.024086651749828</v>
       </c>
       <c r="N12">
-        <v>1.002151445517994</v>
+        <v>1.007315678730806</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.027324528921231</v>
+        <v>1.028458767930766</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.011682166425665</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.014761196030136</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.013714478674505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9648335710234085</v>
+        <v>0.9684024592714697</v>
       </c>
       <c r="D13">
-        <v>0.9856991757298323</v>
+        <v>0.9900592330105539</v>
       </c>
       <c r="E13">
-        <v>0.9775878567578572</v>
+        <v>0.9806976643038842</v>
       </c>
       <c r="F13">
-        <v>1.00876296174676</v>
+        <v>1.010195184140219</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045791590329589</v>
+        <v>1.045904670995176</v>
       </c>
       <c r="J13">
-        <v>0.9961062020376084</v>
+        <v>0.9995092454349986</v>
       </c>
       <c r="K13">
-        <v>1.001060608700928</v>
+        <v>1.005334709631274</v>
       </c>
       <c r="L13">
-        <v>0.9931118880494932</v>
+        <v>0.9961589384236497</v>
       </c>
       <c r="M13">
-        <v>1.023680704372161</v>
+        <v>1.025086245812558</v>
       </c>
       <c r="N13">
-        <v>1.002301695853874</v>
+        <v>1.007393311041316</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.028417210509971</v>
+        <v>1.029528308435065</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.011888254330718</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.014926162847677</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.013790809905999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9657166716549064</v>
+        <v>0.9691897937407588</v>
       </c>
       <c r="D14">
-        <v>0.986348735600262</v>
+        <v>0.9906049983646392</v>
       </c>
       <c r="E14">
-        <v>0.978292701705639</v>
+        <v>0.9813168151010555</v>
       </c>
       <c r="F14">
-        <v>1.009808579421025</v>
+        <v>1.011194552548321</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045908828216835</v>
+        <v>1.046014677484613</v>
       </c>
       <c r="J14">
-        <v>0.9966264601701158</v>
+        <v>0.9999405382295244</v>
       </c>
       <c r="K14">
-        <v>1.001550083500968</v>
+        <v>1.005723497188883</v>
       </c>
       <c r="L14">
-        <v>0.9936534583013662</v>
+        <v>0.9966173288365808</v>
       </c>
       <c r="M14">
-        <v>1.024564590380664</v>
+        <v>1.025925095571122</v>
       </c>
       <c r="N14">
-        <v>1.002510813676612</v>
+        <v>1.007458812853778</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.029290670126711</v>
+        <v>1.030366019379917</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.01223582043875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.015202662960075</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.013893554061902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9662165736039683</v>
+        <v>0.969638801502677</v>
       </c>
       <c r="D15">
-        <v>0.986713075013492</v>
+        <v>0.9909134301989733</v>
       </c>
       <c r="E15">
-        <v>0.9786848015821354</v>
+        <v>0.9816638940885913</v>
       </c>
       <c r="F15">
-        <v>1.010238311010492</v>
+        <v>1.011600724612511</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045955290548182</v>
+        <v>1.046058444775033</v>
       </c>
       <c r="J15">
-        <v>0.9969055284463214</v>
+        <v>1.000172442867598</v>
       </c>
       <c r="K15">
-        <v>1.001816641370161</v>
+        <v>1.005935871360837</v>
       </c>
       <c r="L15">
-        <v>0.9939459715053165</v>
+        <v>0.9968661862907882</v>
       </c>
       <c r="M15">
-        <v>1.024898827003464</v>
+        <v>1.026236403674569</v>
       </c>
       <c r="N15">
-        <v>1.002615855858308</v>
+        <v>1.007485633804043</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.02959266172644</v>
+        <v>1.030649860136654</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.012430354458213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.015359440753211</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.013945468919285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9689294610326228</v>
+        <v>0.9721016294233585</v>
       </c>
       <c r="D16">
-        <v>0.9886547216792424</v>
+        <v>0.9925729517437426</v>
       </c>
       <c r="E16">
-        <v>0.980783135272511</v>
+        <v>0.9835436578906288</v>
       </c>
       <c r="F16">
-        <v>1.012010818666743</v>
+        <v>1.013262568118457</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046137932282642</v>
+        <v>1.046232453122656</v>
       </c>
       <c r="J16">
-        <v>0.9983515232665847</v>
+        <v>1.001387096810494</v>
       </c>
       <c r="K16">
-        <v>1.003194595058142</v>
+        <v>1.007040534923654</v>
       </c>
       <c r="L16">
-        <v>0.9954705192669882</v>
+        <v>0.9981789596012034</v>
       </c>
       <c r="M16">
-        <v>1.026130497277286</v>
+        <v>1.027360434772302</v>
       </c>
       <c r="N16">
-        <v>1.003123963988237</v>
+        <v>1.007613107774381</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.03052715877278</v>
+        <v>1.031499309100246</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.013407937377767</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.016144068709399</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.014192656328965</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9705535494019273</v>
+        <v>0.973593910101651</v>
       </c>
       <c r="D17">
-        <v>0.9898105404778946</v>
+        <v>0.9935742392118333</v>
       </c>
       <c r="E17">
-        <v>0.9820301149160471</v>
+        <v>0.984676643513214</v>
       </c>
       <c r="F17">
-        <v>1.012820748218124</v>
+        <v>1.014017085327282</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046213467823262</v>
+        <v>1.046305240030182</v>
       </c>
       <c r="J17">
-        <v>0.9991923113349787</v>
+        <v>1.00210606988201</v>
       </c>
       <c r="K17">
-        <v>1.003999618140335</v>
+        <v>1.007695881222679</v>
       </c>
       <c r="L17">
-        <v>0.9963607323826681</v>
+        <v>0.9989587891617392</v>
       </c>
       <c r="M17">
-        <v>1.026607656489022</v>
+        <v>1.02778372828096</v>
       </c>
       <c r="N17">
-        <v>1.003405405633419</v>
+        <v>1.007707648820849</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.030774257967247</v>
+        <v>1.03170392626135</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.013979816227143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.016610350818563</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.014331424149216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9713701974091499</v>
+        <v>0.974357406875626</v>
       </c>
       <c r="D18">
-        <v>0.9903686330902935</v>
+        <v>0.9940659651176303</v>
       </c>
       <c r="E18">
-        <v>0.9826366235568814</v>
+        <v>0.9852386635132386</v>
       </c>
       <c r="F18">
-        <v>1.012766743760732</v>
+        <v>1.013943704726542</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046194633713087</v>
+        <v>1.046287929600448</v>
       </c>
       <c r="J18">
-        <v>0.9995602096793218</v>
+        <v>1.002425431583608</v>
       </c>
       <c r="K18">
-        <v>1.004355713596718</v>
+        <v>1.007987919958814</v>
       </c>
       <c r="L18">
-        <v>0.9967619570506366</v>
+        <v>0.9993171562496977</v>
       </c>
       <c r="M18">
-        <v>1.02636868622293</v>
+        <v>1.027526015350145</v>
       </c>
       <c r="N18">
-        <v>1.00350674273434</v>
+        <v>1.007735277420251</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.030345472591152</v>
+        <v>1.031260518839396</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.014219607911831</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.016803729732241</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.014378224607807</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9714600581308035</v>
+        <v>0.9744555608375411</v>
       </c>
       <c r="D19">
-        <v>0.9904027398028321</v>
+        <v>0.9941060390181601</v>
       </c>
       <c r="E19">
-        <v>0.9826686549675152</v>
+        <v>0.9852801138855823</v>
       </c>
       <c r="F19">
-        <v>1.011880914786654</v>
+        <v>1.013066140811436</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046083666678024</v>
+        <v>1.046181722798982</v>
       </c>
       <c r="J19">
-        <v>0.9995051618124826</v>
+        <v>1.00237909249925</v>
       </c>
       <c r="K19">
-        <v>1.004323771261182</v>
+        <v>1.007962197049114</v>
       </c>
       <c r="L19">
-        <v>0.9967272190177935</v>
+        <v>0.999291925789614</v>
       </c>
       <c r="M19">
-        <v>1.025434210970776</v>
+        <v>1.026599728899737</v>
       </c>
       <c r="N19">
-        <v>1.003453169443127</v>
+        <v>1.007686647088103</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.029277498414009</v>
+        <v>1.030199326556986</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.01420361209541</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.016792744930151</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.014348837986167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9694693939068292</v>
+        <v>0.9726473937569436</v>
       </c>
       <c r="D20">
-        <v>0.9889100901668019</v>
+        <v>0.9928249477696752</v>
       </c>
       <c r="E20">
-        <v>0.9810521136714115</v>
+        <v>0.9838260146295298</v>
       </c>
       <c r="F20">
-        <v>1.008750319857187</v>
+        <v>1.010022256180545</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045724798283734</v>
+        <v>1.045837352390799</v>
       </c>
       <c r="J20">
-        <v>0.998230156153905</v>
+        <v>1.001275011187048</v>
       </c>
       <c r="K20">
-        <v>1.003150786122043</v>
+        <v>1.006995146146286</v>
       </c>
       <c r="L20">
-        <v>0.9954365272843646</v>
+        <v>0.9981593537998326</v>
       </c>
       <c r="M20">
-        <v>1.022641030920387</v>
+        <v>1.023891136175991</v>
       </c>
       <c r="N20">
-        <v>1.002950024227636</v>
+        <v>1.007403042342868</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.02653259873695</v>
+        <v>1.027521941718717</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.013378261485203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.016113397168642</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.014089157041878</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9644174013403928</v>
+        <v>0.9680842135332632</v>
       </c>
       <c r="D21">
-        <v>0.9852783757745787</v>
+        <v>0.9897385628661665</v>
       </c>
       <c r="E21">
-        <v>0.9771209603916023</v>
+        <v>0.9803253463112043</v>
       </c>
       <c r="F21">
-        <v>1.005001960039007</v>
+        <v>1.006497158657728</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045323057528159</v>
+        <v>1.045459742102365</v>
       </c>
       <c r="J21">
-        <v>0.9954820085732067</v>
+        <v>0.998979698239545</v>
       </c>
       <c r="K21">
-        <v>1.00054412643884</v>
+        <v>1.00491698452687</v>
       </c>
       <c r="L21">
-        <v>0.9925491458009452</v>
+        <v>0.9956893003459245</v>
       </c>
       <c r="M21">
-        <v>1.019889184384745</v>
+        <v>1.021356477058374</v>
       </c>
       <c r="N21">
-        <v>1.001963169229136</v>
+        <v>1.007174937118566</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.024313159834747</v>
+        <v>1.025474449483842</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.011538485349412</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.014647653088822</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01361312663909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9611842903752061</v>
+        <v>0.9651660487403869</v>
       </c>
       <c r="D22">
-        <v>0.9829576135946759</v>
+        <v>0.9877677116261158</v>
       </c>
       <c r="E22">
-        <v>0.9746152406422015</v>
+        <v>0.9780969092317043</v>
       </c>
       <c r="F22">
-        <v>1.002702446991986</v>
+        <v>1.004343945379581</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045060526906658</v>
+        <v>1.045213057107427</v>
       </c>
       <c r="J22">
-        <v>0.9937280052026563</v>
+        <v>0.9975151028069624</v>
       </c>
       <c r="K22">
-        <v>0.9988744160124943</v>
+        <v>1.003585450664638</v>
       </c>
       <c r="L22">
-        <v>0.9907069237885365</v>
+        <v>0.9941151265825361</v>
       </c>
       <c r="M22">
-        <v>1.018220557308777</v>
+        <v>1.019829836258973</v>
       </c>
       <c r="N22">
-        <v>1.001333426553357</v>
+        <v>1.007021690683078</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.022992521540808</v>
+        <v>1.024266188683988</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.010343915966837</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.013690944593481</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.013305973828029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9628874408415214</v>
+        <v>0.966689839549792</v>
       </c>
       <c r="D23">
-        <v>0.9841698150834414</v>
+        <v>0.9887847787251299</v>
       </c>
       <c r="E23">
-        <v>0.9759320855066601</v>
+        <v>0.9792552336664126</v>
       </c>
       <c r="F23">
-        <v>1.00391699560405</v>
+        <v>1.005473439151399</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045200823474611</v>
+        <v>1.045343931771419</v>
       </c>
       <c r="J23">
-        <v>0.9946448328364677</v>
+        <v>0.9982669424523171</v>
       </c>
       <c r="K23">
-        <v>0.9997412770974449</v>
+        <v>1.004263685406094</v>
       </c>
       <c r="L23">
-        <v>0.9916716316681308</v>
+        <v>0.9949265249507915</v>
       </c>
       <c r="M23">
-        <v>1.019100230802291</v>
+        <v>1.020626923020133</v>
       </c>
       <c r="N23">
-        <v>1.001661283760902</v>
+        <v>1.007054640293222</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.023688741237714</v>
+        <v>1.024897043759093</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.010946910529973</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.014159633568559</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.013458953710562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9694850071913877</v>
+        <v>0.9726644457972224</v>
       </c>
       <c r="D24">
-        <v>0.9889011989552796</v>
+        <v>0.9928173381399726</v>
       </c>
       <c r="E24">
-        <v>0.981055498367955</v>
+        <v>0.9838309635327159</v>
       </c>
       <c r="F24">
-        <v>1.008626791051091</v>
+        <v>1.009899859387684</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045708132511187</v>
+        <v>1.04582126633112</v>
       </c>
       <c r="J24">
-        <v>0.9982105066215804</v>
+        <v>1.001256935112633</v>
       </c>
       <c r="K24">
-        <v>1.003126066327057</v>
+        <v>1.00697177451335</v>
       </c>
       <c r="L24">
-        <v>0.9954236740426006</v>
+        <v>0.9981481027724008</v>
       </c>
       <c r="M24">
-        <v>1.022504085534973</v>
+        <v>1.02375532459902</v>
       </c>
       <c r="N24">
-        <v>1.002937423897039</v>
+        <v>1.007389867771129</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.026382723508815</v>
+        <v>1.027373014525126</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.013332524430401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.01606598797838</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.014077423612301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9768779586910001</v>
+        <v>0.9795540191305313</v>
       </c>
       <c r="D25">
-        <v>0.9942416584950954</v>
+        <v>0.9975286425283575</v>
       </c>
       <c r="E25">
-        <v>0.9868319715428527</v>
+        <v>0.9891705510585805</v>
       </c>
       <c r="F25">
-        <v>1.013922773146683</v>
+        <v>1.014984296679234</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046200878411748</v>
+        <v>1.046293948574953</v>
       </c>
       <c r="J25">
-        <v>1.002209338931302</v>
+        <v>1.004789622791425</v>
       </c>
       <c r="K25">
-        <v>1.006930027884918</v>
+        <v>1.010165444666772</v>
       </c>
       <c r="L25">
-        <v>0.9996382025759037</v>
+        <v>1.001939339206751</v>
       </c>
       <c r="M25">
-        <v>1.026308733352474</v>
+        <v>1.02735437020787</v>
       </c>
       <c r="N25">
-        <v>1.004365636735199</v>
+        <v>1.008340526861808</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.029393901089887</v>
+        <v>1.030221465072523</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.016019326829064</v>
+        <v>1.018320925120591</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.014813839017445</v>
       </c>
     </row>
   </sheetData>
